--- a/stocks/nc_xpi.xlsx
+++ b/stocks/nc_xpi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
   <si>
     <t>ATIVO</t>
   </si>
@@ -160,9 +160,6 @@
     <t>MED VD</t>
   </si>
   <si>
-    <t>LUCRO</t>
-  </si>
-  <si>
     <t>PAR</t>
   </si>
   <si>
@@ -179,6 +176,15 @@
   </si>
   <si>
     <t>VOLUME</t>
+  </si>
+  <si>
+    <t>LUCRO D</t>
+  </si>
+  <si>
+    <t>LUCRO N</t>
+  </si>
+  <si>
+    <t>LUCRO OP</t>
   </si>
 </sst>
 </file>
@@ -369,7 +375,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="58">
     <dxf>
       <font>
         <b val="0"/>
@@ -386,7 +392,45 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -880,7 +924,26 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -975,7 +1038,26 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1051,7 +1133,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2122,77 +2204,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AA31" totalsRowCount="1" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:AA30"/>
-  <sortState ref="A2:X30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AC31" totalsRowCount="1" headerRowDxfId="57" dataDxfId="56">
+  <autoFilter ref="A1:AC30"/>
+  <sortState ref="A2:AC30">
     <sortCondition ref="A1:A30"/>
   </sortState>
-  <tableColumns count="27">
-    <tableColumn id="19" name="ID" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="25"/>
-    <tableColumn id="2" name="ATIVO" dataDxfId="50" totalsRowDxfId="24"/>
-    <tableColumn id="3" name="[C/V]" dataDxfId="49" totalsRowDxfId="23"/>
-    <tableColumn id="4" name="DATA" dataDxfId="48" totalsRowDxfId="22"/>
-    <tableColumn id="5" name="QTDE" dataDxfId="47" totalsRowDxfId="21"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="46" totalsRowDxfId="20"/>
-    <tableColumn id="7" name="[D/N]" dataDxfId="45" totalsRowDxfId="19"/>
-    <tableColumn id="21" name="PAR" dataDxfId="44" totalsRowDxfId="18">
+  <tableColumns count="29">
+    <tableColumn id="19" name="ID" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="27"/>
+    <tableColumn id="2" name="ATIVO" dataDxfId="54" totalsRowDxfId="26"/>
+    <tableColumn id="3" name="[C/V]" dataDxfId="53" totalsRowDxfId="25"/>
+    <tableColumn id="4" name="DATA" dataDxfId="52" totalsRowDxfId="24"/>
+    <tableColumn id="5" name="QTDE" dataDxfId="51" totalsRowDxfId="23"/>
+    <tableColumn id="6" name="PREÇO" dataDxfId="50" totalsRowDxfId="22"/>
+    <tableColumn id="7" name="[D/N]" dataDxfId="49" totalsRowDxfId="21"/>
+    <tableColumn id="21" name="PAR" dataDxfId="48" totalsRowDxfId="20">
       <calculatedColumnFormula>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR" dataDxfId="43" totalsRowDxfId="17">
+    <tableColumn id="8" name="VALOR" dataDxfId="47" totalsRowDxfId="19">
       <calculatedColumnFormula>NC[QTDE]*NC[PREÇO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="VL LIQUID" dataDxfId="42" totalsRowDxfId="16">
+    <tableColumn id="9" name="VL LIQUID" dataDxfId="46" totalsRowDxfId="18">
       <calculatedColumnFormula>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TX LIQUID" dataDxfId="41" totalsRowDxfId="15">
+    <tableColumn id="10" name="TX LIQUID" dataDxfId="45" totalsRowDxfId="17">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL" dataDxfId="31" totalsRowDxfId="14">
+    <tableColumn id="11" name="EMOL" dataDxfId="44" totalsRowDxfId="16">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORR. BASE" dataDxfId="40" totalsRowDxfId="13">
+    <tableColumn id="12" name="CORR. BASE" dataDxfId="43" totalsRowDxfId="15">
       <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="39" totalsRowDxfId="12">
+    <tableColumn id="13" name="ISS" dataDxfId="42" totalsRowDxfId="14">
       <calculatedColumnFormula>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="OUTRAS" dataDxfId="30" totalsRowDxfId="11">
+    <tableColumn id="15" name="OUTRAS" dataDxfId="41" totalsRowDxfId="13">
       <calculatedColumnFormula>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="LÍQUIDO" dataDxfId="29" totalsRowDxfId="10">
+    <tableColumn id="16" name="LÍQUIDO" dataDxfId="40" totalsRowDxfId="12">
       <calculatedColumnFormula>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="28" totalsRowDxfId="9">
+    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="39" totalsRowDxfId="11">
       <calculatedColumnFormula>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO" dataDxfId="38" totalsRowDxfId="8">
+    <tableColumn id="18" name="MEDIO" dataDxfId="38" totalsRowDxfId="10">
       <calculatedColumnFormula>ABS(Q2)/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="7">
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="9">
       <calculatedColumnFormula>TRUNC(IF(NC['[C/V']]="V",I2*SETUP!$H$3,0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="27" totalsRowDxfId="6">
+    <tableColumn id="24" name="SALDO" dataDxfId="36" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="0" totalsRowDxfId="5">
-      <calculatedColumnFormula>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H2),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A2),N(Planilha1!$H$2:$H$30=Planilha1!$H2),Planilha1!$E$2:$E$30)))</calculatedColumnFormula>
+    <tableColumn id="22" name="MED CP" dataDxfId="29" totalsRowDxfId="7">
+      <calculatedColumnFormula>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="36" totalsRowDxfId="4">
+    <tableColumn id="23" name="MED VD" dataDxfId="35" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(NC['[C/V']]="V",NC[MEDIO],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="3">
-      <calculatedColumnFormula>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D2),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</calculatedColumnFormula>
+    <tableColumn id="25" name="LUCRO OP" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="5">
+      <calculatedColumnFormula>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="CARTEIRA" dataDxfId="34" totalsRowDxfId="2">
-      <calculatedColumnFormula>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D2)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D2)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D2)-IF(MONTH(Planilha1!$D2)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D2)=1,12,MONTH(Planilha1!$D2)-1)),Planilha1!$P$2:$P$30))</calculatedColumnFormula>
+    <tableColumn id="27" name="CARTEIRA" dataDxfId="0" totalsRowDxfId="4">
+      <calculatedColumnFormula>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="LUCRO MÊS" dataDxfId="33" totalsRowDxfId="1">
-      <calculatedColumnFormula>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</calculatedColumnFormula>
+    <tableColumn id="26" name="LUCRO N" dataDxfId="33" totalsRowDxfId="3">
+      <calculatedColumnFormula>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="%" dataDxfId="32">
+    <tableColumn id="14" name="LUCRO D" dataDxfId="32" totalsRowDxfId="2">
+      <calculatedColumnFormula>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="LUCRO MÊS" dataDxfId="31" totalsRowDxfId="1">
+      <calculatedColumnFormula>NC[LUCRO N]+NC[LUCRO D]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="%" dataDxfId="30">
       <calculatedColumnFormula>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="VOLUME" dataDxfId="26">
+    <tableColumn id="1" name="VOLUME" dataDxfId="34">
       <calculatedColumnFormula>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2703,13 +2791,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2737,13 +2825,13 @@
     <col min="21" max="21" width="8.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.5703125" style="15"/>
+    <col min="25" max="26" width="9" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="11.5703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>39</v>
       </c>
@@ -2766,7 +2854,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>5</v>
@@ -2802,7 +2890,7 @@
         <v>43</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U1" s="18" t="s">
         <v>44</v>
@@ -2811,22 +2899,28 @@
         <v>45</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="X1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>52</v>
+      <c r="AB1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -2889,7 +2983,7 @@
         <v>-1378.2299999999998</v>
       </c>
       <c r="R2" s="23">
-        <f t="shared" ref="R2:R30" si="0">ABS(Q2)/E2</f>
+        <f>ABS(Q2)/E2</f>
         <v>13.782299999999998</v>
       </c>
       <c r="S2" s="23">
@@ -2901,7 +2995,7 @@
         <v>100</v>
       </c>
       <c r="U2" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H2),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A2),N(Planilha1!$H$2:$H$30=Planilha1!$H2),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>13.782299999999998</v>
       </c>
       <c r="V2" s="25">
@@ -2909,27 +3003,35 @@
         <v>0</v>
       </c>
       <c r="W2" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D2),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X2" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D2)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D2)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D2)-IF(MONTH(Planilha1!$D2)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D2)=1,12,MONTH(Planilha1!$D2)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
       <c r="Y2" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
-        <v>270.27500000000026</v>
-      </c>
-      <c r="Z2" s="26">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <v>306.37500000000023</v>
+      </c>
+      <c r="Z2" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>-36.1</v>
+      </c>
+      <c r="AA2" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>270.2750000000002</v>
+      </c>
+      <c r="AB2" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271579E-2</v>
-      </c>
-      <c r="AA2" s="23">
+        <v>7.4778417666271566E-2</v>
+      </c>
+      <c r="AC2" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -2992,7 +3094,7 @@
         <v>-861.04999999999984</v>
       </c>
       <c r="R3" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q3)/E3</f>
         <v>8.6104999999999983</v>
       </c>
       <c r="S3" s="23">
@@ -3004,7 +3106,7 @@
         <v>100</v>
       </c>
       <c r="U3" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H3),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A3),N(Planilha1!$H$2:$H$30=Planilha1!$H3),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>8.6104999999999983</v>
       </c>
       <c r="V3" s="25">
@@ -3012,27 +3114,35 @@
         <v>0</v>
       </c>
       <c r="W3" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D3),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X3" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D3)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D3)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D3)-IF(MONTH(Planilha1!$D3)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D3)=1,12,MONTH(Planilha1!$D3)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
       <c r="Y3" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
-        <v>270.27500000000026</v>
-      </c>
-      <c r="Z3" s="26">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <v>306.37500000000023</v>
+      </c>
+      <c r="Z3" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>-36.1</v>
+      </c>
+      <c r="AA3" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>270.2750000000002</v>
+      </c>
+      <c r="AB3" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271579E-2</v>
-      </c>
-      <c r="AA3" s="23">
+        <v>7.4778417666271566E-2</v>
+      </c>
+      <c r="AC3" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -3095,7 +3205,7 @@
         <v>1583.68</v>
       </c>
       <c r="R4" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q4)/E4</f>
         <v>15.8368</v>
       </c>
       <c r="S4" s="23">
@@ -3107,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H4),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A4),N(Planilha1!$H$2:$H$30=Planilha1!$H4),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>13.782299999999998</v>
       </c>
       <c r="V4" s="25">
@@ -3115,27 +3225,35 @@
         <v>15.8368</v>
       </c>
       <c r="W4" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D4),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>205.45000000000027</v>
       </c>
       <c r="X4" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D4)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D4)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D4)-IF(MONTH(Planilha1!$D4)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D4)=1,12,MONTH(Planilha1!$D4)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
       <c r="Y4" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
-        <v>270.27500000000026</v>
-      </c>
-      <c r="Z4" s="26">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <v>306.37500000000023</v>
+      </c>
+      <c r="Z4" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>-36.1</v>
+      </c>
+      <c r="AA4" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>270.2750000000002</v>
+      </c>
+      <c r="AB4" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271579E-2</v>
-      </c>
-      <c r="AA4" s="23">
+        <v>7.4778417666271566E-2</v>
+      </c>
+      <c r="AC4" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -3198,7 +3316,7 @@
         <v>-1148.04</v>
       </c>
       <c r="R5" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q5)/E5</f>
         <v>5.7401999999999997</v>
       </c>
       <c r="S5" s="23">
@@ -3210,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H5),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A5),N(Planilha1!$H$2:$H$30=Planilha1!$H5),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V5" s="25">
@@ -3218,27 +3336,35 @@
         <v>0</v>
       </c>
       <c r="W5" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D5),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X5" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D5)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D5)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D5)-IF(MONTH(Planilha1!$D5)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D5)=1,12,MONTH(Planilha1!$D5)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
       <c r="Y5" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
-        <v>270.27500000000026</v>
-      </c>
-      <c r="Z5" s="26">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <v>306.37500000000023</v>
+      </c>
+      <c r="Z5" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>-36.1</v>
+      </c>
+      <c r="AA5" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>270.2750000000002</v>
+      </c>
+      <c r="AB5" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271579E-2</v>
-      </c>
-      <c r="AA5" s="23">
+        <v>7.4778417666271566E-2</v>
+      </c>
+      <c r="AC5" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -3301,7 +3427,7 @@
         <v>1111.94</v>
       </c>
       <c r="R6" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q6)/E6</f>
         <v>5.5597000000000003</v>
       </c>
       <c r="S6" s="23">
@@ -3313,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H6),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A6),N(Planilha1!$H$2:$H$30=Planilha1!$H6),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V6" s="25">
@@ -3321,27 +3447,35 @@
         <v>5.5597000000000003</v>
       </c>
       <c r="W6" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D6),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-36.1</v>
       </c>
       <c r="X6" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D6)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D6)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D6)-IF(MONTH(Planilha1!$D6)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D6)=1,12,MONTH(Planilha1!$D6)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
       <c r="Y6" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
-        <v>270.27500000000026</v>
-      </c>
-      <c r="Z6" s="26">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <v>306.37500000000023</v>
+      </c>
+      <c r="Z6" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>-36.1</v>
+      </c>
+      <c r="AA6" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>270.2750000000002</v>
+      </c>
+      <c r="AB6" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271579E-2</v>
-      </c>
-      <c r="AA6" s="23">
+        <v>7.4778417666271566E-2</v>
+      </c>
+      <c r="AC6" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -3404,7 +3538,7 @@
         <v>-1146.1700000000003</v>
       </c>
       <c r="R7" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q7)/E7</f>
         <v>5.7308500000000011</v>
       </c>
       <c r="S7" s="23">
@@ -3416,7 +3550,7 @@
         <v>200</v>
       </c>
       <c r="U7" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H7),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A7),N(Planilha1!$H$2:$H$30=Planilha1!$H7),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>5.7308500000000011</v>
       </c>
       <c r="V7" s="25">
@@ -3424,27 +3558,35 @@
         <v>0</v>
       </c>
       <c r="W7" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D7),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X7" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D7)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D7)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D7)-IF(MONTH(Planilha1!$D7)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D7)=1,12,MONTH(Planilha1!$D7)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
       <c r="Y7" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
-        <v>270.27500000000026</v>
-      </c>
-      <c r="Z7" s="26">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <v>306.37500000000023</v>
+      </c>
+      <c r="Z7" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>-36.1</v>
+      </c>
+      <c r="AA7" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>270.2750000000002</v>
+      </c>
+      <c r="AB7" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271579E-2</v>
-      </c>
-      <c r="AA7" s="23">
+        <v>7.4778417666271566E-2</v>
+      </c>
+      <c r="AC7" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -3507,7 +3649,7 @@
         <v>837.94999999999993</v>
       </c>
       <c r="R8" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q8)/E8</f>
         <v>4.1897500000000001</v>
       </c>
       <c r="S8" s="23">
@@ -3519,7 +3661,7 @@
         <v>-200</v>
       </c>
       <c r="U8" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H8),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A8),N(Planilha1!$H$2:$H$30=Planilha1!$H8),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V8" s="25">
@@ -3527,27 +3669,35 @@
         <v>4.1897500000000001</v>
       </c>
       <c r="W8" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D8),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X8" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D8)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D8)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D8)-IF(MONTH(Planilha1!$D8)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D8)=1,12,MONTH(Planilha1!$D8)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
       <c r="Y8" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
-        <v>270.27500000000026</v>
-      </c>
-      <c r="Z8" s="26">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <v>306.37500000000023</v>
+      </c>
+      <c r="Z8" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>-36.1</v>
+      </c>
+      <c r="AA8" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>270.2750000000002</v>
+      </c>
+      <c r="AB8" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271579E-2</v>
-      </c>
-      <c r="AA8" s="23">
+        <v>7.4778417666271566E-2</v>
+      </c>
+      <c r="AC8" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -3610,7 +3760,7 @@
         <v>-2374.5699999999997</v>
       </c>
       <c r="R9" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q9)/E9</f>
         <v>7.9152333333333322</v>
       </c>
       <c r="S9" s="23">
@@ -3622,7 +3772,7 @@
         <v>300</v>
       </c>
       <c r="U9" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H9),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A9),N(Planilha1!$H$2:$H$30=Planilha1!$H9),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>7.9152333333333322</v>
       </c>
       <c r="V9" s="25">
@@ -3630,27 +3780,35 @@
         <v>0</v>
       </c>
       <c r="W9" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D9),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X9" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D9)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D9)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D9)-IF(MONTH(Planilha1!$D9)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D9)=1,12,MONTH(Planilha1!$D9)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
       <c r="Y9" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
-        <v>270.27500000000026</v>
-      </c>
-      <c r="Z9" s="26">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <v>306.37500000000023</v>
+      </c>
+      <c r="Z9" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>-36.1</v>
+      </c>
+      <c r="AA9" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>270.2750000000002</v>
+      </c>
+      <c r="AB9" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271579E-2</v>
-      </c>
-      <c r="AA9" s="23">
+        <v>7.4778417666271566E-2</v>
+      </c>
+      <c r="AC9" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -3713,7 +3871,7 @@
         <v>674.0100000000001</v>
       </c>
       <c r="R10" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q10)/E10</f>
         <v>6.7401000000000009</v>
       </c>
       <c r="S10" s="23">
@@ -3725,7 +3883,7 @@
         <v>100</v>
       </c>
       <c r="U10" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H10),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A10),N(Planilha1!$H$2:$H$30=Planilha1!$H10),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>5.7308500000000011</v>
       </c>
       <c r="V10" s="25">
@@ -3733,27 +3891,35 @@
         <v>6.7401000000000009</v>
       </c>
       <c r="W10" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D10),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>100.92499999999998</v>
       </c>
       <c r="X10" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D10)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D10)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D10)-IF(MONTH(Planilha1!$D10)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D10)=1,12,MONTH(Planilha1!$D10)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
       <c r="Y10" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
-        <v>270.27500000000026</v>
-      </c>
-      <c r="Z10" s="26">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <v>306.37500000000023</v>
+      </c>
+      <c r="Z10" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>-36.1</v>
+      </c>
+      <c r="AA10" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>270.2750000000002</v>
+      </c>
+      <c r="AB10" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271579E-2</v>
-      </c>
-      <c r="AA10" s="23">
+        <v>7.4778417666271566E-2</v>
+      </c>
+      <c r="AC10" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -3816,7 +3982,7 @@
         <v>567.03000000000009</v>
       </c>
       <c r="R11" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q11)/E11</f>
         <v>5.670300000000001</v>
       </c>
       <c r="S11" s="23">
@@ -3828,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H11),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A11),N(Planilha1!$H$2:$H$30=Planilha1!$H11),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>5.7308500000000011</v>
       </c>
       <c r="V11" s="25">
@@ -3836,27 +4002,35 @@
         <v>5.670300000000001</v>
       </c>
       <c r="W11" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D11),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-6.0550000000000104</v>
       </c>
       <c r="X11" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D11)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D11)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D11)-IF(MONTH(Planilha1!$D11)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D11)=1,12,MONTH(Planilha1!$D11)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>4947.0199999999986</v>
       </c>
       <c r="Y11" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-174.46500000000054</v>
       </c>
-      <c r="Z11" s="26">
+      <c r="Z11" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-174.46500000000054</v>
+      </c>
+      <c r="AB11" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-3.4065315040462014E-2</v>
       </c>
-      <c r="AA11" s="23">
+      <c r="AC11" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -3919,7 +4093,7 @@
         <v>-1176.1599999999999</v>
       </c>
       <c r="R12" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q12)/E12</f>
         <v>5.8807999999999989</v>
       </c>
       <c r="S12" s="23">
@@ -3931,7 +4105,7 @@
         <v>200</v>
       </c>
       <c r="U12" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H12),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A12),N(Planilha1!$H$2:$H$30=Planilha1!$H12),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>5.8807999999999989</v>
       </c>
       <c r="V12" s="25">
@@ -3939,27 +4113,35 @@
         <v>0</v>
       </c>
       <c r="W12" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D12),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X12" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D12)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D12)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D12)-IF(MONTH(Planilha1!$D12)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D12)=1,12,MONTH(Planilha1!$D12)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>4947.0199999999986</v>
       </c>
       <c r="Y12" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-174.46500000000054</v>
       </c>
-      <c r="Z12" s="26">
+      <c r="Z12" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-174.46500000000054</v>
+      </c>
+      <c r="AB12" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-3.4065315040462014E-2</v>
       </c>
-      <c r="AA12" s="23">
+      <c r="AC12" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -4022,7 +4204,7 @@
         <v>2695.31</v>
       </c>
       <c r="R13" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q13)/E13</f>
         <v>8.9843666666666664</v>
       </c>
       <c r="S13" s="23">
@@ -4034,7 +4216,7 @@
         <v>-300</v>
       </c>
       <c r="U13" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H13),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A13),N(Planilha1!$H$2:$H$30=Planilha1!$H13),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V13" s="25">
@@ -4042,27 +4224,35 @@
         <v>8.9843666666666664</v>
       </c>
       <c r="W13" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D13),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X13" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D13)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D13)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D13)-IF(MONTH(Planilha1!$D13)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D13)=1,12,MONTH(Planilha1!$D13)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>4947.0199999999986</v>
       </c>
       <c r="Y13" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-174.46500000000054</v>
       </c>
-      <c r="Z13" s="26">
+      <c r="Z13" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-174.46500000000054</v>
+      </c>
+      <c r="AB13" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-3.4065315040462014E-2</v>
       </c>
-      <c r="AA13" s="23">
+      <c r="AC13" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -4125,7 +4315,7 @@
         <v>1095.829999999999</v>
       </c>
       <c r="R14" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q14)/E14</f>
         <v>5.4791499999999953</v>
       </c>
       <c r="S14" s="23">
@@ -4137,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H14),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A14),N(Planilha1!$H$2:$H$30=Planilha1!$H14),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>5.8807999999999989</v>
       </c>
       <c r="V14" s="25">
@@ -4145,27 +4335,35 @@
         <v>5.4791499999999953</v>
       </c>
       <c r="W14" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D14),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-80.330000000000723</v>
       </c>
       <c r="X14" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D14)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D14)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D14)-IF(MONTH(Planilha1!$D14)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D14)=1,12,MONTH(Planilha1!$D14)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>4947.0199999999986</v>
       </c>
       <c r="Y14" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-174.46500000000054</v>
       </c>
-      <c r="Z14" s="26">
+      <c r="Z14" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-174.46500000000054</v>
+      </c>
+      <c r="AB14" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-3.4065315040462014E-2</v>
       </c>
-      <c r="AA14" s="23">
+      <c r="AC14" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -4228,7 +4426,7 @@
         <v>-1016.11</v>
       </c>
       <c r="R15" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q15)/E15</f>
         <v>0.50805500000000003</v>
       </c>
       <c r="S15" s="23">
@@ -4240,7 +4438,7 @@
         <v>2000</v>
       </c>
       <c r="U15" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H15),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A15),N(Planilha1!$H$2:$H$30=Planilha1!$H15),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.50805500000000003</v>
       </c>
       <c r="V15" s="25">
@@ -4248,27 +4446,35 @@
         <v>0</v>
       </c>
       <c r="W15" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D15),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X15" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D15)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D15)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D15)-IF(MONTH(Planilha1!$D15)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D15)=1,12,MONTH(Planilha1!$D15)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>4947.0199999999986</v>
       </c>
       <c r="Y15" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-174.46500000000054</v>
       </c>
-      <c r="Z15" s="26">
+      <c r="Z15" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-174.46500000000054</v>
+      </c>
+      <c r="AB15" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-3.4065315040462014E-2</v>
       </c>
-      <c r="AA15" s="23">
+      <c r="AC15" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -4331,7 +4537,7 @@
         <v>772.97</v>
       </c>
       <c r="R16" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q16)/E16</f>
         <v>7.7297000000000002</v>
       </c>
       <c r="S16" s="23">
@@ -4343,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H16),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A16),N(Planilha1!$H$2:$H$30=Planilha1!$H16),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>8.6104999999999983</v>
       </c>
       <c r="V16" s="25">
@@ -4351,27 +4557,35 @@
         <v>7.7297000000000002</v>
       </c>
       <c r="W16" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D16),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-88.079999999999799</v>
       </c>
       <c r="X16" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D16)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D16)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D16)-IF(MONTH(Planilha1!$D16)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D16)=1,12,MONTH(Planilha1!$D16)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>4947.0199999999986</v>
       </c>
       <c r="Y16" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-174.46500000000054</v>
       </c>
-      <c r="Z16" s="26">
+      <c r="Z16" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-174.46500000000054</v>
+      </c>
+      <c r="AB16" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-3.4065315040462014E-2</v>
       </c>
-      <c r="AA16" s="23">
+      <c r="AC16" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -4434,7 +4648,7 @@
         <v>-2845.73</v>
       </c>
       <c r="R17" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q17)/E17</f>
         <v>9.4857666666666667</v>
       </c>
       <c r="S17" s="23">
@@ -4446,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H17),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A17),N(Planilha1!$H$2:$H$30=Planilha1!$H17),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>9.4857666666666667</v>
       </c>
       <c r="V17" s="25">
@@ -4454,27 +4668,35 @@
         <v>0</v>
       </c>
       <c r="W17" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D17),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X17" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D17)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D17)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D17)-IF(MONTH(Planilha1!$D17)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D17)=1,12,MONTH(Planilha1!$D17)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>4947.0199999999986</v>
       </c>
       <c r="Y17" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-174.46500000000054</v>
       </c>
-      <c r="Z17" s="26">
+      <c r="Z17" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-174.46500000000054</v>
+      </c>
+      <c r="AB17" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-3.4065315040462014E-2</v>
       </c>
-      <c r="AA17" s="23">
+      <c r="AC17" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -4537,7 +4759,7 @@
         <v>-1005.1200000000003</v>
       </c>
       <c r="R18" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q18)/E18</f>
         <v>0.43700869565217404</v>
       </c>
       <c r="S18" s="23">
@@ -4549,7 +4771,7 @@
         <v>2300</v>
       </c>
       <c r="U18" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H18),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A18),N(Planilha1!$H$2:$H$30=Planilha1!$H18),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.43700869565217404</v>
       </c>
       <c r="V18" s="25">
@@ -4557,27 +4779,35 @@
         <v>0</v>
       </c>
       <c r="W18" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D18),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X18" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D18)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D18)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D18)-IF(MONTH(Planilha1!$D18)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D18)=1,12,MONTH(Planilha1!$D18)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>4947.0199999999986</v>
       </c>
       <c r="Y18" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-174.46500000000054</v>
       </c>
-      <c r="Z18" s="26">
+      <c r="Z18" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-174.46500000000054</v>
+      </c>
+      <c r="AB18" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-3.4065315040462014E-2</v>
       </c>
-      <c r="AA18" s="23">
+      <c r="AC18" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -4640,7 +4870,7 @@
         <v>-968.08999999999992</v>
       </c>
       <c r="R19" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q19)/E19</f>
         <v>4.8404499999999997</v>
       </c>
       <c r="S19" s="23">
@@ -4652,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H19),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A19),N(Planilha1!$H$2:$H$30=Planilha1!$H19),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>4.8404499999999997</v>
       </c>
       <c r="V19" s="25">
@@ -4660,27 +4890,35 @@
         <v>0</v>
       </c>
       <c r="W19" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D19),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X19" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D19)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D19)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D19)-IF(MONTH(Planilha1!$D19)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D19)=1,12,MONTH(Planilha1!$D19)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3771.17</v>
       </c>
       <c r="Y19" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-337.03999999999962</v>
       </c>
-      <c r="Z19" s="26">
+      <c r="Z19" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-337.03999999999962</v>
+      </c>
+      <c r="AB19" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-8.2040596756251416E-2</v>
       </c>
-      <c r="AA19" s="23">
+      <c r="AC19" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -4743,7 +4981,7 @@
         <v>2293.44</v>
       </c>
       <c r="R20" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q20)/E20</f>
         <v>7.6448</v>
       </c>
       <c r="S20" s="23">
@@ -4755,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H20),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A20),N(Planilha1!$H$2:$H$30=Planilha1!$H20),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>7.9152333333333322</v>
       </c>
       <c r="V20" s="25">
@@ -4763,27 +5001,35 @@
         <v>7.6448</v>
       </c>
       <c r="W20" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D20),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-81.129999999999654</v>
       </c>
       <c r="X20" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D20)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D20)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D20)-IF(MONTH(Planilha1!$D20)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D20)=1,12,MONTH(Planilha1!$D20)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3771.17</v>
       </c>
       <c r="Y20" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-337.03999999999962</v>
       </c>
-      <c r="Z20" s="26">
+      <c r="Z20" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-337.03999999999962</v>
+      </c>
+      <c r="AB20" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-8.2040596756251416E-2</v>
       </c>
-      <c r="AA20" s="23">
+      <c r="AC20" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -4846,7 +5092,7 @@
         <v>-1385.25</v>
       </c>
       <c r="R21" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q21)/E21</f>
         <v>0.37439189189189187</v>
       </c>
       <c r="S21" s="23">
@@ -4858,7 +5104,7 @@
         <v>6000</v>
       </c>
       <c r="U21" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H21),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A21),N(Planilha1!$H$2:$H$30=Planilha1!$H21),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.39839500000000005</v>
       </c>
       <c r="V21" s="25">
@@ -4866,27 +5112,35 @@
         <v>0</v>
       </c>
       <c r="W21" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D21),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X21" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D21)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D21)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D21)-IF(MONTH(Planilha1!$D21)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D21)=1,12,MONTH(Planilha1!$D21)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3771.17</v>
       </c>
       <c r="Y21" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-337.03999999999962</v>
       </c>
-      <c r="Z21" s="26">
+      <c r="Z21" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-337.03999999999962</v>
+      </c>
+      <c r="AB21" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-8.2040596756251416E-2</v>
       </c>
-      <c r="AA21" s="23">
+      <c r="AC21" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -4949,7 +5203,7 @@
         <v>-1201.19</v>
       </c>
       <c r="R22" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q22)/E22</f>
         <v>2.40238</v>
       </c>
       <c r="S22" s="23">
@@ -4961,7 +5215,7 @@
         <v>500</v>
       </c>
       <c r="U22" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H22),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A22),N(Planilha1!$H$2:$H$30=Planilha1!$H22),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>2.40238</v>
       </c>
       <c r="V22" s="25">
@@ -4969,27 +5223,35 @@
         <v>0</v>
       </c>
       <c r="W22" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D22),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X22" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D22)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D22)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D22)-IF(MONTH(Planilha1!$D22)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D22)=1,12,MONTH(Planilha1!$D22)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3771.17</v>
       </c>
       <c r="Y22" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-337.03999999999962</v>
       </c>
-      <c r="Z22" s="26">
+      <c r="Z22" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-337.03999999999962</v>
+      </c>
+      <c r="AB22" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-8.2040596756251416E-2</v>
       </c>
-      <c r="AA22" s="23">
+      <c r="AC22" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>22</v>
       </c>
@@ -5052,7 +5314,7 @@
         <v>624.0200000000001</v>
       </c>
       <c r="R23" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q23)/E23</f>
         <v>0.39001250000000004</v>
       </c>
       <c r="S23" s="23">
@@ -5064,7 +5326,7 @@
         <v>400</v>
       </c>
       <c r="U23" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H23),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A23),N(Planilha1!$H$2:$H$30=Planilha1!$H23),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.50805500000000003</v>
       </c>
       <c r="V23" s="25">
@@ -5072,27 +5334,35 @@
         <v>0.39001250000000004</v>
       </c>
       <c r="W23" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D23),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-188.86799999999999</v>
       </c>
       <c r="X23" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D23)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D23)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D23)-IF(MONTH(Planilha1!$D23)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D23)=1,12,MONTH(Planilha1!$D23)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3771.17</v>
       </c>
       <c r="Y23" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-337.03999999999962</v>
       </c>
-      <c r="Z23" s="26">
+      <c r="Z23" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-337.03999999999962</v>
+      </c>
+      <c r="AB23" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-8.2040596756251416E-2</v>
       </c>
-      <c r="AA23" s="23">
+      <c r="AC23" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -5155,7 +5425,7 @@
         <v>-615.99000000000012</v>
       </c>
       <c r="R24" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q24)/E24</f>
         <v>0.20533000000000004</v>
       </c>
       <c r="S24" s="23">
@@ -5167,7 +5437,7 @@
         <v>3000</v>
       </c>
       <c r="U24" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H24),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A24),N(Planilha1!$H$2:$H$30=Planilha1!$H24),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.20533000000000004</v>
       </c>
       <c r="V24" s="25">
@@ -5175,27 +5445,35 @@
         <v>0</v>
       </c>
       <c r="W24" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D24),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X24" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D24)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D24)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D24)-IF(MONTH(Planilha1!$D24)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D24)=1,12,MONTH(Planilha1!$D24)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3771.17</v>
       </c>
       <c r="Y24" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-337.03999999999962</v>
       </c>
-      <c r="Z24" s="26">
+      <c r="Z24" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-337.03999999999962</v>
+      </c>
+      <c r="AB24" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-8.2040596756251416E-2</v>
       </c>
-      <c r="AA24" s="23">
+      <c r="AC24" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -5258,7 +5536,7 @@
         <v>136.18</v>
       </c>
       <c r="R25" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q25)/E25</f>
         <v>0.34045000000000003</v>
       </c>
       <c r="S25" s="23">
@@ -5270,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H25),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A25),N(Planilha1!$H$2:$H$30=Planilha1!$H25),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.50805500000000003</v>
       </c>
       <c r="V25" s="25">
@@ -5278,27 +5556,35 @@
         <v>0.34045000000000003</v>
       </c>
       <c r="W25" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D25),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-67.042000000000002</v>
       </c>
       <c r="X25" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D25)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D25)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D25)-IF(MONTH(Planilha1!$D25)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D25)=1,12,MONTH(Planilha1!$D25)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3771.17</v>
       </c>
       <c r="Y25" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-337.03999999999962</v>
       </c>
-      <c r="Z25" s="26">
+      <c r="Z25" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-337.03999999999962</v>
+      </c>
+      <c r="AB25" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-8.2040596756251416E-2</v>
       </c>
-      <c r="AA25" s="23">
+      <c r="AC25" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -5361,7 +5647,7 @@
         <v>494.06000000000012</v>
       </c>
       <c r="R26" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q26)/E26</f>
         <v>0.1646866666666667</v>
       </c>
       <c r="S26" s="23">
@@ -5373,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H26),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A26),N(Planilha1!$H$2:$H$30=Planilha1!$H26),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.20533000000000004</v>
       </c>
       <c r="V26" s="25">
@@ -5381,27 +5667,35 @@
         <v>0.1646866666666667</v>
       </c>
       <c r="W26" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D26),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-121.93</v>
       </c>
       <c r="X26" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D26)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D26)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D26)-IF(MONTH(Planilha1!$D26)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D26)=1,12,MONTH(Planilha1!$D26)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3351.1099999999997</v>
       </c>
       <c r="Y26" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-984.38000000000011</v>
       </c>
-      <c r="Z26" s="26">
+      <c r="Z26" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-984.38000000000011</v>
+      </c>
+      <c r="AB26" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-0.22705161354310588</v>
       </c>
-      <c r="AA26" s="23">
+      <c r="AC26" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>2070</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -5464,7 +5758,7 @@
         <v>793.94</v>
       </c>
       <c r="R27" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q27)/E27</f>
         <v>0.2646466666666667</v>
       </c>
       <c r="S27" s="23">
@@ -5476,7 +5770,7 @@
         <v>3000</v>
       </c>
       <c r="U27" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H27),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A27),N(Planilha1!$H$2:$H$30=Planilha1!$H27),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.39839500000000005</v>
       </c>
       <c r="V27" s="25">
@@ -5484,27 +5778,35 @@
         <v>0.2646466666666667</v>
       </c>
       <c r="W27" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D27),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-401.24500000000006</v>
       </c>
       <c r="X27" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D27)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D27)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D27)-IF(MONTH(Planilha1!$D27)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D27)=1,12,MONTH(Planilha1!$D27)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3351.1099999999997</v>
       </c>
       <c r="Y27" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-984.38000000000011</v>
       </c>
-      <c r="Z27" s="26">
+      <c r="Z27" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-984.38000000000011</v>
+      </c>
+      <c r="AB27" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-0.22705161354310588</v>
       </c>
-      <c r="AA27" s="23">
+      <c r="AC27" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>2070</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -5567,7 +5869,7 @@
         <v>733.98</v>
       </c>
       <c r="R28" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q28)/E28</f>
         <v>0.24466000000000002</v>
       </c>
       <c r="S28" s="23">
@@ -5579,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H28),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A28),N(Planilha1!$H$2:$H$30=Planilha1!$H28),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.39839500000000005</v>
       </c>
       <c r="V28" s="25">
@@ -5587,27 +5889,35 @@
         <v>0.24466000000000002</v>
       </c>
       <c r="W28" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D28),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-461.2050000000001</v>
       </c>
       <c r="X28" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D28)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D28)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D28)-IF(MONTH(Planilha1!$D28)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D28)=1,12,MONTH(Planilha1!$D28)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3351.1099999999997</v>
       </c>
       <c r="Y28" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-984.38000000000011</v>
       </c>
-      <c r="Z28" s="26">
+      <c r="Z28" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-984.38000000000011</v>
+      </c>
+      <c r="AB28" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-0.22705161354310588</v>
       </c>
-      <c r="AA28" s="23">
+      <c r="AC28" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>2070</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -5670,7 +5980,7 @@
         <v>-1076.1299999999999</v>
       </c>
       <c r="R29" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q29)/E29</f>
         <v>2.1522599999999996</v>
       </c>
       <c r="S29" s="23">
@@ -5682,7 +5992,7 @@
         <v>500</v>
       </c>
       <c r="U29" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H29),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A29),N(Planilha1!$H$2:$H$30=Planilha1!$H29),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>2.1522599999999996</v>
       </c>
       <c r="V29" s="25">
@@ -5690,27 +6000,35 @@
         <v>0</v>
       </c>
       <c r="W29" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D29),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X29" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D29)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D29)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D29)-IF(MONTH(Planilha1!$D29)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D29)=1,12,MONTH(Planilha1!$D29)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3351.1099999999997</v>
       </c>
       <c r="Y29" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-984.38000000000011</v>
       </c>
-      <c r="Z29" s="26">
+      <c r="Z29" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-984.38000000000011</v>
+      </c>
+      <c r="AB29" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-0.22705161354310588</v>
       </c>
-      <c r="AA29" s="23">
+      <c r="AC29" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>2070</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -5773,7 +6091,7 @@
         <v>-1006.1200000000001</v>
       </c>
       <c r="R30" s="23">
-        <f t="shared" si="0"/>
+        <f>ABS(Q30)/E30</f>
         <v>5.0306000000000006</v>
       </c>
       <c r="S30" s="23">
@@ -5785,7 +6103,7 @@
         <v>200</v>
       </c>
       <c r="U30" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(Planilha1!$H$2:$H$30=Planilha1!$H30),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(Planilha1!$C$2:$C$30="C"),N(Planilha1!$G$2:$G$30="N"),N(Planilha1!$A$2:$A$30&lt;=Planilha1!$A30),N(Planilha1!$H$2:$H$30=Planilha1!$H30),Planilha1!$E$2:$E$30)))</f>
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>5.0306000000000006</v>
       </c>
       <c r="V30" s="25">
@@ -5793,27 +6111,35 @@
         <v>0</v>
       </c>
       <c r="W30" s="23">
-        <f>IF(Planilha1!$G$2:$G$30="D",IF(Planilha1!$C$2:$C$30="C",0,SUMPRODUCT(N(Planilha1!$D$2:$D$30=Planilha1!$D30),N(Planilha1!$C$2:$C$30="V"),Planilha1!$P$2:$P$30)),IF(AND(Planilha1!$U$2:$U$30&gt;0,Planilha1!$V$2:$V$30&gt;0),(Planilha1!$V$2:$V$30-Planilha1!$U$2:$U$30)*Planilha1!$E$2:$E$30,0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="X30" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D30)),N(MONTH(Planilha1!$D$2:$D$30)=MONTH(Planilha1!$D30)),Planilha1!$P$2:$P$30))+ABS(SUMPRODUCT(N(YEAR(Planilha1!$D$2:$D$30)=YEAR(Planilha1!$D30)-IF(MONTH(Planilha1!$D30)=1,1,0)),N(MONTH(Planilha1!$D$2:$D$30)=IF(MONTH(Planilha1!$D30)=1,12,MONTH(Planilha1!$D30)-1)),Planilha1!$P$2:$P$30))</f>
+        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
         <v>3351.1099999999997</v>
       </c>
       <c r="Y30" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LUCRO])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-984.38000000000011</v>
       </c>
-      <c r="Z30" s="26">
+      <c r="Z30" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-984.38000000000011</v>
+      </c>
+      <c r="AB30" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>-0.22705161354310588</v>
       </c>
-      <c r="AA30" s="23">
+      <c r="AC30" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>2070</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>35</v>
       </c>
@@ -5842,13 +6168,15 @@
       <c r="U31" s="24"/>
       <c r="V31" s="24"/>
       <c r="W31" s="23">
-        <f>SUBTOTAL(109,NC[LUCRO])</f>
+        <f>SUBTOTAL(109,NC[LUCRO OP])</f>
         <v>-1225.6100000000001</v>
       </c>
       <c r="X31" s="23"/>
       <c r="Y31" s="26"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/stocks/nc_xpi.xlsx
+++ b/stocks/nc_xpi.xlsx
@@ -19,8 +19,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Bruno</author>
+  </authors>
+  <commentList>
+    <comment ref="Q32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>COLOCAR O TOTAL APLICADO</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
   <si>
     <t>ATIVO</t>
   </si>
@@ -186,6 +210,15 @@
   <si>
     <t>LUCRO OP</t>
   </si>
+  <si>
+    <t>D BASE</t>
+  </si>
+  <si>
+    <t>TOTAL APLIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 6.765,77 </t>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +232,7 @@
     <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -228,6 +261,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -328,10 +387,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -371,11 +431,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="63">
     <dxf>
       <font>
         <b val="0"/>
@@ -394,6 +458,61 @@
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -431,44 +550,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -905,6 +986,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -945,6 +1044,75 @@
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1323,6 +1491,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1421,43 +1608,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1471,7 +1621,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40969.946527199078" createdVersion="1" refreshedVersion="4" recordCount="28" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:O65536" sheet="Planilha1"/>
+    <worksheetSource ref="A1:O65537" sheet="Planilha1"/>
   </cacheSource>
   <cacheFields count="18">
     <cacheField name="Nº NOTA" numFmtId="0">
@@ -2204,84 +2354,89 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AC31" totalsRowCount="1" headerRowDxfId="57" dataDxfId="56">
-  <autoFilter ref="A1:AC30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AD32" totalsRowCount="1" headerRowDxfId="36" dataDxfId="34" totalsRowDxfId="35">
+  <autoFilter ref="A1:AD31"/>
   <sortState ref="A2:AC30">
     <sortCondition ref="A1:A30"/>
   </sortState>
-  <tableColumns count="29">
-    <tableColumn id="19" name="ID" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="27"/>
-    <tableColumn id="2" name="ATIVO" dataDxfId="54" totalsRowDxfId="26"/>
-    <tableColumn id="3" name="[C/V]" dataDxfId="53" totalsRowDxfId="25"/>
-    <tableColumn id="4" name="DATA" dataDxfId="52" totalsRowDxfId="24"/>
-    <tableColumn id="5" name="QTDE" dataDxfId="51" totalsRowDxfId="23"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="50" totalsRowDxfId="22"/>
-    <tableColumn id="7" name="[D/N]" dataDxfId="49" totalsRowDxfId="21"/>
-    <tableColumn id="21" name="PAR" dataDxfId="48" totalsRowDxfId="20">
+  <tableColumns count="30">
+    <tableColumn id="19" name="ID" totalsRowLabel="Total" dataDxfId="62" totalsRowDxfId="29"/>
+    <tableColumn id="2" name="ATIVO" dataDxfId="61" totalsRowDxfId="28"/>
+    <tableColumn id="3" name="[C/V]" dataDxfId="60" totalsRowDxfId="27"/>
+    <tableColumn id="4" name="DATA" dataDxfId="59" totalsRowDxfId="26"/>
+    <tableColumn id="5" name="QTDE" dataDxfId="58" totalsRowDxfId="25"/>
+    <tableColumn id="6" name="PREÇO" dataDxfId="57" totalsRowDxfId="24"/>
+    <tableColumn id="7" name="[D/N]" dataDxfId="56" totalsRowDxfId="23"/>
+    <tableColumn id="31" name="D BASE" dataDxfId="55" totalsRowDxfId="22">
+      <calculatedColumnFormula>EOMONTH(NC[[#This Row],[DATA]],0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="PAR" dataDxfId="54" totalsRowDxfId="21">
       <calculatedColumnFormula>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR" dataDxfId="47" totalsRowDxfId="19">
+    <tableColumn id="8" name="VALOR" dataDxfId="53" totalsRowDxfId="20">
       <calculatedColumnFormula>NC[QTDE]*NC[PREÇO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="VL LIQUID" dataDxfId="46" totalsRowDxfId="18">
+    <tableColumn id="9" name="VL LIQUID" dataDxfId="52" totalsRowDxfId="19">
       <calculatedColumnFormula>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TX LIQUID" dataDxfId="45" totalsRowDxfId="17">
+    <tableColumn id="10" name="TX LIQUID" dataDxfId="51" totalsRowDxfId="18">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL" dataDxfId="44" totalsRowDxfId="16">
+    <tableColumn id="11" name="EMOL" dataDxfId="50" totalsRowDxfId="17">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORR. BASE" dataDxfId="43" totalsRowDxfId="15">
+    <tableColumn id="12" name="CORR. BASE" dataDxfId="49" totalsRowDxfId="16">
       <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="42" totalsRowDxfId="14">
+    <tableColumn id="13" name="ISS" dataDxfId="48" totalsRowDxfId="15">
       <calculatedColumnFormula>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="OUTRAS" dataDxfId="41" totalsRowDxfId="13">
+    <tableColumn id="15" name="OUTRAS" dataDxfId="47" totalsRowDxfId="14">
       <calculatedColumnFormula>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="LÍQUIDO" dataDxfId="40" totalsRowDxfId="12">
+    <tableColumn id="16" name="LÍQUIDO" totalsRowLabel=" R$ 6.765,77 " dataDxfId="46" totalsRowDxfId="13">
       <calculatedColumnFormula>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="39" totalsRowDxfId="11">
+    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="45" totalsRowDxfId="12">
       <calculatedColumnFormula>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO" dataDxfId="38" totalsRowDxfId="10">
-      <calculatedColumnFormula>ABS(Q2)/E2</calculatedColumnFormula>
+    <tableColumn id="18" name="MEDIO" dataDxfId="44" totalsRowDxfId="11">
+      <calculatedColumnFormula>ABS(R2)/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="9">
-      <calculatedColumnFormula>TRUNC(IF(NC['[C/V']]="V",I2*SETUP!$H$3,0),2)</calculatedColumnFormula>
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="10">
+      <calculatedColumnFormula>TRUNC(IF(NC['[C/V']]="V",J2*SETUP!$H$3,0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="36" totalsRowDxfId="8">
+    <tableColumn id="24" name="SALDO" dataDxfId="42" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="29" totalsRowDxfId="7">
+    <tableColumn id="22" name="MED CP" dataDxfId="41" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="35" totalsRowDxfId="6">
-      <calculatedColumnFormula>IF(NC['[C/V']]="V",NC[MEDIO],0)</calculatedColumnFormula>
+    <tableColumn id="23" name="MED VD" dataDxfId="31" totalsRowDxfId="7">
+      <calculatedColumnFormula>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO OP" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="5">
+    <tableColumn id="25" name="LUCRO OP" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="CARTEIRA" dataDxfId="0" totalsRowDxfId="4">
-      <calculatedColumnFormula>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</calculatedColumnFormula>
+    <tableColumn id="27" name="CARTEIRA" dataDxfId="39" totalsRowDxfId="6">
+      <calculatedColumnFormula>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="LUCRO N" dataDxfId="33" totalsRowDxfId="3">
+    <tableColumn id="26" name="LUCRO N" dataDxfId="38" totalsRowDxfId="5">
       <calculatedColumnFormula>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="LUCRO D" dataDxfId="32" totalsRowDxfId="2">
+    <tableColumn id="14" name="LUCRO D" dataDxfId="37" totalsRowDxfId="4">
       <calculatedColumnFormula>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="LUCRO MÊS" dataDxfId="31" totalsRowDxfId="1">
+    <tableColumn id="29" name="LUCRO MÊS" dataDxfId="33" totalsRowDxfId="3">
       <calculatedColumnFormula>NC[LUCRO N]+NC[LUCRO D]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="%" dataDxfId="30">
+    <tableColumn id="28" name="%" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="2">
       <calculatedColumnFormula>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</calculatedColumnFormula>
+      <totalsRowFormula>NC[[#Totals],[LUCRO OP]]/NC[[#Totals],[LÍQUIDO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="1" name="VOLUME" dataDxfId="34">
+    <tableColumn id="1" name="VOLUME" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="1">
       <calculatedColumnFormula>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</calculatedColumnFormula>
+      <totalsRowFormula>IF(NC[[#Totals],[LUCRO OP]]&lt;0,ABS(NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]])),-NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]]))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2790,14 +2945,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2809,29 +2964,30 @@
     <col min="5" max="5" width="6.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="15" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="16" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" style="15" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" style="17" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" style="15" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" style="16" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="8.5703125" style="15" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" style="15" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9" style="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="11.5703125" style="15"/>
+    <col min="15" max="16" width="9.85546875" style="15" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="11.5703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>39</v>
       </c>
@@ -2854,73 +3010,76 @@
         <v>4</v>
       </c>
       <c r="H1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="U1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AB1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AC1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AD1" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -2943,95 +3102,99 @@
         <v>14</v>
       </c>
       <c r="H2" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40908</v>
+      </c>
+      <c r="I2" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>1</v>
       </c>
-      <c r="I2" s="23">
+      <c r="J2" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1362</v>
       </c>
-      <c r="J2" s="23">
+      <c r="K2" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>-1362</v>
       </c>
-      <c r="K2" s="23">
+      <c r="L2" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.37</v>
       </c>
-      <c r="L2" s="23">
+      <c r="M2" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.09</v>
       </c>
-      <c r="M2" s="23">
+      <c r="N2" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N2" s="23">
+      <c r="O2" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O2" s="23">
+      <c r="P2" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P2" s="23">
+      <c r="Q2" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1378.2299999999998</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="R2" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1378.2299999999998</v>
       </c>
-      <c r="R2" s="23">
-        <f>ABS(Q2)/E2</f>
+      <c r="S2" s="23">
+        <f>ABS(R2)/E2</f>
         <v>13.782299999999998</v>
       </c>
-      <c r="S2" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I2*SETUP!$H$3,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="21">
+      <c r="T2" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J2*SETUP!$H$3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>100</v>
       </c>
-      <c r="U2" s="25">
+      <c r="V2" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>13.782299999999998</v>
       </c>
-      <c r="V2" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="23">
+      <c r="W2" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
-      <c r="X2" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
+      <c r="Y2" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
-      <c r="Y2" s="23">
+      <c r="Z2" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z2" s="23">
+      <c r="AA2" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA2" s="23">
+      <c r="AB2" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB2" s="26">
+      <c r="AC2" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>7.4778417666271566E-2</v>
       </c>
-      <c r="AC2" s="23">
+      <c r="AD2" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -3054,95 +3217,99 @@
         <v>14</v>
       </c>
       <c r="H3" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40908</v>
+      </c>
+      <c r="I3" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>1</v>
       </c>
-      <c r="I3" s="23">
+      <c r="J3" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>844.99999999999989</v>
       </c>
-      <c r="J3" s="23">
+      <c r="K3" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>-844.99999999999989</v>
       </c>
-      <c r="K3" s="23">
+      <c r="L3" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.23</v>
       </c>
-      <c r="L3" s="23">
+      <c r="M3" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.05</v>
       </c>
-      <c r="M3" s="23">
+      <c r="N3" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N3" s="23">
+      <c r="O3" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O3" s="23">
+      <c r="P3" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P3" s="23">
+      <c r="Q3" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-861.04999999999984</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="R3" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-861.04999999999984</v>
       </c>
-      <c r="R3" s="23">
-        <f>ABS(Q3)/E3</f>
+      <c r="S3" s="23">
+        <f>ABS(R3)/E3</f>
         <v>8.6104999999999983</v>
       </c>
-      <c r="S3" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I3*SETUP!$H$3,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="21">
+      <c r="T3" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J3*SETUP!$H$3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>100</v>
       </c>
-      <c r="U3" s="25">
+      <c r="V3" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>8.6104999999999983</v>
       </c>
-      <c r="V3" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="23">
+      <c r="W3" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
-      <c r="X3" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
+      <c r="Y3" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
-      <c r="Y3" s="23">
+      <c r="Z3" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z3" s="23">
+      <c r="AA3" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA3" s="23">
+      <c r="AB3" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB3" s="26">
+      <c r="AC3" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>7.4778417666271566E-2</v>
       </c>
-      <c r="AC3" s="23">
+      <c r="AD3" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -3165,95 +3332,99 @@
         <v>14</v>
       </c>
       <c r="H4" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40908</v>
+      </c>
+      <c r="I4" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="23">
+      <c r="J4" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1600</v>
       </c>
-      <c r="J4" s="23">
+      <c r="K4" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>1600</v>
       </c>
-      <c r="K4" s="23">
+      <c r="L4" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.44</v>
       </c>
-      <c r="L4" s="23">
+      <c r="M4" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.11</v>
       </c>
-      <c r="M4" s="23">
+      <c r="N4" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N4" s="23">
+      <c r="O4" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O4" s="23">
+      <c r="P4" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P4" s="23">
+      <c r="Q4" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>1583.68</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="R4" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>1583.68</v>
       </c>
-      <c r="R4" s="23">
-        <f>ABS(Q4)/E4</f>
+      <c r="S4" s="23">
+        <f>ABS(R4)/E4</f>
         <v>15.8368</v>
       </c>
-      <c r="S4" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I4*SETUP!$H$3,0),2)</f>
+      <c r="T4" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J4*SETUP!$H$3,0),2)</f>
         <v>0.08</v>
       </c>
-      <c r="T4" s="21">
+      <c r="U4" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>0</v>
       </c>
-      <c r="U4" s="25">
+      <c r="V4" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>13.782299999999998</v>
       </c>
-      <c r="V4" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
+      <c r="W4" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
         <v>15.8368</v>
       </c>
-      <c r="W4" s="23">
+      <c r="X4" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>205.45000000000027</v>
       </c>
-      <c r="X4" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
+      <c r="Y4" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
-      <c r="Y4" s="23">
+      <c r="Z4" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z4" s="23">
+      <c r="AA4" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA4" s="23">
+      <c r="AB4" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB4" s="26">
+      <c r="AC4" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>7.4778417666271566E-2</v>
       </c>
-      <c r="AC4" s="23">
+      <c r="AD4" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -3276,95 +3447,99 @@
         <v>24</v>
       </c>
       <c r="H5" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40908</v>
+      </c>
+      <c r="I5" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>2</v>
       </c>
-      <c r="I5" s="23">
+      <c r="J5" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1132</v>
       </c>
-      <c r="J5" s="23">
+      <c r="K5" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>-1132</v>
       </c>
-      <c r="K5" s="23">
+      <c r="L5" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.2</v>
       </c>
-      <c r="L5" s="23">
+      <c r="M5" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M5" s="23">
+      <c r="N5" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N5" s="23">
+      <c r="O5" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O5" s="23">
+      <c r="P5" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P5" s="23">
+      <c r="Q5" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1148.04</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="R5" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1148.04</v>
       </c>
-      <c r="R5" s="23">
-        <f>ABS(Q5)/E5</f>
+      <c r="S5" s="23">
+        <f>ABS(R5)/E5</f>
         <v>5.7401999999999997</v>
       </c>
-      <c r="S5" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I5*SETUP!$H$3,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="21">
+      <c r="T5" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J5*SETUP!$H$3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>0</v>
       </c>
-      <c r="U5" s="25">
+      <c r="V5" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="V5" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="23">
+      <c r="W5" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
-      <c r="X5" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
+      <c r="Y5" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
-      <c r="Y5" s="23">
+      <c r="Z5" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="AA5" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA5" s="23">
+      <c r="AB5" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB5" s="26">
+      <c r="AC5" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>7.4778417666271566E-2</v>
       </c>
-      <c r="AC5" s="23">
+      <c r="AD5" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -3387,95 +3562,99 @@
         <v>24</v>
       </c>
       <c r="H6" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40908</v>
+      </c>
+      <c r="I6" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>2</v>
       </c>
-      <c r="I6" s="23">
+      <c r="J6" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1128</v>
       </c>
-      <c r="J6" s="23">
+      <c r="K6" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>-4</v>
       </c>
-      <c r="K6" s="23">
+      <c r="L6" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.4</v>
       </c>
-      <c r="L6" s="23">
+      <c r="M6" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.15</v>
       </c>
-      <c r="M6" s="23">
+      <c r="N6" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="N6" s="23">
+      <c r="O6" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="O6" s="23">
+      <c r="P6" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="P6" s="23">
+      <c r="Q6" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-36.1</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="R6" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>1111.94</v>
       </c>
-      <c r="R6" s="23">
-        <f>ABS(Q6)/E6</f>
+      <c r="S6" s="23">
+        <f>ABS(R6)/E6</f>
         <v>5.5597000000000003</v>
       </c>
-      <c r="S6" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I6*SETUP!$H$3,0),2)</f>
+      <c r="T6" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J6*SETUP!$H$3,0),2)</f>
         <v>0.05</v>
       </c>
-      <c r="T6" s="21">
+      <c r="U6" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>0</v>
       </c>
-      <c r="U6" s="25">
+      <c r="V6" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="V6" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
+      <c r="W6" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
         <v>5.5597000000000003</v>
       </c>
-      <c r="W6" s="23">
+      <c r="X6" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-36.1</v>
       </c>
-      <c r="X6" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
+      <c r="Y6" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
-      <c r="Y6" s="23">
+      <c r="Z6" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z6" s="23">
+      <c r="AA6" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA6" s="23">
+      <c r="AB6" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB6" s="26">
+      <c r="AC6" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>7.4778417666271566E-2</v>
       </c>
-      <c r="AC6" s="23">
+      <c r="AD6" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -3498,95 +3677,99 @@
         <v>14</v>
       </c>
       <c r="H7" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40908</v>
+      </c>
+      <c r="I7" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>2</v>
       </c>
-      <c r="I7" s="23">
+      <c r="J7" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1130</v>
       </c>
-      <c r="J7" s="23">
+      <c r="K7" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>-1134</v>
       </c>
-      <c r="K7" s="23">
+      <c r="L7" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.71</v>
       </c>
-      <c r="L7" s="23">
+      <c r="M7" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.23</v>
       </c>
-      <c r="M7" s="23">
+      <c r="N7" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>44.7</v>
       </c>
-      <c r="N7" s="23">
+      <c r="O7" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.89</v>
       </c>
-      <c r="O7" s="23">
+      <c r="P7" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>1.7399999999999998</v>
       </c>
-      <c r="P7" s="23">
+      <c r="Q7" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1182.2700000000002</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="R7" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1146.1700000000003</v>
       </c>
-      <c r="R7" s="23">
-        <f>ABS(Q7)/E7</f>
+      <c r="S7" s="23">
+        <f>ABS(R7)/E7</f>
         <v>5.7308500000000011</v>
       </c>
-      <c r="S7" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I7*SETUP!$H$3,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="21">
+      <c r="T7" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J7*SETUP!$H$3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>200</v>
       </c>
-      <c r="U7" s="25">
+      <c r="V7" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>5.7308500000000011</v>
       </c>
-      <c r="V7" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="23">
+      <c r="W7" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
-      <c r="X7" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
+      <c r="Y7" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
-      <c r="Y7" s="23">
+      <c r="Z7" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z7" s="23">
+      <c r="AA7" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA7" s="23">
+      <c r="AB7" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB7" s="26">
+      <c r="AC7" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>7.4778417666271566E-2</v>
       </c>
-      <c r="AC7" s="23">
+      <c r="AD7" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -3609,95 +3792,99 @@
         <v>14</v>
       </c>
       <c r="H8" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40908</v>
+      </c>
+      <c r="I8" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>2</v>
       </c>
-      <c r="I8" s="23">
+      <c r="J8" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>853.99999999999989</v>
       </c>
-      <c r="J8" s="23">
+      <c r="K8" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>853.99999999999989</v>
       </c>
-      <c r="K8" s="23">
+      <c r="L8" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.23</v>
       </c>
-      <c r="L8" s="23">
+      <c r="M8" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.05</v>
       </c>
-      <c r="M8" s="23">
+      <c r="N8" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N8" s="23">
+      <c r="O8" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O8" s="23">
+      <c r="P8" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P8" s="23">
+      <c r="Q8" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>837.94999999999993</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="R8" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>837.94999999999993</v>
       </c>
-      <c r="R8" s="23">
-        <f>ABS(Q8)/E8</f>
+      <c r="S8" s="23">
+        <f>ABS(R8)/E8</f>
         <v>4.1897500000000001</v>
       </c>
-      <c r="S8" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I8*SETUP!$H$3,0),2)</f>
+      <c r="T8" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J8*SETUP!$H$3,0),2)</f>
         <v>0.04</v>
       </c>
-      <c r="T8" s="21">
+      <c r="U8" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>-200</v>
       </c>
-      <c r="U8" s="25">
+      <c r="V8" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="V8" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
+      <c r="W8" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
         <v>4.1897500000000001</v>
       </c>
-      <c r="W8" s="23">
+      <c r="X8" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
-      <c r="X8" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
+      <c r="Y8" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
-      <c r="Y8" s="23">
+      <c r="Z8" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z8" s="23">
+      <c r="AA8" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA8" s="23">
+      <c r="AB8" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB8" s="26">
+      <c r="AC8" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>7.4778417666271566E-2</v>
       </c>
-      <c r="AC8" s="23">
+      <c r="AD8" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -3720,95 +3907,99 @@
         <v>14</v>
       </c>
       <c r="H9" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40908</v>
+      </c>
+      <c r="I9" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>1</v>
       </c>
-      <c r="I9" s="23">
+      <c r="J9" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>2358</v>
       </c>
-      <c r="J9" s="23">
+      <c r="K9" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>-2358</v>
       </c>
-      <c r="K9" s="23">
+      <c r="L9" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.64</v>
       </c>
-      <c r="L9" s="23">
+      <c r="M9" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.16</v>
       </c>
-      <c r="M9" s="23">
+      <c r="N9" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N9" s="23">
+      <c r="O9" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O9" s="23">
+      <c r="P9" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P9" s="23">
+      <c r="Q9" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-2374.5699999999997</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="R9" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-2374.5699999999997</v>
       </c>
-      <c r="R9" s="23">
-        <f>ABS(Q9)/E9</f>
+      <c r="S9" s="23">
+        <f>ABS(R9)/E9</f>
         <v>7.9152333333333322</v>
       </c>
-      <c r="S9" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I9*SETUP!$H$3,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="21">
+      <c r="T9" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J9*SETUP!$H$3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>300</v>
       </c>
-      <c r="U9" s="25">
+      <c r="V9" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>7.9152333333333322</v>
       </c>
-      <c r="V9" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="23">
+      <c r="W9" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
-      <c r="X9" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
+      <c r="Y9" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
-      <c r="Y9" s="23">
+      <c r="Z9" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z9" s="23">
+      <c r="AA9" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA9" s="23">
+      <c r="AB9" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB9" s="26">
+      <c r="AC9" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>7.4778417666271566E-2</v>
       </c>
-      <c r="AC9" s="23">
+      <c r="AD9" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -3831,95 +4022,99 @@
         <v>14</v>
       </c>
       <c r="H10" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40908</v>
+      </c>
+      <c r="I10" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>2</v>
       </c>
-      <c r="I10" s="23">
+      <c r="J10" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>690</v>
       </c>
-      <c r="J10" s="23">
+      <c r="K10" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>690</v>
       </c>
-      <c r="K10" s="23">
+      <c r="L10" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.18</v>
       </c>
-      <c r="L10" s="23">
+      <c r="M10" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.04</v>
       </c>
-      <c r="M10" s="23">
+      <c r="N10" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N10" s="23">
+      <c r="O10" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O10" s="23">
+      <c r="P10" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P10" s="23">
+      <c r="Q10" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>674.0100000000001</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="R10" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>674.0100000000001</v>
       </c>
-      <c r="R10" s="23">
-        <f>ABS(Q10)/E10</f>
+      <c r="S10" s="23">
+        <f>ABS(R10)/E10</f>
         <v>6.7401000000000009</v>
       </c>
-      <c r="S10" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I10*SETUP!$H$3,0),2)</f>
+      <c r="T10" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J10*SETUP!$H$3,0),2)</f>
         <v>0.03</v>
       </c>
-      <c r="T10" s="21">
+      <c r="U10" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>100</v>
       </c>
-      <c r="U10" s="25">
+      <c r="V10" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>5.7308500000000011</v>
       </c>
-      <c r="V10" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
+      <c r="W10" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
         <v>6.7401000000000009</v>
       </c>
-      <c r="W10" s="23">
+      <c r="X10" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>100.92499999999998</v>
       </c>
-      <c r="X10" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
+      <c r="Y10" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
         <v>3884.619999999999</v>
       </c>
-      <c r="Y10" s="23">
+      <c r="Z10" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z10" s="23">
+      <c r="AA10" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA10" s="23">
+      <c r="AB10" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB10" s="26">
+      <c r="AC10" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
         <v>7.4778417666271566E-2</v>
       </c>
-      <c r="AC10" s="23">
+      <c r="AD10" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -3942,95 +4137,99 @@
         <v>14</v>
       </c>
       <c r="H11" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40939</v>
+      </c>
+      <c r="I11" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>2</v>
       </c>
-      <c r="I11" s="23">
+      <c r="J11" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>583</v>
       </c>
-      <c r="J11" s="23">
+      <c r="K11" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>583</v>
       </c>
-      <c r="K11" s="23">
+      <c r="L11" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.16</v>
       </c>
-      <c r="L11" s="23">
+      <c r="M11" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.04</v>
       </c>
-      <c r="M11" s="23">
+      <c r="N11" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N11" s="23">
+      <c r="O11" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O11" s="23">
+      <c r="P11" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P11" s="23">
+      <c r="Q11" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>567.03000000000009</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="R11" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>567.03000000000009</v>
       </c>
-      <c r="R11" s="23">
-        <f>ABS(Q11)/E11</f>
+      <c r="S11" s="23">
+        <f>ABS(R11)/E11</f>
         <v>5.670300000000001</v>
       </c>
-      <c r="S11" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I11*SETUP!$H$3,0),2)</f>
+      <c r="T11" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J11*SETUP!$H$3,0),2)</f>
         <v>0.02</v>
       </c>
-      <c r="T11" s="21">
+      <c r="U11" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>0</v>
       </c>
-      <c r="U11" s="25">
+      <c r="V11" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>5.7308500000000011</v>
       </c>
-      <c r="V11" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
+      <c r="W11" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
         <v>5.670300000000001</v>
       </c>
-      <c r="W11" s="23">
+      <c r="X11" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-6.0550000000000104</v>
       </c>
-      <c r="X11" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>4947.0199999999986</v>
-      </c>
       <c r="Y11" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>4947.0199999999995</v>
+      </c>
+      <c r="Z11" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-174.46500000000054</v>
-      </c>
-      <c r="Z11" s="23">
+        <v>-324.88500000000062</v>
+      </c>
+      <c r="AA11" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="23">
+      <c r="AB11" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-174.46500000000054</v>
-      </c>
-      <c r="AB11" s="26">
+        <v>-324.88500000000062</v>
+      </c>
+      <c r="AC11" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-3.4065315040462014E-2</v>
-      </c>
-      <c r="AC11" s="23">
+        <v>-6.1625731116171596E-2</v>
+      </c>
+      <c r="AD11" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -4053,95 +4252,99 @@
         <v>14</v>
       </c>
       <c r="H12" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40939</v>
+      </c>
+      <c r="I12" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>3</v>
       </c>
-      <c r="I12" s="23">
+      <c r="J12" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1160</v>
       </c>
-      <c r="J12" s="23">
+      <c r="K12" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>-1160</v>
       </c>
-      <c r="K12" s="23">
+      <c r="L12" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.31</v>
       </c>
-      <c r="L12" s="23">
+      <c r="M12" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.08</v>
       </c>
-      <c r="M12" s="23">
+      <c r="N12" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N12" s="23">
+      <c r="O12" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O12" s="23">
+      <c r="P12" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P12" s="23">
+      <c r="Q12" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1176.1599999999999</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="R12" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1176.1599999999999</v>
       </c>
-      <c r="R12" s="23">
-        <f>ABS(Q12)/E12</f>
+      <c r="S12" s="23">
+        <f>ABS(R12)/E12</f>
         <v>5.8807999999999989</v>
       </c>
-      <c r="S12" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I12*SETUP!$H$3,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="21">
+      <c r="T12" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J12*SETUP!$H$3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>200</v>
       </c>
-      <c r="U12" s="25">
+      <c r="V12" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>5.8807999999999989</v>
       </c>
-      <c r="V12" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="23">
+      <c r="W12" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
-      <c r="X12" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>4947.0199999999986</v>
-      </c>
       <c r="Y12" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>4947.0199999999995</v>
+      </c>
+      <c r="Z12" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-174.46500000000054</v>
-      </c>
-      <c r="Z12" s="23">
+        <v>-324.88500000000062</v>
+      </c>
+      <c r="AA12" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="23">
+      <c r="AB12" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-174.46500000000054</v>
-      </c>
-      <c r="AB12" s="26">
+        <v>-324.88500000000062</v>
+      </c>
+      <c r="AC12" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-3.4065315040462014E-2</v>
-      </c>
-      <c r="AC12" s="23">
+        <v>-6.1625731116171596E-2</v>
+      </c>
+      <c r="AD12" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -4164,95 +4367,99 @@
         <v>14</v>
       </c>
       <c r="H13" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40939</v>
+      </c>
+      <c r="I13" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>1</v>
       </c>
-      <c r="I13" s="23">
+      <c r="J13" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>2711.9999999999995</v>
       </c>
-      <c r="J13" s="23">
+      <c r="K13" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>2711.9999999999995</v>
       </c>
-      <c r="K13" s="23">
+      <c r="L13" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.74</v>
       </c>
-      <c r="L13" s="23">
+      <c r="M13" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.18</v>
       </c>
-      <c r="M13" s="23">
+      <c r="N13" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N13" s="23">
+      <c r="O13" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O13" s="23">
+      <c r="P13" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P13" s="23">
+      <c r="Q13" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>2695.31</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="R13" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>2695.31</v>
       </c>
-      <c r="R13" s="23">
-        <f>ABS(Q13)/E13</f>
+      <c r="S13" s="23">
+        <f>ABS(R13)/E13</f>
         <v>8.9843666666666664</v>
       </c>
-      <c r="S13" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I13*SETUP!$H$3,0),2)</f>
+      <c r="T13" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J13*SETUP!$H$3,0),2)</f>
         <v>0.13</v>
       </c>
-      <c r="T13" s="21">
+      <c r="U13" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>-300</v>
       </c>
-      <c r="U13" s="25">
+      <c r="V13" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
-      <c r="V13" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
+      <c r="W13" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
         <v>8.9843666666666664</v>
       </c>
-      <c r="W13" s="23">
+      <c r="X13" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
-      <c r="X13" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>4947.0199999999986</v>
-      </c>
       <c r="Y13" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>4947.0199999999995</v>
+      </c>
+      <c r="Z13" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-174.46500000000054</v>
-      </c>
-      <c r="Z13" s="23">
+        <v>-324.88500000000062</v>
+      </c>
+      <c r="AA13" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="23">
+      <c r="AB13" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-174.46500000000054</v>
-      </c>
-      <c r="AB13" s="26">
+        <v>-324.88500000000062</v>
+      </c>
+      <c r="AC13" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-3.4065315040462014E-2</v>
-      </c>
-      <c r="AC13" s="23">
+        <v>-6.1625731116171596E-2</v>
+      </c>
+      <c r="AD13" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -4275,95 +4482,99 @@
         <v>14</v>
       </c>
       <c r="H14" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40939</v>
+      </c>
+      <c r="I14" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>3</v>
       </c>
-      <c r="I14" s="23">
+      <c r="J14" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1112</v>
       </c>
-      <c r="J14" s="23">
+      <c r="K14" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>3823.9999999999995</v>
       </c>
-      <c r="K14" s="23">
+      <c r="L14" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>1.05</v>
       </c>
-      <c r="L14" s="23">
+      <c r="M14" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.26</v>
       </c>
-      <c r="M14" s="23">
+      <c r="N14" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="N14" s="23">
+      <c r="O14" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="O14" s="23">
+      <c r="P14" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="P14" s="23">
+      <c r="Q14" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>3791.139999999999</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="R14" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>1095.829999999999</v>
       </c>
-      <c r="R14" s="23">
-        <f>ABS(Q14)/E14</f>
+      <c r="S14" s="23">
+        <f>ABS(R14)/E14</f>
         <v>5.4791499999999953</v>
       </c>
-      <c r="S14" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I14*SETUP!$H$3,0),2)</f>
+      <c r="T14" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J14*SETUP!$H$3,0),2)</f>
         <v>0.05</v>
       </c>
-      <c r="T14" s="21">
+      <c r="U14" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>0</v>
       </c>
-      <c r="U14" s="25">
+      <c r="V14" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>5.8807999999999989</v>
       </c>
-      <c r="V14" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
+      <c r="W14" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
         <v>5.4791499999999953</v>
       </c>
-      <c r="W14" s="23">
+      <c r="X14" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-80.330000000000723</v>
       </c>
-      <c r="X14" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>4947.0199999999986</v>
-      </c>
       <c r="Y14" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>4947.0199999999995</v>
+      </c>
+      <c r="Z14" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-174.46500000000054</v>
-      </c>
-      <c r="Z14" s="23">
+        <v>-324.88500000000062</v>
+      </c>
+      <c r="AA14" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="23">
+      <c r="AB14" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-174.46500000000054</v>
-      </c>
-      <c r="AB14" s="26">
+        <v>-324.88500000000062</v>
+      </c>
+      <c r="AC14" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-3.4065315040462014E-2</v>
-      </c>
-      <c r="AC14" s="23">
+        <v>-6.1625731116171596E-2</v>
+      </c>
+      <c r="AD14" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -4386,95 +4597,99 @@
         <v>14</v>
       </c>
       <c r="H15" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40939</v>
+      </c>
+      <c r="I15" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>1</v>
       </c>
-      <c r="I15" s="23">
+      <c r="J15" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1000</v>
       </c>
-      <c r="J15" s="23">
+      <c r="K15" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>-1000</v>
       </c>
-      <c r="K15" s="23">
+      <c r="L15" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.27</v>
       </c>
-      <c r="L15" s="23">
+      <c r="M15" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M15" s="23">
+      <c r="N15" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N15" s="23">
+      <c r="O15" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O15" s="23">
+      <c r="P15" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P15" s="23">
+      <c r="Q15" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1016.11</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="R15" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1016.11</v>
       </c>
-      <c r="R15" s="23">
-        <f>ABS(Q15)/E15</f>
+      <c r="S15" s="23">
+        <f>ABS(R15)/E15</f>
         <v>0.50805500000000003</v>
       </c>
-      <c r="S15" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I15*SETUP!$H$3,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="21">
+      <c r="T15" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J15*SETUP!$H$3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>2000</v>
       </c>
-      <c r="U15" s="25">
+      <c r="V15" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.50805500000000003</v>
       </c>
-      <c r="V15" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
-        <v>0</v>
-      </c>
-      <c r="W15" s="23">
+      <c r="W15" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
-      <c r="X15" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>4947.0199999999986</v>
-      </c>
       <c r="Y15" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>4947.0199999999995</v>
+      </c>
+      <c r="Z15" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-174.46500000000054</v>
-      </c>
-      <c r="Z15" s="23">
+        <v>-324.88500000000062</v>
+      </c>
+      <c r="AA15" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="23">
+      <c r="AB15" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-174.46500000000054</v>
-      </c>
-      <c r="AB15" s="26">
+        <v>-324.88500000000062</v>
+      </c>
+      <c r="AC15" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-3.4065315040462014E-2</v>
-      </c>
-      <c r="AC15" s="23">
+        <v>-6.1625731116171596E-2</v>
+      </c>
+      <c r="AD15" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -4497,95 +4712,99 @@
         <v>14</v>
       </c>
       <c r="H16" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40939</v>
+      </c>
+      <c r="I16" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>1</v>
       </c>
-      <c r="I16" s="23">
+      <c r="J16" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>789</v>
       </c>
-      <c r="J16" s="23">
+      <c r="K16" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>789</v>
       </c>
-      <c r="K16" s="23">
+      <c r="L16" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.21</v>
       </c>
-      <c r="L16" s="23">
+      <c r="M16" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.05</v>
       </c>
-      <c r="M16" s="23">
+      <c r="N16" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N16" s="23">
+      <c r="O16" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O16" s="23">
+      <c r="P16" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P16" s="23">
+      <c r="Q16" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>772.97</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="R16" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>772.97</v>
       </c>
-      <c r="R16" s="23">
-        <f>ABS(Q16)/E16</f>
+      <c r="S16" s="23">
+        <f>ABS(R16)/E16</f>
         <v>7.7297000000000002</v>
       </c>
-      <c r="S16" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I16*SETUP!$H$3,0),2)</f>
+      <c r="T16" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J16*SETUP!$H$3,0),2)</f>
         <v>0.03</v>
       </c>
-      <c r="T16" s="21">
+      <c r="U16" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>0</v>
       </c>
-      <c r="U16" s="25">
+      <c r="V16" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>8.6104999999999983</v>
       </c>
-      <c r="V16" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
+      <c r="W16" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
         <v>7.7297000000000002</v>
       </c>
-      <c r="W16" s="23">
+      <c r="X16" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-88.079999999999799</v>
       </c>
-      <c r="X16" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>4947.0199999999986</v>
-      </c>
       <c r="Y16" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>4947.0199999999995</v>
+      </c>
+      <c r="Z16" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-174.46500000000054</v>
-      </c>
-      <c r="Z16" s="23">
+        <v>-324.88500000000062</v>
+      </c>
+      <c r="AA16" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="23">
+      <c r="AB16" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-174.46500000000054</v>
-      </c>
-      <c r="AB16" s="26">
+        <v>-324.88500000000062</v>
+      </c>
+      <c r="AC16" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-3.4065315040462014E-2</v>
-      </c>
-      <c r="AC16" s="23">
+        <v>-6.1625731116171596E-2</v>
+      </c>
+      <c r="AD16" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -4608,95 +4827,99 @@
         <v>14</v>
       </c>
       <c r="H17" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40939</v>
+      </c>
+      <c r="I17" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>1</v>
       </c>
-      <c r="I17" s="23">
+      <c r="J17" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>2829</v>
       </c>
-      <c r="J17" s="23">
+      <c r="K17" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>-2829</v>
       </c>
-      <c r="K17" s="23">
+      <c r="L17" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.77</v>
       </c>
-      <c r="L17" s="23">
+      <c r="M17" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.19</v>
       </c>
-      <c r="M17" s="23">
+      <c r="N17" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N17" s="23">
+      <c r="O17" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O17" s="23">
+      <c r="P17" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P17" s="23">
+      <c r="Q17" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-2845.73</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="R17" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-2845.73</v>
       </c>
-      <c r="R17" s="23">
-        <f>ABS(Q17)/E17</f>
+      <c r="S17" s="23">
+        <f>ABS(R17)/E17</f>
         <v>9.4857666666666667</v>
       </c>
-      <c r="S17" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I17*SETUP!$H$3,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="21">
+      <c r="T17" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J17*SETUP!$H$3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>0</v>
       </c>
-      <c r="U17" s="25">
+      <c r="V17" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>9.4857666666666667</v>
       </c>
-      <c r="V17" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
-        <v>0</v>
-      </c>
-      <c r="W17" s="23">
+      <c r="W17" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>8.9843666666666664</v>
+      </c>
+      <c r="X17" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>4947.0199999999986</v>
+        <v>-150.42000000000007</v>
       </c>
       <c r="Y17" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>4947.0199999999995</v>
+      </c>
+      <c r="Z17" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-174.46500000000054</v>
-      </c>
-      <c r="Z17" s="23">
+        <v>-324.88500000000062</v>
+      </c>
+      <c r="AA17" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="23">
+      <c r="AB17" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-174.46500000000054</v>
-      </c>
-      <c r="AB17" s="26">
+        <v>-324.88500000000062</v>
+      </c>
+      <c r="AC17" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-3.4065315040462014E-2</v>
-      </c>
-      <c r="AC17" s="23">
+        <v>-6.1625731116171596E-2</v>
+      </c>
+      <c r="AD17" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -4719,95 +4942,99 @@
         <v>14</v>
       </c>
       <c r="H18" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40939</v>
+      </c>
+      <c r="I18" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>2</v>
       </c>
-      <c r="I18" s="23">
+      <c r="J18" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>989</v>
       </c>
-      <c r="J18" s="23">
+      <c r="K18" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>-3818</v>
       </c>
-      <c r="K18" s="23">
+      <c r="L18" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>1.04</v>
       </c>
-      <c r="L18" s="23">
+      <c r="M18" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.26</v>
       </c>
-      <c r="M18" s="23">
+      <c r="N18" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="N18" s="23">
+      <c r="O18" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="O18" s="23">
+      <c r="P18" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="P18" s="23">
+      <c r="Q18" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-3850.8500000000004</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="R18" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1005.1200000000003</v>
       </c>
-      <c r="R18" s="23">
-        <f>ABS(Q18)/E18</f>
+      <c r="S18" s="23">
+        <f>ABS(R18)/E18</f>
         <v>0.43700869565217404</v>
       </c>
-      <c r="S18" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I18*SETUP!$H$3,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="21">
+      <c r="T18" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J18*SETUP!$H$3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>2300</v>
       </c>
-      <c r="U18" s="25">
+      <c r="V18" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.43700869565217404</v>
       </c>
-      <c r="V18" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="23">
+      <c r="W18" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
-      <c r="X18" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>4947.0199999999986</v>
-      </c>
       <c r="Y18" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>4947.0199999999995</v>
+      </c>
+      <c r="Z18" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-174.46500000000054</v>
-      </c>
-      <c r="Z18" s="23">
+        <v>-324.88500000000062</v>
+      </c>
+      <c r="AA18" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA18" s="23">
+      <c r="AB18" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-174.46500000000054</v>
-      </c>
-      <c r="AB18" s="26">
+        <v>-324.88500000000062</v>
+      </c>
+      <c r="AC18" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-3.4065315040462014E-2</v>
-      </c>
-      <c r="AC18" s="23">
+        <v>-6.1625731116171596E-2</v>
+      </c>
+      <c r="AD18" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -4830,95 +5057,99 @@
         <v>14</v>
       </c>
       <c r="H19" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40968</v>
+      </c>
+      <c r="I19" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>2</v>
       </c>
-      <c r="I19" s="23">
+      <c r="J19" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>952</v>
       </c>
-      <c r="J19" s="23">
+      <c r="K19" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>-952</v>
       </c>
-      <c r="K19" s="23">
+      <c r="L19" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.26</v>
       </c>
-      <c r="L19" s="23">
+      <c r="M19" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.06</v>
       </c>
-      <c r="M19" s="23">
+      <c r="N19" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N19" s="23">
+      <c r="O19" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O19" s="23">
+      <c r="P19" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P19" s="23">
+      <c r="Q19" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-968.08999999999992</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="R19" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-968.08999999999992</v>
       </c>
-      <c r="R19" s="23">
-        <f>ABS(Q19)/E19</f>
+      <c r="S19" s="23">
+        <f>ABS(R19)/E19</f>
         <v>4.8404499999999997</v>
       </c>
-      <c r="S19" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I19*SETUP!$H$3,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="21">
+      <c r="T19" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J19*SETUP!$H$3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>0</v>
       </c>
-      <c r="U19" s="25">
+      <c r="V19" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>4.8404499999999997</v>
       </c>
-      <c r="V19" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="23">
+      <c r="W19" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>4.1897500000000001</v>
+      </c>
+      <c r="X19" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>3771.17</v>
+        <v>-130.13999999999993</v>
       </c>
       <c r="Y19" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>2238.2499999999995</v>
+      </c>
+      <c r="Z19" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-337.03999999999962</v>
-      </c>
-      <c r="Z19" s="23">
+        <v>-467.17999999999961</v>
+      </c>
+      <c r="AA19" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA19" s="23">
+      <c r="AB19" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-337.03999999999962</v>
-      </c>
-      <c r="AB19" s="26">
+        <v>-467.17999999999961</v>
+      </c>
+      <c r="AC19" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-8.2040596756251416E-2</v>
-      </c>
-      <c r="AC19" s="23">
+        <v>-0.17268234624440468</v>
+      </c>
+      <c r="AD19" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -4941,95 +5172,99 @@
         <v>14</v>
       </c>
       <c r="H20" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40968</v>
+      </c>
+      <c r="I20" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>1</v>
       </c>
-      <c r="I20" s="23">
+      <c r="J20" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>2310</v>
       </c>
-      <c r="J20" s="23">
+      <c r="K20" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>2310</v>
       </c>
-      <c r="K20" s="23">
+      <c r="L20" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.63</v>
       </c>
-      <c r="L20" s="23">
+      <c r="M20" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.16</v>
       </c>
-      <c r="M20" s="23">
+      <c r="N20" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N20" s="23">
+      <c r="O20" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O20" s="23">
+      <c r="P20" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P20" s="23">
+      <c r="Q20" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>2293.44</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="R20" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>2293.44</v>
       </c>
-      <c r="R20" s="23">
-        <f>ABS(Q20)/E20</f>
+      <c r="S20" s="23">
+        <f>ABS(R20)/E20</f>
         <v>7.6448</v>
       </c>
-      <c r="S20" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I20*SETUP!$H$3,0),2)</f>
+      <c r="T20" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J20*SETUP!$H$3,0),2)</f>
         <v>0.11</v>
       </c>
-      <c r="T20" s="21">
+      <c r="U20" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>0</v>
       </c>
-      <c r="U20" s="25">
+      <c r="V20" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>7.9152333333333322</v>
       </c>
-      <c r="V20" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
+      <c r="W20" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
         <v>7.6448</v>
       </c>
-      <c r="W20" s="23">
+      <c r="X20" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-81.129999999999654</v>
       </c>
-      <c r="X20" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>3771.17</v>
-      </c>
       <c r="Y20" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>2238.2499999999995</v>
+      </c>
+      <c r="Z20" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-337.03999999999962</v>
-      </c>
-      <c r="Z20" s="23">
+        <v>-467.17999999999961</v>
+      </c>
+      <c r="AA20" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="23">
+      <c r="AB20" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-337.03999999999962</v>
-      </c>
-      <c r="AB20" s="26">
+        <v>-467.17999999999961</v>
+      </c>
+      <c r="AC20" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-8.2040596756251416E-2</v>
-      </c>
-      <c r="AC20" s="23">
+        <v>-0.17268234624440468</v>
+      </c>
+      <c r="AD20" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -5052,95 +5287,99 @@
         <v>14</v>
       </c>
       <c r="H21" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40968</v>
+      </c>
+      <c r="I21" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>2</v>
       </c>
-      <c r="I21" s="23">
+      <c r="J21" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1369</v>
       </c>
-      <c r="J21" s="23">
+      <c r="K21" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>941</v>
       </c>
-      <c r="K21" s="23">
+      <c r="L21" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>1.01</v>
       </c>
-      <c r="L21" s="23">
+      <c r="M21" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.25</v>
       </c>
-      <c r="M21" s="23">
+      <c r="N21" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="N21" s="23">
+      <c r="O21" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="O21" s="23">
+      <c r="P21" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="P21" s="23">
+      <c r="Q21" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>908.19</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="R21" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1385.25</v>
       </c>
-      <c r="R21" s="23">
-        <f>ABS(Q21)/E21</f>
+      <c r="S21" s="23">
+        <f>ABS(R21)/E21</f>
         <v>0.37439189189189187</v>
       </c>
-      <c r="S21" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I21*SETUP!$H$3,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="21">
+      <c r="T21" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J21*SETUP!$H$3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>6000</v>
       </c>
-      <c r="U21" s="25">
+      <c r="V21" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.39839500000000005</v>
       </c>
-      <c r="V21" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="23">
+      <c r="W21" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
-      <c r="X21" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>3771.17</v>
-      </c>
       <c r="Y21" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>2238.2499999999995</v>
+      </c>
+      <c r="Z21" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-337.03999999999962</v>
-      </c>
-      <c r="Z21" s="23">
+        <v>-467.17999999999961</v>
+      </c>
+      <c r="AA21" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="23">
+      <c r="AB21" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-337.03999999999962</v>
-      </c>
-      <c r="AB21" s="26">
+        <v>-467.17999999999961</v>
+      </c>
+      <c r="AC21" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-8.2040596756251416E-2</v>
-      </c>
-      <c r="AC21" s="23">
+        <v>-0.17268234624440468</v>
+      </c>
+      <c r="AD21" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -5163,95 +5402,99 @@
         <v>14</v>
       </c>
       <c r="H22" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40968</v>
+      </c>
+      <c r="I22" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>1</v>
       </c>
-      <c r="I22" s="23">
+      <c r="J22" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1185</v>
       </c>
-      <c r="J22" s="23">
+      <c r="K22" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>-244</v>
       </c>
-      <c r="K22" s="23">
+      <c r="L22" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>1.33</v>
       </c>
-      <c r="L22" s="23">
+      <c r="M22" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.34</v>
       </c>
-      <c r="M22" s="23">
+      <c r="N22" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>44.7</v>
       </c>
-      <c r="N22" s="23">
+      <c r="O22" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.89</v>
       </c>
-      <c r="O22" s="23">
+      <c r="P22" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>1.7399999999999998</v>
       </c>
-      <c r="P22" s="23">
+      <c r="Q22" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-293</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="R22" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1201.19</v>
       </c>
-      <c r="R22" s="23">
-        <f>ABS(Q22)/E22</f>
+      <c r="S22" s="23">
+        <f>ABS(R22)/E22</f>
         <v>2.40238</v>
       </c>
-      <c r="S22" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I22*SETUP!$H$3,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="21">
+      <c r="T22" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J22*SETUP!$H$3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>500</v>
       </c>
-      <c r="U22" s="25">
+      <c r="V22" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>2.40238</v>
       </c>
-      <c r="V22" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="23">
+      <c r="W22" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
-      <c r="X22" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>3771.17</v>
-      </c>
       <c r="Y22" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>2238.2499999999995</v>
+      </c>
+      <c r="Z22" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-337.03999999999962</v>
-      </c>
-      <c r="Z22" s="23">
+        <v>-467.17999999999961</v>
+      </c>
+      <c r="AA22" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="23">
+      <c r="AB22" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-337.03999999999962</v>
-      </c>
-      <c r="AB22" s="26">
+        <v>-467.17999999999961</v>
+      </c>
+      <c r="AC22" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-8.2040596756251416E-2</v>
-      </c>
-      <c r="AC22" s="23">
+        <v>-0.17268234624440468</v>
+      </c>
+      <c r="AD22" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>22</v>
       </c>
@@ -5274,95 +5517,99 @@
         <v>14</v>
       </c>
       <c r="H23" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40968</v>
+      </c>
+      <c r="I23" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>1</v>
       </c>
-      <c r="I23" s="23">
+      <c r="J23" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>640</v>
       </c>
-      <c r="J23" s="23">
+      <c r="K23" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>640</v>
       </c>
-      <c r="K23" s="23">
+      <c r="L23" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.17</v>
       </c>
-      <c r="L23" s="23">
+      <c r="M23" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.04</v>
       </c>
-      <c r="M23" s="23">
+      <c r="N23" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N23" s="23">
+      <c r="O23" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O23" s="23">
+      <c r="P23" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P23" s="23">
+      <c r="Q23" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>624.0200000000001</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="R23" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>624.0200000000001</v>
       </c>
-      <c r="R23" s="23">
-        <f>ABS(Q23)/E23</f>
+      <c r="S23" s="23">
+        <f>ABS(R23)/E23</f>
         <v>0.39001250000000004</v>
       </c>
-      <c r="S23" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I23*SETUP!$H$3,0),2)</f>
+      <c r="T23" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J23*SETUP!$H$3,0),2)</f>
         <v>0.03</v>
       </c>
-      <c r="T23" s="21">
+      <c r="U23" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>400</v>
       </c>
-      <c r="U23" s="25">
+      <c r="V23" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.50805500000000003</v>
       </c>
-      <c r="V23" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
+      <c r="W23" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
         <v>0.39001250000000004</v>
       </c>
-      <c r="W23" s="23">
+      <c r="X23" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-188.86799999999999</v>
       </c>
-      <c r="X23" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>3771.17</v>
-      </c>
       <c r="Y23" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>2238.2499999999995</v>
+      </c>
+      <c r="Z23" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-337.03999999999962</v>
-      </c>
-      <c r="Z23" s="23">
+        <v>-467.17999999999961</v>
+      </c>
+      <c r="AA23" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="23">
+      <c r="AB23" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-337.03999999999962</v>
-      </c>
-      <c r="AB23" s="26">
+        <v>-467.17999999999961</v>
+      </c>
+      <c r="AC23" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-8.2040596756251416E-2</v>
-      </c>
-      <c r="AC23" s="23">
+        <v>-0.17268234624440468</v>
+      </c>
+      <c r="AD23" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -5385,95 +5632,99 @@
         <v>14</v>
       </c>
       <c r="H24" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40968</v>
+      </c>
+      <c r="I24" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>1</v>
       </c>
-      <c r="I24" s="23">
+      <c r="J24" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>600</v>
       </c>
-      <c r="J24" s="23">
+      <c r="K24" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>40</v>
       </c>
-      <c r="K24" s="23">
+      <c r="L24" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.34</v>
       </c>
-      <c r="L24" s="23">
+      <c r="M24" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.08</v>
       </c>
-      <c r="M24" s="23">
+      <c r="N24" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="N24" s="23">
+      <c r="O24" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="O24" s="23">
+      <c r="P24" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="P24" s="23">
+      <c r="Q24" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>8.0299999999999976</v>
       </c>
-      <c r="Q24" s="23">
+      <c r="R24" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-615.99000000000012</v>
       </c>
-      <c r="R24" s="23">
-        <f>ABS(Q24)/E24</f>
+      <c r="S24" s="23">
+        <f>ABS(R24)/E24</f>
         <v>0.20533000000000004</v>
       </c>
-      <c r="S24" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I24*SETUP!$H$3,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="21">
+      <c r="T24" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J24*SETUP!$H$3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>3000</v>
       </c>
-      <c r="U24" s="25">
+      <c r="V24" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.20533000000000004</v>
       </c>
-      <c r="V24" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="23">
+      <c r="W24" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
-      <c r="X24" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>3771.17</v>
-      </c>
       <c r="Y24" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>2238.2499999999995</v>
+      </c>
+      <c r="Z24" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-337.03999999999962</v>
-      </c>
-      <c r="Z24" s="23">
+        <v>-467.17999999999961</v>
+      </c>
+      <c r="AA24" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="23">
+      <c r="AB24" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-337.03999999999962</v>
-      </c>
-      <c r="AB24" s="26">
+        <v>-467.17999999999961</v>
+      </c>
+      <c r="AC24" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-8.2040596756251416E-2</v>
-      </c>
-      <c r="AC24" s="23">
+        <v>-0.17268234624440468</v>
+      </c>
+      <c r="AD24" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -5496,95 +5747,99 @@
         <v>14</v>
       </c>
       <c r="H25" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40968</v>
+      </c>
+      <c r="I25" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>1</v>
       </c>
-      <c r="I25" s="23">
+      <c r="J25" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>152</v>
       </c>
-      <c r="J25" s="23">
+      <c r="K25" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>152</v>
       </c>
-      <c r="K25" s="23">
+      <c r="L25" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.04</v>
       </c>
-      <c r="L25" s="23">
+      <c r="M25" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.01</v>
       </c>
-      <c r="M25" s="23">
+      <c r="N25" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N25" s="23">
+      <c r="O25" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O25" s="23">
+      <c r="P25" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P25" s="23">
+      <c r="Q25" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>136.18</v>
       </c>
-      <c r="Q25" s="23">
+      <c r="R25" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>136.18</v>
       </c>
-      <c r="R25" s="23">
-        <f>ABS(Q25)/E25</f>
+      <c r="S25" s="23">
+        <f>ABS(R25)/E25</f>
         <v>0.34045000000000003</v>
       </c>
-      <c r="S25" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I25*SETUP!$H$3,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="21">
+      <c r="T25" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J25*SETUP!$H$3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>0</v>
       </c>
-      <c r="U25" s="25">
+      <c r="V25" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.50805500000000003</v>
       </c>
-      <c r="V25" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
+      <c r="W25" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
         <v>0.34045000000000003</v>
       </c>
-      <c r="W25" s="23">
+      <c r="X25" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-67.042000000000002</v>
       </c>
-      <c r="X25" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>3771.17</v>
-      </c>
       <c r="Y25" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>2238.2499999999995</v>
+      </c>
+      <c r="Z25" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-337.03999999999962</v>
-      </c>
-      <c r="Z25" s="23">
+        <v>-467.17999999999961</v>
+      </c>
+      <c r="AA25" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA25" s="23">
+      <c r="AB25" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-337.03999999999962</v>
-      </c>
-      <c r="AB25" s="26">
+        <v>-467.17999999999961</v>
+      </c>
+      <c r="AC25" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-8.2040596756251416E-2</v>
-      </c>
-      <c r="AC25" s="23">
+        <v>-0.17268234624440468</v>
+      </c>
+      <c r="AD25" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -5607,95 +5862,99 @@
         <v>14</v>
       </c>
       <c r="H26" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="I26" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>1</v>
       </c>
-      <c r="I26" s="23">
+      <c r="J26" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>510.00000000000006</v>
       </c>
-      <c r="J26" s="23">
+      <c r="K26" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>510.00000000000006</v>
       </c>
-      <c r="K26" s="23">
+      <c r="L26" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="L26" s="23">
+      <c r="M26" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.03</v>
       </c>
-      <c r="M26" s="23">
+      <c r="N26" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N26" s="23">
+      <c r="O26" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O26" s="23">
+      <c r="P26" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P26" s="23">
+      <c r="Q26" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>494.06000000000012</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="R26" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>494.06000000000012</v>
       </c>
-      <c r="R26" s="23">
-        <f>ABS(Q26)/E26</f>
+      <c r="S26" s="23">
+        <f>ABS(R26)/E26</f>
         <v>0.1646866666666667</v>
       </c>
-      <c r="S26" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I26*SETUP!$H$3,0),2)</f>
+      <c r="T26" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J26*SETUP!$H$3,0),2)</f>
         <v>0.02</v>
       </c>
-      <c r="T26" s="21">
+      <c r="U26" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>0</v>
       </c>
-      <c r="U26" s="25">
+      <c r="V26" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.20533000000000004</v>
       </c>
-      <c r="V26" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
+      <c r="W26" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
         <v>0.1646866666666667</v>
       </c>
-      <c r="W26" s="23">
+      <c r="X26" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-121.93</v>
       </c>
-      <c r="X26" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>3351.1099999999997</v>
-      </c>
       <c r="Y26" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>1876.7099999999991</v>
+      </c>
+      <c r="Z26" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-984.38000000000011</v>
-      </c>
-      <c r="Z26" s="23">
+        <v>-1056.6299999999999</v>
+      </c>
+      <c r="AA26" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA26" s="23">
+      <c r="AB26" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-984.38000000000011</v>
-      </c>
-      <c r="AB26" s="26">
+        <v>-1056.6299999999999</v>
+      </c>
+      <c r="AC26" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.22705161354310588</v>
-      </c>
-      <c r="AC26" s="23">
+        <v>-0.36021395405919537</v>
+      </c>
+      <c r="AD26" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>2070</v>
+        <v>3090</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -5718,95 +5977,99 @@
         <v>14</v>
       </c>
       <c r="H27" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="I27" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>2</v>
       </c>
-      <c r="I27" s="23">
+      <c r="J27" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>810</v>
       </c>
-      <c r="J27" s="23">
+      <c r="K27" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>1320</v>
       </c>
-      <c r="K27" s="23">
+      <c r="L27" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.36</v>
       </c>
-      <c r="L27" s="23">
+      <c r="M27" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.09</v>
       </c>
-      <c r="M27" s="23">
+      <c r="N27" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="N27" s="23">
+      <c r="O27" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="O27" s="23">
+      <c r="P27" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="P27" s="23">
+      <c r="Q27" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>1288.0000000000002</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="R27" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>793.94</v>
       </c>
-      <c r="R27" s="23">
-        <f>ABS(Q27)/E27</f>
+      <c r="S27" s="23">
+        <f>ABS(R27)/E27</f>
         <v>0.2646466666666667</v>
       </c>
-      <c r="S27" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I27*SETUP!$H$3,0),2)</f>
+      <c r="T27" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J27*SETUP!$H$3,0),2)</f>
         <v>0.04</v>
       </c>
-      <c r="T27" s="21">
+      <c r="U27" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>3000</v>
       </c>
-      <c r="U27" s="25">
+      <c r="V27" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.39839500000000005</v>
       </c>
-      <c r="V27" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
+      <c r="W27" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
         <v>0.2646466666666667</v>
       </c>
-      <c r="W27" s="23">
+      <c r="X27" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-401.24500000000006</v>
       </c>
-      <c r="X27" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>3351.1099999999997</v>
-      </c>
       <c r="Y27" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>1876.7099999999991</v>
+      </c>
+      <c r="Z27" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-984.38000000000011</v>
-      </c>
-      <c r="Z27" s="23">
+        <v>-1056.6299999999999</v>
+      </c>
+      <c r="AA27" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA27" s="23">
+      <c r="AB27" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-984.38000000000011</v>
-      </c>
-      <c r="AB27" s="26">
+        <v>-1056.6299999999999</v>
+      </c>
+      <c r="AC27" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.22705161354310588</v>
-      </c>
-      <c r="AC27" s="23">
+        <v>-0.36021395405919537</v>
+      </c>
+      <c r="AD27" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>2070</v>
+        <v>3090</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -5829,95 +6092,99 @@
         <v>14</v>
       </c>
       <c r="H28" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="I28" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>2</v>
       </c>
-      <c r="I28" s="23">
+      <c r="J28" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>750</v>
       </c>
-      <c r="J28" s="23">
+      <c r="K28" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>750</v>
       </c>
-      <c r="K28" s="23">
+      <c r="L28" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.2</v>
       </c>
-      <c r="L28" s="23">
+      <c r="M28" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.05</v>
       </c>
-      <c r="M28" s="23">
+      <c r="N28" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N28" s="23">
+      <c r="O28" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O28" s="23">
+      <c r="P28" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P28" s="23">
+      <c r="Q28" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>733.98</v>
       </c>
-      <c r="Q28" s="23">
+      <c r="R28" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>733.98</v>
       </c>
-      <c r="R28" s="23">
-        <f>ABS(Q28)/E28</f>
+      <c r="S28" s="23">
+        <f>ABS(R28)/E28</f>
         <v>0.24466000000000002</v>
       </c>
-      <c r="S28" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I28*SETUP!$H$3,0),2)</f>
+      <c r="T28" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J28*SETUP!$H$3,0),2)</f>
         <v>0.03</v>
       </c>
-      <c r="T28" s="21">
+      <c r="U28" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>0</v>
       </c>
-      <c r="U28" s="25">
+      <c r="V28" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>0.39839500000000005</v>
       </c>
-      <c r="V28" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
+      <c r="W28" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
         <v>0.24466000000000002</v>
       </c>
-      <c r="W28" s="23">
+      <c r="X28" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-461.2050000000001</v>
       </c>
-      <c r="X28" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>3351.1099999999997</v>
-      </c>
       <c r="Y28" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>1876.7099999999991</v>
+      </c>
+      <c r="Z28" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-984.38000000000011</v>
-      </c>
-      <c r="Z28" s="23">
+        <v>-1056.6299999999999</v>
+      </c>
+      <c r="AA28" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA28" s="23">
+      <c r="AB28" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-984.38000000000011</v>
-      </c>
-      <c r="AB28" s="26">
+        <v>-1056.6299999999999</v>
+      </c>
+      <c r="AC28" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.22705161354310588</v>
-      </c>
-      <c r="AC28" s="23">
+        <v>-0.36021395405919537</v>
+      </c>
+      <c r="AD28" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>2070</v>
+        <v>3090</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -5940,95 +6207,99 @@
         <v>14</v>
       </c>
       <c r="H29" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="I29" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>1</v>
       </c>
-      <c r="I29" s="23">
+      <c r="J29" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1060</v>
       </c>
-      <c r="J29" s="23">
+      <c r="K29" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>-1060</v>
       </c>
-      <c r="K29" s="23">
+      <c r="L29" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="L29" s="23">
+      <c r="M29" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M29" s="23">
+      <c r="N29" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="N29" s="23">
+      <c r="O29" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="O29" s="23">
+      <c r="P29" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="P29" s="23">
+      <c r="Q29" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1076.1299999999999</v>
       </c>
-      <c r="Q29" s="23">
+      <c r="R29" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1076.1299999999999</v>
       </c>
-      <c r="R29" s="23">
-        <f>ABS(Q29)/E29</f>
+      <c r="S29" s="23">
+        <f>ABS(R29)/E29</f>
         <v>2.1522599999999996</v>
       </c>
-      <c r="S29" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I29*SETUP!$H$3,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T29" s="21">
+      <c r="T29" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J29*SETUP!$H$3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>500</v>
       </c>
-      <c r="U29" s="25">
+      <c r="V29" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>2.1522599999999996</v>
       </c>
-      <c r="V29" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="23">
+      <c r="W29" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
-      <c r="X29" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>3351.1099999999997</v>
-      </c>
       <c r="Y29" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>1876.7099999999991</v>
+      </c>
+      <c r="Z29" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-984.38000000000011</v>
-      </c>
-      <c r="Z29" s="23">
+        <v>-1056.6299999999999</v>
+      </c>
+      <c r="AA29" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA29" s="23">
+      <c r="AB29" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-984.38000000000011</v>
-      </c>
-      <c r="AB29" s="26">
+        <v>-1056.6299999999999</v>
+      </c>
+      <c r="AC29" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.22705161354310588</v>
-      </c>
-      <c r="AC29" s="23">
+        <v>-0.36021395405919537</v>
+      </c>
+      <c r="AD29" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>2070</v>
+        <v>3090</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -6051,132 +6322,259 @@
         <v>14</v>
       </c>
       <c r="H30" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="I30" s="21">
         <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
         <v>3</v>
       </c>
-      <c r="I30" s="23">
+      <c r="J30" s="23">
         <f>NC[QTDE]*NC[PREÇO]</f>
         <v>990</v>
       </c>
-      <c r="J30" s="23">
+      <c r="K30" s="23">
         <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
         <v>-2050</v>
       </c>
-      <c r="K30" s="23">
+      <c r="L30" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="L30" s="23">
+      <c r="M30" s="23">
         <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="M30" s="23">
+      <c r="N30" s="23">
         <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="N30" s="23">
+      <c r="O30" s="23">
         <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="O30" s="23">
+      <c r="P30" s="23">
         <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="P30" s="23">
+      <c r="Q30" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-2082.25</v>
       </c>
-      <c r="Q30" s="23">
+      <c r="R30" s="23">
         <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1006.1200000000001</v>
       </c>
-      <c r="R30" s="23">
-        <f>ABS(Q30)/E30</f>
+      <c r="S30" s="23">
+        <f>ABS(R30)/E30</f>
         <v>5.0306000000000006</v>
       </c>
-      <c r="S30" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",I30*SETUP!$H$3,0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="21">
+      <c r="T30" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J30*SETUP!$H$3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="21">
         <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
         <v>200</v>
       </c>
-      <c r="U30" s="25">
+      <c r="V30" s="25">
         <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
         <v>5.0306000000000006</v>
       </c>
-      <c r="V30" s="25">
-        <f>IF(NC['[C/V']]="V",NC[MEDIO],0)</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="23">
+      <c r="W30" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="23">
         <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
-      <c r="X30" s="23">
-        <f>ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),NC[LÍQUIDO]))+ABS(SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])-IF(MONTH(NC[[#This Row],[DATA]])=1,1,0)),N(MONTH(NC[DATA])=IF(MONTH(NC[[#This Row],[DATA]])=1,12,MONTH(NC[[#This Row],[DATA]])-1)),NC[LÍQUIDO]))</f>
-        <v>3351.1099999999997</v>
-      </c>
       <c r="Y30" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>1876.7099999999991</v>
+      </c>
+      <c r="Z30" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-984.38000000000011</v>
-      </c>
-      <c r="Z30" s="23">
+        <v>-1056.6299999999999</v>
+      </c>
+      <c r="AA30" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="23">
+      <c r="AB30" s="23">
         <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-984.38000000000011</v>
-      </c>
-      <c r="AB30" s="26">
+        <v>-1056.6299999999999</v>
+      </c>
+      <c r="AC30" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.22705161354310588</v>
-      </c>
-      <c r="AC30" s="23">
+        <v>-0.36021395405919537</v>
+      </c>
+      <c r="AD30" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>2070</v>
+        <v>3090</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A31" s="21">
+        <v>30</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="22">
+        <v>40977</v>
+      </c>
+      <c r="E31" s="21">
+        <v>500</v>
+      </c>
+      <c r="F31" s="23">
+        <v>2.04</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="I31" s="21">
+        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="23">
+        <f>NC[QTDE]*NC[PREÇO]</f>
+        <v>1020</v>
+      </c>
+      <c r="K31" s="23">
+        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <v>1020</v>
+      </c>
+      <c r="L31" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M31" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N31" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="O31" s="23">
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P31" s="23">
+        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q31" s="23">
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <v>1003.88</v>
+      </c>
+      <c r="R31" s="23">
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <v>1003.88</v>
+      </c>
+      <c r="S31" s="23">
+        <f>ABS(R31)/E31</f>
+        <v>2.0077600000000002</v>
+      </c>
+      <c r="T31" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J31*SETUP!$H$3,0),2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="U31" s="21">
+        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="25">
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+        <v>2.1522599999999996</v>
+      </c>
+      <c r="W31" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>2.0077600000000002</v>
+      </c>
+      <c r="X31" s="23">
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="Y31" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>1876.7099999999991</v>
+      </c>
+      <c r="Z31" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <v>-1056.6299999999999</v>
+      </c>
+      <c r="AA31" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-1056.6299999999999</v>
+      </c>
+      <c r="AC31" s="26">
+        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
+        <v>-0.36021395405919537</v>
+      </c>
+      <c r="AD31" s="23">
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="23">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="23">
         <f>SUBTOTAL(109,NC[IRRF])</f>
-        <v>0.66</v>
-      </c>
-      <c r="T31" s="23"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="23">
+        <v>0.71000000000000008</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="23">
         <f>SUBTOTAL(109,NC[LUCRO OP])</f>
-        <v>-1225.6100000000001</v>
-      </c>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
+        <v>-1578.42</v>
+      </c>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AC32" s="30">
+        <f>NC[[#Totals],[LUCRO OP]]/NC[[#Totals],[LÍQUIDO]]</f>
+        <v>-0.23329495386334445</v>
+      </c>
+      <c r="AD32" s="31">
+        <f>IF(NC[[#Totals],[LUCRO OP]]&lt;0,ABS(NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]])),-NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]]))</f>
+        <v>0.30428253347084733</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -6186,18 +6584,19 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6213,7 +6612,7 @@
     <col min="9" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
@@ -6234,8 +6633,11 @@
       <c r="H1" s="27" t="s">
         <v>21</v>
       </c>
+      <c r="I1" s="27" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -6252,8 +6654,9 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>7.0000000000000007E-5</v>
       </c>
@@ -6277,11 +6680,15 @@
       </c>
       <c r="H3" s="4">
         <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I3" s="29">
+        <v>6765.77</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>

--- a/stocks/nc_xpi.xlsx
+++ b/stocks/nc_xpi.xlsx
@@ -25,7 +25,7 @@
     <author>Bruno</author>
   </authors>
   <commentList>
-    <comment ref="Q32" authorId="0">
+    <comment ref="Q33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
   <si>
     <t>ATIVO</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t xml:space="preserve"> R$ 6.765,77 </t>
+  </si>
+  <si>
+    <t>POSI3</t>
   </si>
 </sst>
 </file>
@@ -425,15 +428,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -550,6 +553,25 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1023,25 +1045,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1063,56 +1066,6 @@
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1225,7 +1178,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="168" formatCode="0.000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1244,7 +1197,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1608,6 +1561,56 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1621,7 +1624,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40969.946527199078" createdVersion="1" refreshedVersion="4" recordCount="28" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:O65537" sheet="Planilha1"/>
+    <worksheetSource ref="A1:O65538" sheet="Planilha1"/>
   </cacheSource>
   <cacheFields count="18">
     <cacheField name="Nº NOTA" numFmtId="0">
@@ -2354,77 +2357,77 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AD32" totalsRowCount="1" headerRowDxfId="36" dataDxfId="34" totalsRowDxfId="35">
-  <autoFilter ref="A1:AD31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AD33" totalsRowCount="1" headerRowDxfId="62" dataDxfId="61" totalsRowDxfId="60">
+  <autoFilter ref="A1:AD32"/>
   <sortState ref="A2:AC30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="30">
-    <tableColumn id="19" name="ID" totalsRowLabel="Total" dataDxfId="62" totalsRowDxfId="29"/>
-    <tableColumn id="2" name="ATIVO" dataDxfId="61" totalsRowDxfId="28"/>
-    <tableColumn id="3" name="[C/V]" dataDxfId="60" totalsRowDxfId="27"/>
-    <tableColumn id="4" name="DATA" dataDxfId="59" totalsRowDxfId="26"/>
-    <tableColumn id="5" name="QTDE" dataDxfId="58" totalsRowDxfId="25"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="57" totalsRowDxfId="24"/>
-    <tableColumn id="7" name="[D/N]" dataDxfId="56" totalsRowDxfId="23"/>
-    <tableColumn id="31" name="D BASE" dataDxfId="55" totalsRowDxfId="22">
+    <tableColumn id="19" name="ID" totalsRowLabel="Total" dataDxfId="59" totalsRowDxfId="30"/>
+    <tableColumn id="2" name="ATIVO" dataDxfId="58" totalsRowDxfId="29"/>
+    <tableColumn id="3" name="[C/V]" dataDxfId="57" totalsRowDxfId="28"/>
+    <tableColumn id="4" name="DATA" dataDxfId="56" totalsRowDxfId="27"/>
+    <tableColumn id="5" name="QTDE" dataDxfId="55" totalsRowDxfId="26"/>
+    <tableColumn id="6" name="PREÇO" dataDxfId="54" totalsRowDxfId="25"/>
+    <tableColumn id="7" name="[D/N]" dataDxfId="53" totalsRowDxfId="24"/>
+    <tableColumn id="31" name="D BASE" dataDxfId="52" totalsRowDxfId="23">
       <calculatedColumnFormula>EOMONTH(NC[[#This Row],[DATA]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="PAR" dataDxfId="54" totalsRowDxfId="21">
+    <tableColumn id="21" name="PAR" dataDxfId="51" totalsRowDxfId="22">
       <calculatedColumnFormula>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR" dataDxfId="53" totalsRowDxfId="20">
+    <tableColumn id="8" name="VALOR" dataDxfId="50" totalsRowDxfId="21">
       <calculatedColumnFormula>NC[QTDE]*NC[PREÇO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="VL LIQUID" dataDxfId="52" totalsRowDxfId="19">
+    <tableColumn id="9" name="VL LIQUID" dataDxfId="49" totalsRowDxfId="20">
       <calculatedColumnFormula>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TX LIQUID" dataDxfId="51" totalsRowDxfId="18">
+    <tableColumn id="10" name="TX LIQUID" dataDxfId="48" totalsRowDxfId="19">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL" dataDxfId="50" totalsRowDxfId="17">
+    <tableColumn id="11" name="EMOL" dataDxfId="47" totalsRowDxfId="18">
       <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORR. BASE" dataDxfId="49" totalsRowDxfId="16">
+    <tableColumn id="12" name="CORR. BASE" dataDxfId="46" totalsRowDxfId="17">
       <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="48" totalsRowDxfId="15">
+    <tableColumn id="13" name="ISS" dataDxfId="45" totalsRowDxfId="16">
       <calculatedColumnFormula>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="OUTRAS" dataDxfId="47" totalsRowDxfId="14">
-      <calculatedColumnFormula>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
+    <tableColumn id="15" name="OUTRAS" dataDxfId="0" totalsRowDxfId="15">
+      <calculatedColumnFormula>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="LÍQUIDO" totalsRowLabel=" R$ 6.765,77 " dataDxfId="46" totalsRowDxfId="13">
+    <tableColumn id="16" name="LÍQUIDO" totalsRowLabel=" R$ 6.765,77 " dataDxfId="44" totalsRowDxfId="14">
       <calculatedColumnFormula>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="45" totalsRowDxfId="12">
+    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="43" totalsRowDxfId="13">
       <calculatedColumnFormula>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO" dataDxfId="44" totalsRowDxfId="11">
+    <tableColumn id="18" name="MEDIO" dataDxfId="42" totalsRowDxfId="12">
       <calculatedColumnFormula>ABS(R2)/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="10">
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="11">
       <calculatedColumnFormula>TRUNC(IF(NC['[C/V']]="V",J2*SETUP!$H$3,0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="42" totalsRowDxfId="9">
+    <tableColumn id="24" name="SALDO" dataDxfId="40" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="41" totalsRowDxfId="8">
+    <tableColumn id="22" name="MED CP" dataDxfId="39" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="31" totalsRowDxfId="7">
+    <tableColumn id="23" name="MED VD" dataDxfId="38" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO OP" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="0">
+    <tableColumn id="25" name="LUCRO OP" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="CARTEIRA" dataDxfId="39" totalsRowDxfId="6">
+    <tableColumn id="27" name="CARTEIRA" dataDxfId="36" totalsRowDxfId="6">
       <calculatedColumnFormula>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="LUCRO N" dataDxfId="38" totalsRowDxfId="5">
+    <tableColumn id="26" name="LUCRO N" dataDxfId="35" totalsRowDxfId="5">
       <calculatedColumnFormula>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="LUCRO D" dataDxfId="37" totalsRowDxfId="4">
+    <tableColumn id="14" name="LUCRO D" dataDxfId="34" totalsRowDxfId="4">
       <calculatedColumnFormula>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="29" name="LUCRO MÊS" dataDxfId="33" totalsRowDxfId="3">
@@ -2434,7 +2437,7 @@
       <calculatedColumnFormula>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</calculatedColumnFormula>
       <totalsRowFormula>NC[[#Totals],[LUCRO OP]]/NC[[#Totals],[LÍQUIDO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="1" name="VOLUME" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="1">
+    <tableColumn id="1" name="VOLUME" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="1">
       <calculatedColumnFormula>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</calculatedColumnFormula>
       <totalsRowFormula>IF(NC[[#Totals],[LUCRO OP]]&lt;0,ABS(NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]])),-NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]]))</totalsRowFormula>
     </tableColumn>
@@ -2946,13 +2949,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD32"/>
+  <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q33" sqref="Q33"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3134,7 +3137,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P2" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q2" s="23">
@@ -3146,7 +3149,7 @@
         <v>-1378.2299999999998</v>
       </c>
       <c r="S2" s="23">
-        <f>ABS(R2)/E2</f>
+        <f t="shared" ref="S2:S31" si="0">ABS(R2)/E2</f>
         <v>13.782299999999998</v>
       </c>
       <c r="T2" s="23">
@@ -3249,7 +3252,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P3" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q3" s="23">
@@ -3261,7 +3264,7 @@
         <v>-861.04999999999984</v>
       </c>
       <c r="S3" s="23">
-        <f>ABS(R3)/E3</f>
+        <f t="shared" si="0"/>
         <v>8.6104999999999983</v>
       </c>
       <c r="T3" s="23">
@@ -3364,7 +3367,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P4" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q4" s="23">
@@ -3376,7 +3379,7 @@
         <v>1583.68</v>
       </c>
       <c r="S4" s="23">
-        <f>ABS(R4)/E4</f>
+        <f t="shared" si="0"/>
         <v>15.8368</v>
       </c>
       <c r="T4" s="23">
@@ -3479,7 +3482,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P5" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q5" s="23">
@@ -3491,7 +3494,7 @@
         <v>-1148.04</v>
       </c>
       <c r="S5" s="23">
-        <f>ABS(R5)/E5</f>
+        <f t="shared" si="0"/>
         <v>5.7401999999999997</v>
       </c>
       <c r="T5" s="23">
@@ -3594,7 +3597,7 @@
         <v>0.59</v>
       </c>
       <c r="P6" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q6" s="23">
@@ -3606,7 +3609,7 @@
         <v>1111.94</v>
       </c>
       <c r="S6" s="23">
-        <f>ABS(R6)/E6</f>
+        <f t="shared" si="0"/>
         <v>5.5597000000000003</v>
       </c>
       <c r="T6" s="23">
@@ -3709,8 +3712,8 @@
         <v>0.89</v>
       </c>
       <c r="P7" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
-        <v>1.7399999999999998</v>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <v>1.74</v>
       </c>
       <c r="Q7" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
@@ -3721,7 +3724,7 @@
         <v>-1146.1700000000003</v>
       </c>
       <c r="S7" s="23">
-        <f>ABS(R7)/E7</f>
+        <f t="shared" si="0"/>
         <v>5.7308500000000011</v>
       </c>
       <c r="T7" s="23">
@@ -3824,7 +3827,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P8" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q8" s="23">
@@ -3836,7 +3839,7 @@
         <v>837.94999999999993</v>
       </c>
       <c r="S8" s="23">
-        <f>ABS(R8)/E8</f>
+        <f t="shared" si="0"/>
         <v>4.1897500000000001</v>
       </c>
       <c r="T8" s="23">
@@ -3939,7 +3942,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P9" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q9" s="23">
@@ -3951,7 +3954,7 @@
         <v>-2374.5699999999997</v>
       </c>
       <c r="S9" s="23">
-        <f>ABS(R9)/E9</f>
+        <f t="shared" si="0"/>
         <v>7.9152333333333322</v>
       </c>
       <c r="T9" s="23">
@@ -4054,7 +4057,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P10" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q10" s="23">
@@ -4066,7 +4069,7 @@
         <v>674.0100000000001</v>
       </c>
       <c r="S10" s="23">
-        <f>ABS(R10)/E10</f>
+        <f t="shared" si="0"/>
         <v>6.7401000000000009</v>
       </c>
       <c r="T10" s="23">
@@ -4169,7 +4172,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P11" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q11" s="23">
@@ -4181,7 +4184,7 @@
         <v>567.03000000000009</v>
       </c>
       <c r="S11" s="23">
-        <f>ABS(R11)/E11</f>
+        <f t="shared" si="0"/>
         <v>5.670300000000001</v>
       </c>
       <c r="T11" s="23">
@@ -4284,7 +4287,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P12" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q12" s="23">
@@ -4296,7 +4299,7 @@
         <v>-1176.1599999999999</v>
       </c>
       <c r="S12" s="23">
-        <f>ABS(R12)/E12</f>
+        <f t="shared" si="0"/>
         <v>5.8807999999999989</v>
       </c>
       <c r="T12" s="23">
@@ -4399,7 +4402,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P13" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q13" s="23">
@@ -4411,7 +4414,7 @@
         <v>2695.31</v>
       </c>
       <c r="S13" s="23">
-        <f>ABS(R13)/E13</f>
+        <f t="shared" si="0"/>
         <v>8.9843666666666664</v>
       </c>
       <c r="T13" s="23">
@@ -4514,7 +4517,7 @@
         <v>0.59</v>
       </c>
       <c r="P14" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q14" s="23">
@@ -4526,7 +4529,7 @@
         <v>1095.829999999999</v>
       </c>
       <c r="S14" s="23">
-        <f>ABS(R14)/E14</f>
+        <f t="shared" si="0"/>
         <v>5.4791499999999953</v>
       </c>
       <c r="T14" s="23">
@@ -4629,7 +4632,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P15" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q15" s="23">
@@ -4641,7 +4644,7 @@
         <v>-1016.11</v>
       </c>
       <c r="S15" s="23">
-        <f>ABS(R15)/E15</f>
+        <f t="shared" si="0"/>
         <v>0.50805500000000003</v>
       </c>
       <c r="T15" s="23">
@@ -4744,7 +4747,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P16" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q16" s="23">
@@ -4756,7 +4759,7 @@
         <v>772.97</v>
       </c>
       <c r="S16" s="23">
-        <f>ABS(R16)/E16</f>
+        <f t="shared" si="0"/>
         <v>7.7297000000000002</v>
       </c>
       <c r="T16" s="23">
@@ -4859,7 +4862,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P17" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q17" s="23">
@@ -4871,7 +4874,7 @@
         <v>-2845.73</v>
       </c>
       <c r="S17" s="23">
-        <f>ABS(R17)/E17</f>
+        <f t="shared" si="0"/>
         <v>9.4857666666666667</v>
       </c>
       <c r="T17" s="23">
@@ -4974,7 +4977,7 @@
         <v>0.59</v>
       </c>
       <c r="P18" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q18" s="23">
@@ -4986,7 +4989,7 @@
         <v>-1005.1200000000003</v>
       </c>
       <c r="S18" s="23">
-        <f>ABS(R18)/E18</f>
+        <f t="shared" si="0"/>
         <v>0.43700869565217404</v>
       </c>
       <c r="T18" s="23">
@@ -5089,7 +5092,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P19" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q19" s="23">
@@ -5101,7 +5104,7 @@
         <v>-968.08999999999992</v>
       </c>
       <c r="S19" s="23">
-        <f>ABS(R19)/E19</f>
+        <f t="shared" si="0"/>
         <v>4.8404499999999997</v>
       </c>
       <c r="T19" s="23">
@@ -5204,7 +5207,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P20" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q20" s="23">
@@ -5216,7 +5219,7 @@
         <v>2293.44</v>
       </c>
       <c r="S20" s="23">
-        <f>ABS(R20)/E20</f>
+        <f t="shared" si="0"/>
         <v>7.6448</v>
       </c>
       <c r="T20" s="23">
@@ -5319,7 +5322,7 @@
         <v>0.59</v>
       </c>
       <c r="P21" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q21" s="23">
@@ -5331,7 +5334,7 @@
         <v>-1385.25</v>
       </c>
       <c r="S21" s="23">
-        <f>ABS(R21)/E21</f>
+        <f t="shared" si="0"/>
         <v>0.37439189189189187</v>
       </c>
       <c r="T21" s="23">
@@ -5434,8 +5437,8 @@
         <v>0.89</v>
       </c>
       <c r="P22" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
-        <v>1.7399999999999998</v>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <v>1.74</v>
       </c>
       <c r="Q22" s="23">
         <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
@@ -5446,7 +5449,7 @@
         <v>-1201.19</v>
       </c>
       <c r="S22" s="23">
-        <f>ABS(R22)/E22</f>
+        <f t="shared" si="0"/>
         <v>2.40238</v>
       </c>
       <c r="T22" s="23">
@@ -5549,7 +5552,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P23" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q23" s="23">
@@ -5561,7 +5564,7 @@
         <v>624.0200000000001</v>
       </c>
       <c r="S23" s="23">
-        <f>ABS(R23)/E23</f>
+        <f t="shared" si="0"/>
         <v>0.39001250000000004</v>
       </c>
       <c r="T23" s="23">
@@ -5664,7 +5667,7 @@
         <v>0.59</v>
       </c>
       <c r="P24" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q24" s="23">
@@ -5676,7 +5679,7 @@
         <v>-615.99000000000012</v>
       </c>
       <c r="S24" s="23">
-        <f>ABS(R24)/E24</f>
+        <f t="shared" si="0"/>
         <v>0.20533000000000004</v>
       </c>
       <c r="T24" s="23">
@@ -5779,7 +5782,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P25" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q25" s="23">
@@ -5791,7 +5794,7 @@
         <v>136.18</v>
       </c>
       <c r="S25" s="23">
-        <f>ABS(R25)/E25</f>
+        <f t="shared" si="0"/>
         <v>0.34045000000000003</v>
       </c>
       <c r="T25" s="23">
@@ -5894,7 +5897,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P26" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q26" s="23">
@@ -5906,7 +5909,7 @@
         <v>494.06000000000012</v>
       </c>
       <c r="S26" s="23">
-        <f>ABS(R26)/E26</f>
+        <f t="shared" si="0"/>
         <v>0.1646866666666667</v>
       </c>
       <c r="T26" s="23">
@@ -5931,7 +5934,7 @@
       </c>
       <c r="Y26" s="23">
         <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>1876.7099999999991</v>
+        <v>1262.6899999999991</v>
       </c>
       <c r="Z26" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
@@ -5947,11 +5950,11 @@
       </c>
       <c r="AC26" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.36021395405919537</v>
+        <v>-0.45557749685252591</v>
       </c>
       <c r="AD26" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>3090</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="27" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -6009,7 +6012,7 @@
         <v>0.59</v>
       </c>
       <c r="P27" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q27" s="23">
@@ -6021,7 +6024,7 @@
         <v>793.94</v>
       </c>
       <c r="S27" s="23">
-        <f>ABS(R27)/E27</f>
+        <f t="shared" si="0"/>
         <v>0.2646466666666667</v>
       </c>
       <c r="T27" s="23">
@@ -6046,7 +6049,7 @@
       </c>
       <c r="Y27" s="23">
         <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>1876.7099999999991</v>
+        <v>1262.6899999999991</v>
       </c>
       <c r="Z27" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
@@ -6062,11 +6065,11 @@
       </c>
       <c r="AC27" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.36021395405919537</v>
+        <v>-0.45557749685252591</v>
       </c>
       <c r="AD27" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>3090</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
@@ -6124,7 +6127,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P28" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q28" s="23">
@@ -6136,7 +6139,7 @@
         <v>733.98</v>
       </c>
       <c r="S28" s="23">
-        <f>ABS(R28)/E28</f>
+        <f t="shared" si="0"/>
         <v>0.24466000000000002</v>
       </c>
       <c r="T28" s="23">
@@ -6161,7 +6164,7 @@
       </c>
       <c r="Y28" s="23">
         <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>1876.7099999999991</v>
+        <v>1262.6899999999991</v>
       </c>
       <c r="Z28" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
@@ -6177,11 +6180,11 @@
       </c>
       <c r="AC28" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.36021395405919537</v>
+        <v>-0.45557749685252591</v>
       </c>
       <c r="AD28" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>3090</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
@@ -6239,7 +6242,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P29" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q29" s="23">
@@ -6251,7 +6254,7 @@
         <v>-1076.1299999999999</v>
       </c>
       <c r="S29" s="23">
-        <f>ABS(R29)/E29</f>
+        <f t="shared" si="0"/>
         <v>2.1522599999999996</v>
       </c>
       <c r="T29" s="23">
@@ -6276,7 +6279,7 @@
       </c>
       <c r="Y29" s="23">
         <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>1876.7099999999991</v>
+        <v>1262.6899999999991</v>
       </c>
       <c r="Z29" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
@@ -6292,11 +6295,11 @@
       </c>
       <c r="AC29" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.36021395405919537</v>
+        <v>-0.45557749685252591</v>
       </c>
       <c r="AD29" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>3090</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
@@ -6354,7 +6357,7 @@
         <v>0.59</v>
       </c>
       <c r="P30" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q30" s="23">
@@ -6366,7 +6369,7 @@
         <v>-1006.1200000000001</v>
       </c>
       <c r="S30" s="23">
-        <f>ABS(R30)/E30</f>
+        <f t="shared" si="0"/>
         <v>5.0306000000000006</v>
       </c>
       <c r="T30" s="23">
@@ -6391,7 +6394,7 @@
       </c>
       <c r="Y30" s="23">
         <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>1876.7099999999991</v>
+        <v>1262.6899999999991</v>
       </c>
       <c r="Z30" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
@@ -6407,11 +6410,11 @@
       </c>
       <c r="AC30" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.36021395405919537</v>
+        <v>-0.45557749685252591</v>
       </c>
       <c r="AD30" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>3090</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
@@ -6469,7 +6472,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P31" s="23">
-        <f>SETUP!$G$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q31" s="23">
@@ -6481,7 +6484,7 @@
         <v>1003.88</v>
       </c>
       <c r="S31" s="23">
-        <f>ABS(R31)/E31</f>
+        <f t="shared" si="0"/>
         <v>2.0077600000000002</v>
       </c>
       <c r="T31" s="23">
@@ -6506,7 +6509,7 @@
       </c>
       <c r="Y31" s="23">
         <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>1876.7099999999991</v>
+        <v>1262.6899999999991</v>
       </c>
       <c r="Z31" s="23">
         <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
@@ -6522,56 +6525,171 @@
       </c>
       <c r="AC31" s="26">
         <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.36021395405919537</v>
+        <v>-0.45557749685252591</v>
       </c>
       <c r="AD31" s="23">
         <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>3090</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="21">
+        <v>31</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="22">
+        <v>40978</v>
+      </c>
+      <c r="E32" s="21">
+        <v>100</v>
+      </c>
+      <c r="F32" s="23">
+        <v>6.3</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="21">
+        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="I32" s="21">
+        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="23">
+        <f>NC[QTDE]*NC[PREÇO]</f>
+        <v>630</v>
+      </c>
+      <c r="K32" s="23">
+        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <v>630</v>
+      </c>
+      <c r="L32" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="M32" s="23">
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="N32" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="O32" s="23">
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P32" s="23">
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q32" s="23">
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <v>614.0200000000001</v>
+      </c>
+      <c r="R32" s="23">
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <v>614.0200000000001</v>
+      </c>
+      <c r="S32" s="23">
+        <f>ABS(R32)/E32</f>
+        <v>6.140200000000001</v>
+      </c>
+      <c r="T32" s="23">
+        <f>TRUNC(IF(NC['[C/V']]="V",J32*SETUP!$H$3,0),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="U32" s="21">
+        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <v>-100</v>
+      </c>
+      <c r="V32" s="25">
+        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="25">
+        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <v>6.140200000000001</v>
+      </c>
+      <c r="X32" s="23">
+        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="23">
+        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
+        <v>1262.6899999999991</v>
+      </c>
+      <c r="Z32" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <v>-1056.6299999999999</v>
+      </c>
+      <c r="AA32" s="23">
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="23">
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+        <v>-1056.6299999999999</v>
+      </c>
+      <c r="AC32" s="26">
+        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
+        <v>-0.45557749685252591</v>
+      </c>
+      <c r="AD32" s="23">
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="23" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="23">
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="23">
         <f>SUBTOTAL(109,NC[IRRF])</f>
-        <v>0.71000000000000008</v>
-      </c>
-      <c r="U32" s="23"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="23">
+        <v>0.7400000000000001</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="23">
         <f>SUBTOTAL(109,NC[LUCRO OP])</f>
         <v>-1578.42</v>
       </c>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AC32" s="30">
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AC33" s="28">
         <f>NC[[#Totals],[LUCRO OP]]/NC[[#Totals],[LÍQUIDO]]</f>
         <v>-0.23329495386334445</v>
       </c>
-      <c r="AD32" s="31">
+      <c r="AD33" s="29">
         <f>IF(NC[[#Totals],[LUCRO OP]]&lt;0,ABS(NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]])),-NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]]))</f>
         <v>0.30428253347084733</v>
       </c>
@@ -6596,7 +6714,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6613,27 +6731,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="30" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6650,11 +6768,11 @@
       <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -6675,13 +6793,13 @@
       <c r="F3" s="6">
         <v>0.02</v>
       </c>
-      <c r="G3" s="2">
-        <v>0.57999999999999996</v>
+      <c r="G3" s="6">
+        <v>3.9E-2</v>
       </c>
       <c r="H3" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="27">
         <v>6765.77</v>
       </c>
     </row>

--- a/stocks/nc_xpi.xlsx
+++ b/stocks/nc_xpi.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="211" activeTab="1"/>
@@ -12,9 +12,9 @@
     <sheet name="SETUP" sheetId="2" r:id="rId3"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -22,10 +22,28 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Engelbert</author>
     <author>Bruno</author>
   </authors>
   <commentList>
-    <comment ref="Q33" authorId="0">
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>CC=COMPRADO/COMPRA
+CV=COMPRADO/VENDA
+VC=VENDIDO/COMPRA
+VV=VENDIDO/VENDA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q33" authorId="1">
       <text>
         <r>
           <rPr>
@@ -44,12 +62,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
   <si>
     <t>ATIVO</t>
-  </si>
-  <si>
-    <t>[C/V]</t>
   </si>
   <si>
     <t>QTDE</t>
@@ -85,16 +100,10 @@
     <t>MNDL4</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>INET3</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>NORMAL</t>
@@ -187,12 +196,6 @@
     <t>PAR</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>CARTEIRA</t>
-  </si>
-  <si>
     <t>LUCRO MÊS</t>
   </si>
   <si>
@@ -220,22 +223,37 @@
     <t xml:space="preserve"> R$ 6.765,77 </t>
   </si>
   <si>
-    <t>POSI3</t>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>OPER/TIPO</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>VV</t>
+  </si>
+  <si>
+    <t>VC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
-    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -271,11 +289,18 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -283,13 +308,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -392,15 +410,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1"/>
@@ -412,56 +430,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="59">
     <dxf>
       <font>
         <b val="0"/>
@@ -479,43 +477,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -534,7 +496,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -553,481 +515,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1046,7 +534,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1064,8 +552,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1083,8 +571,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1102,8 +589,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1121,8 +607,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1140,8 +626,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1159,8 +645,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1178,8 +663,466 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1198,7 +1141,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1216,8 +1159,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1235,8 +1178,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1254,8 +1197,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1273,8 +1216,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1292,8 +1235,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1311,8 +1254,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1330,8 +1273,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1349,8 +1292,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1368,8 +1311,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1387,8 +1330,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1407,7 +1350,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1426,7 +1369,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1445,7 +1388,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1463,8 +1406,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1483,7 +1426,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1501,8 +1444,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1521,7 +1464,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1540,7 +1483,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1559,7 +1502,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1591,7 +1534,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1609,7 +1552,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2268,7 +2211,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B16" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -2357,88 +2300,82 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AD33" totalsRowCount="1" headerRowDxfId="62" dataDxfId="61" totalsRowDxfId="60">
-  <autoFilter ref="A1:AD32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AB33" totalsRowCount="1" headerRowDxfId="58" dataDxfId="57" totalsRowDxfId="56">
+  <autoFilter ref="A1:AB32"/>
   <sortState ref="A2:AC30">
     <sortCondition ref="A1:A30"/>
   </sortState>
-  <tableColumns count="30">
-    <tableColumn id="19" name="ID" totalsRowLabel="Total" dataDxfId="59" totalsRowDxfId="30"/>
-    <tableColumn id="2" name="ATIVO" dataDxfId="58" totalsRowDxfId="29"/>
-    <tableColumn id="3" name="[C/V]" dataDxfId="57" totalsRowDxfId="28"/>
-    <tableColumn id="4" name="DATA" dataDxfId="56" totalsRowDxfId="27"/>
-    <tableColumn id="5" name="QTDE" dataDxfId="55" totalsRowDxfId="26"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="54" totalsRowDxfId="25"/>
-    <tableColumn id="7" name="[D/N]" dataDxfId="53" totalsRowDxfId="24"/>
-    <tableColumn id="31" name="D BASE" dataDxfId="52" totalsRowDxfId="23">
+  <tableColumns count="28">
+    <tableColumn id="19" name="ID" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="27"/>
+    <tableColumn id="2" name="ATIVO" dataDxfId="54" totalsRowDxfId="26"/>
+    <tableColumn id="3" name="OPER/TIPO" dataDxfId="53" totalsRowDxfId="25"/>
+    <tableColumn id="4" name="DATA" dataDxfId="52" totalsRowDxfId="24"/>
+    <tableColumn id="5" name="QTDE" dataDxfId="51" totalsRowDxfId="23"/>
+    <tableColumn id="6" name="PREÇO" dataDxfId="50" totalsRowDxfId="22"/>
+    <tableColumn id="7" name="[D/N]" dataDxfId="49" totalsRowDxfId="21"/>
+    <tableColumn id="31" name="D BASE" dataDxfId="48" totalsRowDxfId="20">
       <calculatedColumnFormula>EOMONTH(NC[[#This Row],[DATA]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="PAR" dataDxfId="51" totalsRowDxfId="22">
-      <calculatedColumnFormula>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</calculatedColumnFormula>
+    <tableColumn id="21" name="PAR" dataDxfId="47" totalsRowDxfId="19">
+      <calculatedColumnFormula>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR" dataDxfId="50" totalsRowDxfId="21">
-      <calculatedColumnFormula>NC[QTDE]*NC[PREÇO]</calculatedColumnFormula>
+    <tableColumn id="8" name="VALOR" dataDxfId="46" totalsRowDxfId="18">
+      <calculatedColumnFormula>[QTDE]*[PREÇO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="VL LIQUID" dataDxfId="49" totalsRowDxfId="20">
-      <calculatedColumnFormula>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</calculatedColumnFormula>
+    <tableColumn id="9" name="VL LIQUID" dataDxfId="30" totalsRowDxfId="17">
+      <calculatedColumnFormula>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TX LIQUID" dataDxfId="48" totalsRowDxfId="19">
-      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</calculatedColumnFormula>
+    <tableColumn id="10" name="TX LIQUID" dataDxfId="45" totalsRowDxfId="16">
+      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL" dataDxfId="47" totalsRowDxfId="18">
-      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</calculatedColumnFormula>
+    <tableColumn id="11" name="EMOL" dataDxfId="44" totalsRowDxfId="15">
+      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORR. BASE" dataDxfId="46" totalsRowDxfId="17">
-      <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
+    <tableColumn id="12" name="CORR. BASE" dataDxfId="43" totalsRowDxfId="14">
+      <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="45" totalsRowDxfId="16">
-      <calculatedColumnFormula>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</calculatedColumnFormula>
+    <tableColumn id="13" name="ISS" dataDxfId="42" totalsRowDxfId="13">
+      <calculatedColumnFormula>TRUNC([CORR. BASE]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="OUTRAS" dataDxfId="0" totalsRowDxfId="15">
-      <calculatedColumnFormula>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</calculatedColumnFormula>
+    <tableColumn id="15" name="OUTRAS" dataDxfId="41" totalsRowDxfId="12">
+      <calculatedColumnFormula>TRUNC([CORR. BASE]*SETUP!$G$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="LÍQUIDO" totalsRowLabel=" R$ 6.765,77 " dataDxfId="44" totalsRowDxfId="14">
-      <calculatedColumnFormula>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</calculatedColumnFormula>
+    <tableColumn id="16" name="LÍQUIDO" totalsRowLabel=" R$ 6.765,77 " dataDxfId="40" totalsRowDxfId="11">
+      <calculatedColumnFormula>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="43" totalsRowDxfId="13">
-      <calculatedColumnFormula>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</calculatedColumnFormula>
+    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="39" totalsRowDxfId="10">
+      <calculatedColumnFormula>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO" dataDxfId="42" totalsRowDxfId="12">
+    <tableColumn id="18" name="MEDIO" dataDxfId="38" totalsRowDxfId="9">
       <calculatedColumnFormula>ABS(R2)/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="11">
-      <calculatedColumnFormula>TRUNC(IF(NC['[C/V']]="V",J2*SETUP!$H$3,0),2)</calculatedColumnFormula>
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="8">
+      <calculatedColumnFormula>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="40" totalsRowDxfId="10">
-      <calculatedColumnFormula>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</calculatedColumnFormula>
+    <tableColumn id="24" name="SALDO" dataDxfId="36" totalsRowDxfId="7">
+      <calculatedColumnFormula>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="39" totalsRowDxfId="9">
-      <calculatedColumnFormula>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</calculatedColumnFormula>
+    <tableColumn id="22" name="MED CP" dataDxfId="35" totalsRowDxfId="6">
+      <calculatedColumnFormula>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="38" totalsRowDxfId="8">
-      <calculatedColumnFormula>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</calculatedColumnFormula>
+    <tableColumn id="23" name="MED VD" dataDxfId="34" totalsRowDxfId="5">
+      <calculatedColumnFormula>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO OP" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="7">
-      <calculatedColumnFormula>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</calculatedColumnFormula>
+    <tableColumn id="25" name="LUCRO OP" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="4">
+      <calculatedColumnFormula>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="CARTEIRA" dataDxfId="36" totalsRowDxfId="6">
-      <calculatedColumnFormula>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</calculatedColumnFormula>
+    <tableColumn id="26" name="LUCRO N" dataDxfId="32" totalsRowDxfId="3">
+      <calculatedColumnFormula>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="LUCRO N" dataDxfId="35" totalsRowDxfId="5">
-      <calculatedColumnFormula>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</calculatedColumnFormula>
+    <tableColumn id="14" name="LUCRO D" dataDxfId="31" totalsRowDxfId="2">
+      <calculatedColumnFormula>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="LUCRO D" dataDxfId="34" totalsRowDxfId="4">
-      <calculatedColumnFormula>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="LUCRO MÊS" dataDxfId="33" totalsRowDxfId="3">
-      <calculatedColumnFormula>NC[LUCRO N]+NC[LUCRO D]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="%" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="2">
-      <calculatedColumnFormula>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</calculatedColumnFormula>
+    <tableColumn id="29" name="LUCRO MÊS" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="1">
+      <calculatedColumnFormula>[LUCRO N]+[LUCRO D]</calculatedColumnFormula>
       <totalsRowFormula>NC[[#Totals],[LUCRO OP]]/NC[[#Totals],[LÍQUIDO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="1" name="VOLUME" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="1">
-      <calculatedColumnFormula>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</calculatedColumnFormula>
+    <tableColumn id="1" name="VOLUME" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="0">
+      <calculatedColumnFormula>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</calculatedColumnFormula>
       <totalsRowFormula>IF(NC[[#Totals],[LUCRO OP]]&lt;0,ABS(NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]])),-NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]]))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2756,7 +2693,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2798,7 +2735,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2817,14 +2754,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -2834,109 +2771,109 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="12">
         <v>-862.45000000000027</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="13">
         <v>-130.13999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="13">
         <v>205.45000000000027</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="13">
         <v>-1201.19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="13">
         <v>-121.93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="13">
         <v>-21.560000000000855</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="13">
         <v>-81.129999999999654</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="13">
         <v>-255.90999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="13">
         <v>-88.079999999999814</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" s="13">
         <v>-150.42000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="14">
         <v>-2707.36</v>
@@ -2948,149 +2885,143 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
+      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" style="15" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="16" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="16" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" style="15" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="17" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" style="15" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="16" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="15" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="9.85546875" style="15" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="16" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" style="15" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" style="15" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="11.5703125" style="15"/>
+    <col min="21" max="21" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="11.5703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="U1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>44</v>
-      </c>
       <c r="W1" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X1" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Y1" s="18" t="s">
         <v>48</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AB1" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD1" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="21" customFormat="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D2" s="22">
         <v>40882</v>
@@ -3102,50 +3033,50 @@
         <v>13.62</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40908</v>
       </c>
       <c r="I2" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J2" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>1362</v>
       </c>
       <c r="K2" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-1362</v>
       </c>
       <c r="L2" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.37</v>
       </c>
       <c r="M2" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.09</v>
       </c>
       <c r="N2" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O2" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P2" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q2" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-1378.2299999999998</v>
       </c>
       <c r="R2" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1378.2299999999998</v>
       </c>
       <c r="S2" s="23">
@@ -3153,59 +3084,51 @@
         <v>13.782299999999998</v>
       </c>
       <c r="T2" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J2*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J2*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U2" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>100</v>
       </c>
-      <c r="V2" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+      <c r="V2" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>13.782299999999998</v>
       </c>
-      <c r="W2" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W2" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X2" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y2" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>3884.619999999999</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>306.37500000000023</v>
       </c>
       <c r="Z2" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>306.37500000000023</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>-36.1</v>
       </c>
       <c r="AA2" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>-36.1</v>
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>270.2750000000002</v>
       </c>
       <c r="AB2" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>270.2750000000002</v>
-      </c>
-      <c r="AC2" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271566E-2</v>
-      </c>
-      <c r="AD2" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="21" customFormat="1">
       <c r="A3" s="21">
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D3" s="22">
         <v>40886</v>
@@ -3217,50 +3140,50 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40908</v>
       </c>
       <c r="I3" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J3" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>844.99999999999989</v>
       </c>
       <c r="K3" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-844.99999999999989</v>
       </c>
       <c r="L3" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.23</v>
       </c>
       <c r="M3" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.05</v>
       </c>
       <c r="N3" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O3" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P3" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q3" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-861.04999999999984</v>
       </c>
       <c r="R3" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-861.04999999999984</v>
       </c>
       <c r="S3" s="23">
@@ -3268,59 +3191,51 @@
         <v>8.6104999999999983</v>
       </c>
       <c r="T3" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J3*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J3*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U3" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>100</v>
       </c>
-      <c r="V3" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+      <c r="V3" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>8.6104999999999983</v>
       </c>
-      <c r="W3" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W3" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X3" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y3" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>3884.619999999999</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>306.37500000000023</v>
       </c>
       <c r="Z3" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>306.37500000000023</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>-36.1</v>
       </c>
       <c r="AA3" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>-36.1</v>
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>270.2750000000002</v>
       </c>
       <c r="AB3" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>270.2750000000002</v>
-      </c>
-      <c r="AC3" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271566E-2</v>
-      </c>
-      <c r="AD3" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="21" customFormat="1">
       <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D4" s="22">
         <v>40889</v>
@@ -3332,50 +3247,50 @@
         <v>16</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40908</v>
       </c>
       <c r="I4" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J4" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>1600</v>
       </c>
       <c r="K4" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>1600</v>
       </c>
       <c r="L4" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.44</v>
       </c>
       <c r="M4" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.11</v>
       </c>
       <c r="N4" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O4" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P4" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q4" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>1583.68</v>
       </c>
       <c r="R4" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>1583.68</v>
       </c>
       <c r="S4" s="23">
@@ -3383,59 +3298,51 @@
         <v>15.8368</v>
       </c>
       <c r="T4" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J4*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J4*SETUP!$H$3,     0),2)</f>
         <v>0.08</v>
       </c>
       <c r="U4" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>13.782299999999998</v>
       </c>
-      <c r="W4" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W4" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>15.8368</v>
       </c>
       <c r="X4" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>205.45000000000027</v>
       </c>
       <c r="Y4" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>3884.619999999999</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>306.37500000000023</v>
       </c>
       <c r="Z4" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>306.37500000000023</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>-36.1</v>
       </c>
       <c r="AA4" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>-36.1</v>
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>270.2750000000002</v>
       </c>
       <c r="AB4" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>270.2750000000002</v>
-      </c>
-      <c r="AC4" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271566E-2</v>
-      </c>
-      <c r="AD4" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="21" customFormat="1">
       <c r="A5" s="21">
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D5" s="22">
         <v>40893</v>
@@ -3447,50 +3354,50 @@
         <v>5.66</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40908</v>
       </c>
       <c r="I5" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J5" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>1132</v>
       </c>
       <c r="K5" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-1132</v>
       </c>
       <c r="L5" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.2</v>
       </c>
       <c r="M5" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N5" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O5" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P5" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q5" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-1148.04</v>
       </c>
       <c r="R5" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1148.04</v>
       </c>
       <c r="S5" s="23">
@@ -3498,59 +3405,51 @@
         <v>5.7401999999999997</v>
       </c>
       <c r="T5" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J5*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J5*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U5" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X5" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y5" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>3884.619999999999</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>306.37500000000023</v>
       </c>
       <c r="Z5" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>306.37500000000023</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>-36.1</v>
       </c>
       <c r="AA5" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>-36.1</v>
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>270.2750000000002</v>
       </c>
       <c r="AB5" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>270.2750000000002</v>
-      </c>
-      <c r="AC5" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271566E-2</v>
-      </c>
-      <c r="AD5" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" s="21" customFormat="1">
       <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D6" s="22">
         <v>40893</v>
@@ -3562,50 +3461,50 @@
         <v>5.64</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H6" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40908</v>
       </c>
       <c r="I6" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J6" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>1128</v>
       </c>
       <c r="K6" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-4</v>
       </c>
       <c r="L6" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.4</v>
       </c>
       <c r="M6" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.15</v>
       </c>
       <c r="N6" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="O6" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="P6" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q6" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-36.1</v>
       </c>
       <c r="R6" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>1111.94</v>
       </c>
       <c r="S6" s="23">
@@ -3613,59 +3512,51 @@
         <v>5.5597000000000003</v>
       </c>
       <c r="T6" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J6*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J6*SETUP!$H$3,     0),2)</f>
         <v>0.05</v>
       </c>
       <c r="U6" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
-        <v>5.5597000000000003</v>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <v>0</v>
       </c>
       <c r="X6" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-36.1</v>
       </c>
       <c r="Y6" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>3884.619999999999</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>306.37500000000023</v>
       </c>
       <c r="Z6" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>306.37500000000023</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>-36.1</v>
       </c>
       <c r="AA6" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>-36.1</v>
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>270.2750000000002</v>
       </c>
       <c r="AB6" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>270.2750000000002</v>
-      </c>
-      <c r="AC6" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271566E-2</v>
-      </c>
-      <c r="AD6" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" s="21" customFormat="1">
       <c r="A7" s="21">
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D7" s="22">
         <v>40893</v>
@@ -3677,50 +3568,50 @@
         <v>5.65</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40908</v>
       </c>
       <c r="I7" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J7" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>1130</v>
       </c>
       <c r="K7" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-1134</v>
       </c>
       <c r="L7" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.71</v>
       </c>
       <c r="M7" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.23</v>
       </c>
       <c r="N7" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>44.7</v>
       </c>
       <c r="O7" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.89</v>
       </c>
       <c r="P7" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.74</v>
       </c>
       <c r="Q7" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-1182.2700000000002</v>
       </c>
       <c r="R7" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1146.1700000000003</v>
       </c>
       <c r="S7" s="23">
@@ -3728,59 +3619,51 @@
         <v>5.7308500000000011</v>
       </c>
       <c r="T7" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J7*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J7*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U7" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>200</v>
       </c>
-      <c r="V7" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+      <c r="V7" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>5.7308500000000011</v>
       </c>
-      <c r="W7" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W7" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X7" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y7" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>3884.619999999999</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>306.37500000000023</v>
       </c>
       <c r="Z7" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>306.37500000000023</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>-36.1</v>
       </c>
       <c r="AA7" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>-36.1</v>
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>270.2750000000002</v>
       </c>
       <c r="AB7" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>270.2750000000002</v>
-      </c>
-      <c r="AC7" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271566E-2</v>
-      </c>
-      <c r="AD7" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" s="21" customFormat="1">
       <c r="A8" s="21">
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D8" s="22">
         <v>40900</v>
@@ -3792,50 +3675,50 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40908</v>
       </c>
       <c r="I8" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
-        <v>2</v>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>1</v>
       </c>
       <c r="J8" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>853.99999999999989</v>
       </c>
       <c r="K8" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>853.99999999999989</v>
       </c>
       <c r="L8" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.23</v>
       </c>
       <c r="M8" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.05</v>
       </c>
       <c r="N8" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O8" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P8" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q8" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>837.94999999999993</v>
       </c>
       <c r="R8" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>837.94999999999993</v>
       </c>
       <c r="S8" s="23">
@@ -3843,59 +3726,51 @@
         <v>4.1897500000000001</v>
       </c>
       <c r="T8" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J8*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J8*SETUP!$H$3,     0),2)</f>
         <v>0.04</v>
       </c>
       <c r="U8" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>-200</v>
       </c>
-      <c r="V8" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="V8" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>4.1897500000000001</v>
       </c>
       <c r="X8" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y8" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>3884.619999999999</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>306.37500000000023</v>
       </c>
       <c r="Z8" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>306.37500000000023</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>-36.1</v>
       </c>
       <c r="AA8" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>-36.1</v>
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>270.2750000000002</v>
       </c>
       <c r="AB8" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>270.2750000000002</v>
-      </c>
-      <c r="AC8" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271566E-2</v>
-      </c>
-      <c r="AD8" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" s="21" customFormat="1">
       <c r="A9" s="21">
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D9" s="22">
         <v>40905</v>
@@ -3907,50 +3782,50 @@
         <v>7.86</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40908</v>
       </c>
       <c r="I9" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J9" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>2358</v>
       </c>
       <c r="K9" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-2358</v>
       </c>
       <c r="L9" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.64</v>
       </c>
       <c r="M9" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.16</v>
       </c>
       <c r="N9" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O9" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P9" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q9" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-2374.5699999999997</v>
       </c>
       <c r="R9" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-2374.5699999999997</v>
       </c>
       <c r="S9" s="23">
@@ -3958,59 +3833,51 @@
         <v>7.9152333333333322</v>
       </c>
       <c r="T9" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J9*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J9*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U9" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>300</v>
       </c>
-      <c r="V9" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+      <c r="V9" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>7.9152333333333322</v>
       </c>
-      <c r="W9" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W9" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X9" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y9" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>3884.619999999999</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>306.37500000000023</v>
       </c>
       <c r="Z9" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>306.37500000000023</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>-36.1</v>
       </c>
       <c r="AA9" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>-36.1</v>
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>270.2750000000002</v>
       </c>
       <c r="AB9" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>270.2750000000002</v>
-      </c>
-      <c r="AC9" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271566E-2</v>
-      </c>
-      <c r="AD9" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" s="21" customFormat="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D10" s="22">
         <v>40906</v>
@@ -4022,50 +3889,50 @@
         <v>6.9</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40908</v>
       </c>
       <c r="I10" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J10" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>690</v>
       </c>
       <c r="K10" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>690</v>
       </c>
       <c r="L10" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.18</v>
       </c>
       <c r="M10" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.04</v>
       </c>
       <c r="N10" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O10" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P10" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q10" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>674.0100000000001</v>
       </c>
       <c r="R10" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>674.0100000000001</v>
       </c>
       <c r="S10" s="23">
@@ -4073,59 +3940,51 @@
         <v>6.7401000000000009</v>
       </c>
       <c r="T10" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J10*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J10*SETUP!$H$3,     0),2)</f>
         <v>0.03</v>
       </c>
       <c r="U10" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>100</v>
       </c>
-      <c r="V10" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+      <c r="V10" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>5.7308500000000011</v>
       </c>
-      <c r="W10" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W10" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>6.7401000000000009</v>
       </c>
       <c r="X10" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>100.92499999999998</v>
       </c>
       <c r="Y10" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>3884.619999999999</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>306.37500000000023</v>
       </c>
       <c r="Z10" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>306.37500000000023</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>-36.1</v>
       </c>
       <c r="AA10" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>-36.1</v>
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>270.2750000000002</v>
       </c>
       <c r="AB10" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>270.2750000000002</v>
-      </c>
-      <c r="AC10" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>7.4778417666271566E-2</v>
-      </c>
-      <c r="AD10" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" s="21" customFormat="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D11" s="22">
         <v>40913</v>
@@ -4137,50 +3996,50 @@
         <v>5.83</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40939</v>
       </c>
       <c r="I11" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J11" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>583</v>
       </c>
       <c r="K11" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>583</v>
       </c>
       <c r="L11" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.16</v>
       </c>
       <c r="M11" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.04</v>
       </c>
       <c r="N11" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O11" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P11" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q11" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>567.03000000000009</v>
       </c>
       <c r="R11" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>567.03000000000009</v>
       </c>
       <c r="S11" s="23">
@@ -4188,59 +4047,51 @@
         <v>5.670300000000001</v>
       </c>
       <c r="T11" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J11*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J11*SETUP!$H$3,     0),2)</f>
         <v>0.02</v>
       </c>
       <c r="U11" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>5.7308500000000011</v>
       </c>
-      <c r="W11" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W11" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>5.670300000000001</v>
       </c>
       <c r="X11" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-6.0550000000000104</v>
       </c>
       <c r="Y11" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>4947.0199999999995</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-324.88500000000062</v>
       </c>
       <c r="Z11" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-324.88500000000062</v>
       </c>
-      <c r="AA11" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB11" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="AC11" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-6.1625731116171596E-2</v>
-      </c>
-      <c r="AD11" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" s="21" customFormat="1">
       <c r="A12" s="21">
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D12" s="22">
         <v>40914</v>
@@ -4252,50 +4103,50 @@
         <v>5.8</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40939</v>
       </c>
       <c r="I12" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>3</v>
       </c>
       <c r="J12" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>1160</v>
       </c>
       <c r="K12" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-1160</v>
       </c>
       <c r="L12" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.31</v>
       </c>
       <c r="M12" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.08</v>
       </c>
       <c r="N12" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O12" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P12" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q12" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-1176.1599999999999</v>
       </c>
       <c r="R12" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1176.1599999999999</v>
       </c>
       <c r="S12" s="23">
@@ -4303,59 +4154,51 @@
         <v>5.8807999999999989</v>
       </c>
       <c r="T12" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J12*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J12*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U12" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>200</v>
       </c>
-      <c r="V12" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+      <c r="V12" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>5.8807999999999989</v>
       </c>
-      <c r="W12" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W12" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X12" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y12" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>4947.0199999999995</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-324.88500000000062</v>
       </c>
       <c r="Z12" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-324.88500000000062</v>
       </c>
-      <c r="AA12" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB12" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="AC12" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-6.1625731116171596E-2</v>
-      </c>
-      <c r="AD12" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" s="21" customFormat="1">
       <c r="A13" s="21">
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D13" s="22">
         <v>40925</v>
@@ -4367,50 +4210,50 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40939</v>
       </c>
       <c r="I13" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J13" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>2711.9999999999995</v>
       </c>
       <c r="K13" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>2711.9999999999995</v>
       </c>
       <c r="L13" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.74</v>
       </c>
       <c r="M13" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.18</v>
       </c>
       <c r="N13" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O13" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P13" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q13" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>2695.31</v>
       </c>
       <c r="R13" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>2695.31</v>
       </c>
       <c r="S13" s="23">
@@ -4418,59 +4261,51 @@
         <v>8.9843666666666664</v>
       </c>
       <c r="T13" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J13*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J13*SETUP!$H$3,     0),2)</f>
         <v>0.13</v>
       </c>
       <c r="U13" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>-300</v>
       </c>
-      <c r="V13" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="V13" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>8.9843666666666664</v>
       </c>
       <c r="X13" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y13" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>4947.0199999999995</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-324.88500000000062</v>
       </c>
       <c r="Z13" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-324.88500000000062</v>
       </c>
-      <c r="AA13" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB13" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="AC13" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-6.1625731116171596E-2</v>
-      </c>
-      <c r="AD13" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" s="21" customFormat="1">
       <c r="A14" s="21">
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D14" s="22">
         <v>40925</v>
@@ -4482,50 +4317,50 @@
         <v>5.56</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40939</v>
       </c>
       <c r="I14" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>3</v>
       </c>
       <c r="J14" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>1112</v>
       </c>
       <c r="K14" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>3823.9999999999995</v>
       </c>
       <c r="L14" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>1.05</v>
       </c>
       <c r="M14" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.26</v>
       </c>
       <c r="N14" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="O14" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="P14" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q14" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>3791.139999999999</v>
       </c>
       <c r="R14" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>1095.829999999999</v>
       </c>
       <c r="S14" s="23">
@@ -4533,59 +4368,51 @@
         <v>5.4791499999999953</v>
       </c>
       <c r="T14" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J14*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J14*SETUP!$H$3,     0),2)</f>
         <v>0.05</v>
       </c>
       <c r="U14" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>5.8807999999999989</v>
       </c>
-      <c r="W14" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W14" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>5.4791499999999953</v>
       </c>
       <c r="X14" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-80.330000000000723</v>
       </c>
       <c r="Y14" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>4947.0199999999995</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-324.88500000000062</v>
       </c>
       <c r="Z14" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-324.88500000000062</v>
       </c>
-      <c r="AA14" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB14" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="AC14" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-6.1625731116171596E-2</v>
-      </c>
-      <c r="AD14" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" s="21" customFormat="1">
       <c r="A15" s="21">
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D15" s="22">
         <v>40932</v>
@@ -4597,50 +4424,50 @@
         <v>0.5</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40939</v>
       </c>
       <c r="I15" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J15" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>1000</v>
       </c>
       <c r="K15" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-1000</v>
       </c>
       <c r="L15" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.27</v>
       </c>
       <c r="M15" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N15" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O15" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P15" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q15" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-1016.11</v>
       </c>
       <c r="R15" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1016.11</v>
       </c>
       <c r="S15" s="23">
@@ -4648,59 +4475,51 @@
         <v>0.50805500000000003</v>
       </c>
       <c r="T15" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J15*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J15*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U15" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>2000</v>
       </c>
-      <c r="V15" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+      <c r="V15" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.50805500000000003</v>
       </c>
-      <c r="W15" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W15" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X15" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y15" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>4947.0199999999995</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-324.88500000000062</v>
       </c>
       <c r="Z15" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-324.88500000000062</v>
       </c>
-      <c r="AA15" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB15" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="AC15" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-6.1625731116171596E-2</v>
-      </c>
-      <c r="AD15" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" s="21" customFormat="1">
       <c r="A16" s="21">
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D16" s="22">
         <v>40938</v>
@@ -4712,50 +4531,50 @@
         <v>7.89</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40939</v>
       </c>
       <c r="I16" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J16" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>789</v>
       </c>
       <c r="K16" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>789</v>
       </c>
       <c r="L16" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.21</v>
       </c>
       <c r="M16" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.05</v>
       </c>
       <c r="N16" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O16" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P16" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q16" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>772.97</v>
       </c>
       <c r="R16" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>772.97</v>
       </c>
       <c r="S16" s="23">
@@ -4763,59 +4582,51 @@
         <v>7.7297000000000002</v>
       </c>
       <c r="T16" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J16*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J16*SETUP!$H$3,     0),2)</f>
         <v>0.03</v>
       </c>
       <c r="U16" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>8.6104999999999983</v>
       </c>
-      <c r="W16" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W16" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>7.7297000000000002</v>
       </c>
       <c r="X16" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-88.079999999999799</v>
       </c>
       <c r="Y16" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>4947.0199999999995</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-324.88500000000062</v>
       </c>
       <c r="Z16" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-324.88500000000062</v>
       </c>
-      <c r="AA16" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB16" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="AC16" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-6.1625731116171596E-2</v>
-      </c>
-      <c r="AD16" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" s="21" customFormat="1">
       <c r="A17" s="21">
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D17" s="22">
         <v>40939</v>
@@ -4827,50 +4638,50 @@
         <v>9.43</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40939</v>
       </c>
       <c r="I17" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J17" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>2829</v>
       </c>
       <c r="K17" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-2829</v>
       </c>
       <c r="L17" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.77</v>
       </c>
       <c r="M17" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.19</v>
       </c>
       <c r="N17" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O17" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P17" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q17" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-2845.73</v>
       </c>
       <c r="R17" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-2845.73</v>
       </c>
       <c r="S17" s="23">
@@ -4878,59 +4689,51 @@
         <v>9.4857666666666667</v>
       </c>
       <c r="T17" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J17*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J17*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U17" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>9.4857666666666667</v>
       </c>
-      <c r="W17" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W17" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>8.9843666666666664</v>
       </c>
       <c r="X17" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-150.42000000000007</v>
       </c>
       <c r="Y17" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>4947.0199999999995</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-324.88500000000062</v>
       </c>
       <c r="Z17" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-324.88500000000062</v>
       </c>
-      <c r="AA17" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB17" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="AC17" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-6.1625731116171596E-2</v>
-      </c>
-      <c r="AD17" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" s="21" customFormat="1">
       <c r="A18" s="21">
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D18" s="22">
         <v>40939</v>
@@ -4942,50 +4745,50 @@
         <v>0.43</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40939</v>
       </c>
       <c r="I18" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J18" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>989</v>
       </c>
       <c r="K18" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-3818</v>
       </c>
       <c r="L18" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>1.04</v>
       </c>
       <c r="M18" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.26</v>
       </c>
       <c r="N18" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="O18" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="P18" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q18" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-3850.8500000000004</v>
       </c>
       <c r="R18" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1005.1200000000003</v>
       </c>
       <c r="S18" s="23">
@@ -4993,59 +4796,51 @@
         <v>0.43700869565217404</v>
       </c>
       <c r="T18" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J18*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J18*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U18" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>2300</v>
       </c>
-      <c r="V18" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+      <c r="V18" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.43700869565217404</v>
       </c>
-      <c r="W18" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W18" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X18" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y18" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>4947.0199999999995</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-324.88500000000062</v>
       </c>
       <c r="Z18" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-324.88500000000062</v>
       </c>
-      <c r="AA18" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB18" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="AC18" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-6.1625731116171596E-2</v>
-      </c>
-      <c r="AD18" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" s="21" customFormat="1">
       <c r="A19" s="21">
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D19" s="22">
         <v>40942</v>
@@ -5057,50 +4852,50 @@
         <v>4.76</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40968</v>
       </c>
       <c r="I19" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
-        <v>2</v>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>1</v>
       </c>
       <c r="J19" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>952</v>
       </c>
       <c r="K19" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-952</v>
       </c>
       <c r="L19" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.26</v>
       </c>
       <c r="M19" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.06</v>
       </c>
       <c r="N19" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O19" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P19" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q19" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-968.08999999999992</v>
       </c>
       <c r="R19" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-968.08999999999992</v>
       </c>
       <c r="S19" s="23">
@@ -5108,59 +4903,51 @@
         <v>4.8404499999999997</v>
       </c>
       <c r="T19" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J19*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J19*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U19" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>4.8404499999999997</v>
       </c>
-      <c r="W19" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W19" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>4.1897500000000001</v>
       </c>
       <c r="X19" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-130.13999999999993</v>
       </c>
       <c r="Y19" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>2238.2499999999995</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-467.17999999999961</v>
       </c>
       <c r="Z19" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-467.17999999999961</v>
       </c>
-      <c r="AA19" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB19" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="AC19" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.17268234624440468</v>
-      </c>
-      <c r="AD19" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" s="21" customFormat="1">
       <c r="A20" s="21">
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D20" s="22">
         <v>40948</v>
@@ -5172,50 +4959,50 @@
         <v>7.7</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40968</v>
       </c>
       <c r="I20" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J20" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>2310</v>
       </c>
       <c r="K20" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>2310</v>
       </c>
       <c r="L20" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.63</v>
       </c>
       <c r="M20" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.16</v>
       </c>
       <c r="N20" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O20" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P20" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q20" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>2293.44</v>
       </c>
       <c r="R20" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>2293.44</v>
       </c>
       <c r="S20" s="23">
@@ -5223,59 +5010,51 @@
         <v>7.6448</v>
       </c>
       <c r="T20" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J20*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J20*SETUP!$H$3,     0),2)</f>
         <v>0.11</v>
       </c>
       <c r="U20" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>7.9152333333333322</v>
       </c>
-      <c r="W20" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W20" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>7.6448</v>
       </c>
       <c r="X20" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-81.129999999999654</v>
       </c>
       <c r="Y20" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>2238.2499999999995</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-467.17999999999961</v>
       </c>
       <c r="Z20" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-467.17999999999961</v>
       </c>
-      <c r="AA20" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB20" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="AC20" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.17268234624440468</v>
-      </c>
-      <c r="AD20" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" s="21" customFormat="1">
       <c r="A21" s="21">
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D21" s="22">
         <v>40948</v>
@@ -5287,50 +5066,50 @@
         <v>0.37</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H21" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40968</v>
       </c>
       <c r="I21" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J21" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>1369</v>
       </c>
       <c r="K21" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>941</v>
       </c>
       <c r="L21" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>1.01</v>
       </c>
       <c r="M21" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.25</v>
       </c>
       <c r="N21" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="O21" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="P21" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q21" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>908.19</v>
       </c>
       <c r="R21" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1385.25</v>
       </c>
       <c r="S21" s="23">
@@ -5338,59 +5117,51 @@
         <v>0.37439189189189187</v>
       </c>
       <c r="T21" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J21*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J21*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U21" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>6000</v>
       </c>
-      <c r="V21" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+      <c r="V21" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.39839500000000005</v>
       </c>
-      <c r="W21" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W21" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X21" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y21" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>2238.2499999999995</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-467.17999999999961</v>
       </c>
       <c r="Z21" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-467.17999999999961</v>
       </c>
-      <c r="AA21" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB21" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="AC21" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.17268234624440468</v>
-      </c>
-      <c r="AD21" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" s="21" customFormat="1">
       <c r="A22" s="21">
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D22" s="22">
         <v>40948</v>
@@ -5402,50 +5173,50 @@
         <v>2.37</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40968</v>
       </c>
       <c r="I22" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J22" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>1185</v>
       </c>
       <c r="K22" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-244</v>
       </c>
       <c r="L22" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>1.33</v>
       </c>
       <c r="M22" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.34</v>
       </c>
       <c r="N22" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>44.7</v>
       </c>
       <c r="O22" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.89</v>
       </c>
       <c r="P22" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.74</v>
       </c>
       <c r="Q22" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-293</v>
       </c>
       <c r="R22" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1201.19</v>
       </c>
       <c r="S22" s="23">
@@ -5453,59 +5224,51 @@
         <v>2.40238</v>
       </c>
       <c r="T22" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J22*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J22*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U22" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>500</v>
       </c>
-      <c r="V22" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+      <c r="V22" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>2.40238</v>
       </c>
-      <c r="W22" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W22" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X22" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y22" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>2238.2499999999995</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-467.17999999999961</v>
       </c>
       <c r="Z22" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-467.17999999999961</v>
       </c>
-      <c r="AA22" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB22" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="AC22" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.17268234624440468</v>
-      </c>
-      <c r="AD22" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" s="21" customFormat="1">
       <c r="A23" s="21">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D23" s="22">
         <v>40953</v>
@@ -5517,50 +5280,50 @@
         <v>0.4</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40968</v>
       </c>
       <c r="I23" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J23" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>640</v>
       </c>
       <c r="K23" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>640</v>
       </c>
       <c r="L23" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.17</v>
       </c>
       <c r="M23" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.04</v>
       </c>
       <c r="N23" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O23" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P23" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q23" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>624.0200000000001</v>
       </c>
       <c r="R23" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>624.0200000000001</v>
       </c>
       <c r="S23" s="23">
@@ -5568,59 +5331,51 @@
         <v>0.39001250000000004</v>
       </c>
       <c r="T23" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J23*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J23*SETUP!$H$3,     0),2)</f>
         <v>0.03</v>
       </c>
       <c r="U23" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>400</v>
       </c>
-      <c r="V23" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+      <c r="V23" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.50805500000000003</v>
       </c>
-      <c r="W23" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W23" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0.39001250000000004</v>
       </c>
       <c r="X23" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-188.86799999999999</v>
       </c>
       <c r="Y23" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>2238.2499999999995</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-467.17999999999961</v>
       </c>
       <c r="Z23" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-467.17999999999961</v>
       </c>
-      <c r="AA23" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB23" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="AC23" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.17268234624440468</v>
-      </c>
-      <c r="AD23" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" s="21" customFormat="1">
       <c r="A24" s="21">
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D24" s="22">
         <v>40953</v>
@@ -5632,50 +5387,50 @@
         <v>0.2</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40968</v>
       </c>
       <c r="I24" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J24" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>600</v>
       </c>
       <c r="K24" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>40</v>
       </c>
       <c r="L24" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.34</v>
       </c>
       <c r="M24" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.08</v>
       </c>
       <c r="N24" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="O24" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="P24" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q24" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>8.0299999999999976</v>
       </c>
       <c r="R24" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-615.99000000000012</v>
       </c>
       <c r="S24" s="23">
@@ -5683,59 +5438,51 @@
         <v>0.20533000000000004</v>
       </c>
       <c r="T24" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J24*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J24*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U24" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>3000</v>
       </c>
-      <c r="V24" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+      <c r="V24" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.20533000000000004</v>
       </c>
-      <c r="W24" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W24" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X24" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y24" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>2238.2499999999995</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-467.17999999999961</v>
       </c>
       <c r="Z24" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-467.17999999999961</v>
       </c>
-      <c r="AA24" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB24" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="AC24" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.17268234624440468</v>
-      </c>
-      <c r="AD24" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" s="21" customFormat="1">
       <c r="A25" s="21">
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D25" s="22">
         <v>40967</v>
@@ -5747,50 +5494,50 @@
         <v>0.38</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40968</v>
       </c>
       <c r="I25" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J25" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>152</v>
       </c>
       <c r="K25" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>152</v>
       </c>
       <c r="L25" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.04</v>
       </c>
       <c r="M25" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.01</v>
       </c>
       <c r="N25" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O25" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P25" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q25" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>136.18</v>
       </c>
       <c r="R25" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>136.18</v>
       </c>
       <c r="S25" s="23">
@@ -5798,59 +5545,51 @@
         <v>0.34045000000000003</v>
       </c>
       <c r="T25" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J25*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J25*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U25" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.50805500000000003</v>
       </c>
-      <c r="W25" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W25" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0.34045000000000003</v>
       </c>
       <c r="X25" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-67.042000000000002</v>
       </c>
       <c r="Y25" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>2238.2499999999995</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-467.17999999999961</v>
       </c>
       <c r="Z25" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-467.17999999999961</v>
       </c>
-      <c r="AA25" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB25" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="AC25" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.17268234624440468</v>
-      </c>
-      <c r="AD25" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" s="21" customFormat="1">
       <c r="A26" s="21">
         <v>25</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D26" s="22">
         <v>40970</v>
@@ -5862,50 +5601,50 @@
         <v>0.17</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40999</v>
       </c>
       <c r="I26" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J26" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>510.00000000000006</v>
       </c>
       <c r="K26" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>510.00000000000006</v>
       </c>
       <c r="L26" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="M26" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.03</v>
       </c>
       <c r="N26" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O26" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P26" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q26" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>494.06000000000012</v>
       </c>
       <c r="R26" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>494.06000000000012</v>
       </c>
       <c r="S26" s="23">
@@ -5913,59 +5652,51 @@
         <v>0.1646866666666667</v>
       </c>
       <c r="T26" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J26*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J26*SETUP!$H$3,     0),2)</f>
         <v>0.02</v>
       </c>
       <c r="U26" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.20533000000000004</v>
       </c>
-      <c r="W26" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W26" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0.1646866666666667</v>
       </c>
       <c r="X26" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-121.93</v>
       </c>
       <c r="Y26" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>1262.6899999999991</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-1056.6299999999999</v>
       </c>
       <c r="Z26" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-1056.6299999999999</v>
       </c>
-      <c r="AA26" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB26" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="AC26" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.45557749685252591</v>
-      </c>
-      <c r="AD26" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>3720</v>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <v>4364</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" s="21" customFormat="1">
       <c r="A27" s="21">
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D27" s="22">
         <v>40970</v>
@@ -5977,50 +5708,50 @@
         <v>0.27</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40999</v>
       </c>
       <c r="I27" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J27" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>810</v>
       </c>
       <c r="K27" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>1320</v>
       </c>
       <c r="L27" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.36</v>
       </c>
       <c r="M27" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.09</v>
       </c>
       <c r="N27" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="O27" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="P27" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q27" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>1288.0000000000002</v>
       </c>
       <c r="R27" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>793.94</v>
       </c>
       <c r="S27" s="23">
@@ -6028,59 +5759,51 @@
         <v>0.2646466666666667</v>
       </c>
       <c r="T27" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J27*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J27*SETUP!$H$3,     0),2)</f>
         <v>0.04</v>
       </c>
       <c r="U27" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>3000</v>
       </c>
-      <c r="V27" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+      <c r="V27" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.39839500000000005</v>
       </c>
-      <c r="W27" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W27" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0.2646466666666667</v>
       </c>
       <c r="X27" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-401.24500000000006</v>
       </c>
       <c r="Y27" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>1262.6899999999991</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-1056.6299999999999</v>
       </c>
       <c r="Z27" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-1056.6299999999999</v>
       </c>
-      <c r="AA27" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB27" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="AC27" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.45557749685252591</v>
-      </c>
-      <c r="AD27" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>3720</v>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <v>4364</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28">
       <c r="A28" s="21">
         <v>27</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D28" s="22">
         <v>40973</v>
@@ -6092,50 +5815,50 @@
         <v>0.25</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H28" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40999</v>
       </c>
       <c r="I28" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J28" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>750</v>
       </c>
       <c r="K28" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>750</v>
       </c>
       <c r="L28" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.2</v>
       </c>
       <c r="M28" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.05</v>
       </c>
       <c r="N28" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O28" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P28" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q28" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>733.98</v>
       </c>
       <c r="R28" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>733.98</v>
       </c>
       <c r="S28" s="23">
@@ -6143,59 +5866,51 @@
         <v>0.24466000000000002</v>
       </c>
       <c r="T28" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J28*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J28*SETUP!$H$3,     0),2)</f>
         <v>0.03</v>
       </c>
       <c r="U28" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
-        <v>0</v>
-      </c>
-      <c r="V28" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.39839500000000005</v>
       </c>
-      <c r="W28" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W28" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0.24466000000000002</v>
       </c>
       <c r="X28" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-461.2050000000001</v>
       </c>
       <c r="Y28" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>1262.6899999999991</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-1056.6299999999999</v>
       </c>
       <c r="Z28" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-1056.6299999999999</v>
       </c>
-      <c r="AA28" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB28" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="AC28" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.45557749685252591</v>
-      </c>
-      <c r="AD28" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>3720</v>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <v>4364</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28">
       <c r="A29" s="21">
         <v>28</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D29" s="22">
         <v>40975</v>
@@ -6207,50 +5922,50 @@
         <v>2.12</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40999</v>
       </c>
       <c r="I29" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J29" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>1060</v>
       </c>
       <c r="K29" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-1060</v>
       </c>
       <c r="L29" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="M29" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N29" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O29" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P29" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q29" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-1076.1299999999999</v>
       </c>
       <c r="R29" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1076.1299999999999</v>
       </c>
       <c r="S29" s="23">
@@ -6258,59 +5973,51 @@
         <v>2.1522599999999996</v>
       </c>
       <c r="T29" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J29*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J29*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U29" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>500</v>
       </c>
-      <c r="V29" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+      <c r="V29" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>2.1522599999999996</v>
       </c>
-      <c r="W29" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W29" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X29" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y29" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>1262.6899999999991</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-1056.6299999999999</v>
       </c>
       <c r="Z29" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-1056.6299999999999</v>
       </c>
-      <c r="AA29" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB29" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="AC29" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.45557749685252591</v>
-      </c>
-      <c r="AD29" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>3720</v>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <v>4364</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28">
       <c r="A30" s="21">
         <v>29</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D30" s="22">
         <v>40975</v>
@@ -6322,50 +6029,50 @@
         <v>4.95</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40999</v>
       </c>
       <c r="I30" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
-        <v>3</v>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>2</v>
       </c>
       <c r="J30" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>990</v>
       </c>
       <c r="K30" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-2050</v>
       </c>
       <c r="L30" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="M30" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="N30" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="O30" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="P30" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q30" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-2082.25</v>
       </c>
       <c r="R30" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1006.1200000000001</v>
       </c>
       <c r="S30" s="23">
@@ -6373,59 +6080,51 @@
         <v>5.0306000000000006</v>
       </c>
       <c r="T30" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J30*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J30*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U30" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>200</v>
       </c>
-      <c r="V30" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+      <c r="V30" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>5.0306000000000006</v>
       </c>
-      <c r="W30" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W30" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X30" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y30" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>1262.6899999999991</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-1056.6299999999999</v>
       </c>
       <c r="Z30" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-1056.6299999999999</v>
       </c>
-      <c r="AA30" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB30" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="AC30" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.45557749685252591</v>
-      </c>
-      <c r="AD30" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>3720</v>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <v>4364</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28">
       <c r="A31" s="21">
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D31" s="22">
         <v>40977</v>
@@ -6437,50 +6136,50 @@
         <v>2.04</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H31" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40999</v>
       </c>
       <c r="I31" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J31" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+        <f>[QTDE]*[PREÇO]</f>
         <v>1020</v>
       </c>
       <c r="K31" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>1020</v>
       </c>
       <c r="L31" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="M31" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N31" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O31" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P31" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q31" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>1003.88</v>
       </c>
       <c r="R31" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>1003.88</v>
       </c>
       <c r="S31" s="23">
@@ -6488,208 +6187,191 @@
         <v>2.0077600000000002</v>
       </c>
       <c r="T31" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J31*SETUP!$H$3,0),2)</f>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J31*SETUP!$H$3,     0),2)</f>
         <v>0.05</v>
       </c>
       <c r="U31" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>2.1522599999999996</v>
       </c>
-      <c r="W31" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
+      <c r="W31" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>2.0077600000000002</v>
       </c>
       <c r="X31" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-72.249999999999702</v>
       </c>
       <c r="Y31" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>1262.6899999999991</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-1056.6299999999999</v>
       </c>
       <c r="Z31" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-1056.6299999999999</v>
       </c>
-      <c r="AA31" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB31" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="AC31" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.45557749685252591</v>
-      </c>
-      <c r="AD31" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>3720</v>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <v>4364</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28">
       <c r="A32" s="21">
         <v>31</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D32" s="22">
-        <v>40978</v>
+        <v>40981</v>
       </c>
       <c r="E32" s="21">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F32" s="23">
-        <v>6.3</v>
+        <v>6.37</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H32" s="21">
         <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
         <v>40999</v>
       </c>
       <c r="I32" s="21">
-        <f>SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC['[C/V']]="C"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0))</f>
-        <v>0</v>
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>1</v>
       </c>
       <c r="J32" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
-        <v>630</v>
+        <f>[QTDE]*[PREÇO]</f>
+        <v>1274</v>
       </c>
       <c r="K32" s="23">
-        <f>SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="V"),NC[VALOR])-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[C/V']]="C"),NC[VALOR])</f>
-        <v>630</v>
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <v>1274</v>
       </c>
       <c r="L32" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
-        <v>0.17</v>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <v>0.35</v>
       </c>
       <c r="M32" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
-        <v>0.04</v>
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <v>0.08</v>
       </c>
       <c r="N32" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O32" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P32" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q32" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
-        <v>614.0200000000001</v>
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <v>1257.8000000000002</v>
       </c>
       <c r="R32" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
-        <v>614.0200000000001</v>
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>1257.8000000000002</v>
       </c>
       <c r="S32" s="23">
         <f>ABS(R32)/E32</f>
-        <v>6.140200000000001</v>
+        <v>6.2890000000000006</v>
       </c>
       <c r="T32" s="23">
-        <f>TRUNC(IF(NC['[C/V']]="V",J32*SETUP!$H$3,0),2)</f>
-        <v>0.03</v>
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J32*SETUP!$H$3,     0),2)</f>
+        <v>0.06</v>
       </c>
       <c r="U32" s="21">
-        <f>IF(NC['[D/N']]="D",0,SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]))</f>
-        <v>-100</v>
-      </c>
-      <c r="V32" s="25">
-        <f>IF(NC[SALDO]&lt;0,0,IF(NC['[D/N']]="D",0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="C"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="25">
-        <f>IF(SUMPRODUCT(N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),NC[SALDO])&lt;0,ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))/SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[C/V']]="V"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),IF(NC['[C/V']]="V",NC[MEDIO],0))</f>
-        <v>6.140200000000001</v>
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>-200</v>
+      </c>
+      <c r="V32" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <v>6.2890000000000006</v>
       </c>
       <c r="X32" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC['[C/V']]="C",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC['[C/V']]="V"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y32" s="23">
-        <f>ABS(SUMPRODUCT(N(NC[D BASE]&lt;=NC[[#This Row],[D BASE]]),NC[LÍQUIDO]))</f>
-        <v>1262.6899999999991</v>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-1056.6299999999999</v>
       </c>
       <c r="Z32" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>-1056.6299999999999</v>
       </c>
-      <c r="AA32" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AB32" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="AC32" s="26">
-        <f>NC[LUCRO MÊS]/(NC[CARTEIRA]-NC[LUCRO MÊS])</f>
-        <v>-0.45557749685252591</v>
-      </c>
-      <c r="AD32" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC['[C/V']]="V"),NC[VALOR])</f>
-        <v>3720</v>
+        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <v>4364</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
+    <row r="33" spans="1:28">
+      <c r="A33" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
       <c r="Q33" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
+        <v>52</v>
+      </c>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
       <c r="T33" s="23">
-        <f>SUBTOTAL(109,NC[IRRF])</f>
-        <v>0.7400000000000001</v>
+        <f>SUBTOTAL(109,[IRRF])</f>
+        <v>0.77</v>
       </c>
       <c r="U33" s="23"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
       <c r="X33" s="23">
-        <f>SUBTOTAL(109,NC[LUCRO OP])</f>
+        <f>SUBTOTAL(109,[LUCRO OP])</f>
         <v>-1578.42</v>
       </c>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AC33" s="28">
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25">
         <f>NC[[#Totals],[LUCRO OP]]/NC[[#Totals],[LÍQUIDO]]</f>
         <v>-0.23329495386334445</v>
       </c>
-      <c r="AD33" s="29">
+      <c r="AB33" s="30">
         <f>IF(NC[[#Totals],[LUCRO OP]]&lt;0,ABS(NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]])),-NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]]))</f>
         <v>0.30428253347084733</v>
       </c>
@@ -6710,14 +6392,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" style="1" customWidth="1"/>
@@ -6730,51 +6412,51 @@
     <col min="9" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31" t="s">
+      <c r="H1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="I1" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="30" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>56</v>
-      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>7.0000000000000007E-5</v>
       </c>
@@ -6799,7 +6481,7 @@
       <c r="H3" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="26">
         <v>6765.77</v>
       </c>
     </row>
@@ -6824,12 +6506,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/stocks/nc_xpi.xlsx
+++ b/stocks/nc_xpi.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="211" activeTab="1"/>
@@ -12,9 +12,9 @@
     <sheet name="SETUP" sheetId="2" r:id="rId3"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -34,7 +34,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>CC=COMPRADO/COMPRA
 CV=COMPRADO/VENDA
@@ -244,16 +244,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
-    <numFmt numFmtId="167" formatCode="0.0000%"/>
-    <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -300,7 +300,7 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -410,15 +410,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1"/>
@@ -430,30 +430,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -477,7 +477,26 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -496,7 +515,26 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -515,7 +553,26 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -534,7 +591,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -552,8 +609,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -571,7 +628,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -589,7 +647,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -607,8 +666,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -626,8 +684,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -645,7 +703,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -663,7 +721,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -681,448 +740,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1141,7 +760,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1159,8 +778,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1178,8 +797,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1197,8 +816,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1216,8 +834,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1235,8 +853,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1254,8 +871,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1273,8 +890,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1292,8 +909,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1311,8 +928,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1330,8 +946,248 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1350,7 +1206,25 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1369,7 +1243,25 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1388,7 +1280,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1406,8 +1298,44 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1426,7 +1354,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1444,8 +1372,44 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1464,7 +1428,25 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1483,7 +1465,25 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1502,7 +1502,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1534,7 +1534,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1552,7 +1552,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2211,7 +2211,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:B16" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -2306,76 +2306,76 @@
     <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="19" name="ID" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="27"/>
-    <tableColumn id="2" name="ATIVO" dataDxfId="54" totalsRowDxfId="26"/>
-    <tableColumn id="3" name="OPER/TIPO" dataDxfId="53" totalsRowDxfId="25"/>
-    <tableColumn id="4" name="DATA" dataDxfId="52" totalsRowDxfId="24"/>
-    <tableColumn id="5" name="QTDE" dataDxfId="51" totalsRowDxfId="23"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="50" totalsRowDxfId="22"/>
-    <tableColumn id="7" name="[D/N]" dataDxfId="49" totalsRowDxfId="21"/>
-    <tableColumn id="31" name="D BASE" dataDxfId="48" totalsRowDxfId="20">
+    <tableColumn id="19" name="ID" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="2" name="ATIVO" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="3" name="OPER/TIPO" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="4" name="DATA" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="5" name="QTDE" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="6" name="PREÇO" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="7" name="[D/N]" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="31" name="D BASE" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>EOMONTH(NC[[#This Row],[DATA]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="PAR" dataDxfId="47" totalsRowDxfId="19">
-      <calculatedColumnFormula>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</calculatedColumnFormula>
+    <tableColumn id="21" name="PAR" dataDxfId="39" totalsRowDxfId="38">
+      <calculatedColumnFormula>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR" dataDxfId="46" totalsRowDxfId="18">
-      <calculatedColumnFormula>[QTDE]*[PREÇO]</calculatedColumnFormula>
+    <tableColumn id="8" name="VALOR" dataDxfId="37" totalsRowDxfId="36">
+      <calculatedColumnFormula>NC[QTDE]*NC[PREÇO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="VL LIQUID" dataDxfId="30" totalsRowDxfId="17">
-      <calculatedColumnFormula>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</calculatedColumnFormula>
+    <tableColumn id="9" name="VL LIQUID" dataDxfId="35" totalsRowDxfId="34">
+      <calculatedColumnFormula>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TX LIQUID" dataDxfId="45" totalsRowDxfId="16">
-      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</calculatedColumnFormula>
+    <tableColumn id="10" name="TX LIQUID" dataDxfId="33" totalsRowDxfId="32">
+      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL" dataDxfId="44" totalsRowDxfId="15">
-      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</calculatedColumnFormula>
+    <tableColumn id="11" name="EMOL" dataDxfId="31" totalsRowDxfId="30">
+      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORR. BASE" dataDxfId="43" totalsRowDxfId="14">
-      <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
+    <tableColumn id="12" name="CORR. BASE" dataDxfId="29" totalsRowDxfId="28">
+      <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="42" totalsRowDxfId="13">
-      <calculatedColumnFormula>TRUNC([CORR. BASE]*SETUP!$F$3,2)</calculatedColumnFormula>
+    <tableColumn id="13" name="ISS" dataDxfId="27" totalsRowDxfId="26">
+      <calculatedColumnFormula>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="OUTRAS" dataDxfId="41" totalsRowDxfId="12">
-      <calculatedColumnFormula>TRUNC([CORR. BASE]*SETUP!$G$3,2)</calculatedColumnFormula>
+    <tableColumn id="15" name="OUTRAS" dataDxfId="25" totalsRowDxfId="24">
+      <calculatedColumnFormula>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="LÍQUIDO" totalsRowLabel=" R$ 6.765,77 " dataDxfId="40" totalsRowDxfId="11">
-      <calculatedColumnFormula>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</calculatedColumnFormula>
+    <tableColumn id="16" name="LÍQUIDO" totalsRowLabel=" R$ 6.765,77 " dataDxfId="23" totalsRowDxfId="22">
+      <calculatedColumnFormula>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="39" totalsRowDxfId="10">
-      <calculatedColumnFormula>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</calculatedColumnFormula>
+    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="21" totalsRowDxfId="20">
+      <calculatedColumnFormula>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO" dataDxfId="38" totalsRowDxfId="9">
+    <tableColumn id="18" name="MEDIO" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>ABS(R2)/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="8">
-      <calculatedColumnFormula>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
+      <calculatedColumnFormula>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="36" totalsRowDxfId="7">
-      <calculatedColumnFormula>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</calculatedColumnFormula>
+    <tableColumn id="24" name="SALDO" dataDxfId="15" totalsRowDxfId="14">
+      <calculatedColumnFormula>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="35" totalsRowDxfId="6">
-      <calculatedColumnFormula>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</calculatedColumnFormula>
+    <tableColumn id="22" name="MED CP" dataDxfId="13" totalsRowDxfId="12">
+      <calculatedColumnFormula>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="34" totalsRowDxfId="5">
-      <calculatedColumnFormula>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</calculatedColumnFormula>
+    <tableColumn id="23" name="MED VD" dataDxfId="11" totalsRowDxfId="10">
+      <calculatedColumnFormula>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO OP" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="4">
-      <calculatedColumnFormula>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</calculatedColumnFormula>
+    <tableColumn id="25" name="LUCRO OP" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+      <calculatedColumnFormula>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="LUCRO N" dataDxfId="32" totalsRowDxfId="3">
-      <calculatedColumnFormula>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</calculatedColumnFormula>
+    <tableColumn id="26" name="LUCRO N" dataDxfId="7" totalsRowDxfId="6">
+      <calculatedColumnFormula>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="LUCRO D" dataDxfId="31" totalsRowDxfId="2">
-      <calculatedColumnFormula>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</calculatedColumnFormula>
+    <tableColumn id="14" name="LUCRO D" dataDxfId="5" totalsRowDxfId="4">
+      <calculatedColumnFormula>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="LUCRO MÊS" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="1">
-      <calculatedColumnFormula>[LUCRO N]+[LUCRO D]</calculatedColumnFormula>
+    <tableColumn id="29" name="LUCRO MÊS" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+      <calculatedColumnFormula>NC[LUCRO N]+NC[LUCRO D]</calculatedColumnFormula>
       <totalsRowFormula>NC[[#Totals],[LUCRO OP]]/NC[[#Totals],[LÍQUIDO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="1" name="VOLUME" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="0">
-      <calculatedColumnFormula>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</calculatedColumnFormula>
+    <tableColumn id="1" name="VOLUME" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</calculatedColumnFormula>
       <totalsRowFormula>IF(NC[[#Totals],[LUCRO OP]]&lt;0,ABS(NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]])),-NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]]))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2693,7 +2693,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2735,7 +2735,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2754,14 +2754,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -2771,13 +2771,13 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>-862.45000000000027</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>-130.13999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>205.45000000000027</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>-1201.19</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>-121.93</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>-21.560000000000855</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>-81.129999999999654</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>-255.90999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>-88.079999999999814</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
@@ -2865,13 +2865,13 @@
         <v>-150.42000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
@@ -2885,17 +2885,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="15" bestFit="1" customWidth="1"/>
@@ -2927,7 +2927,7 @@
     <col min="29" max="16384" width="11.5703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="18" customFormat="1">
+    <row r="1" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="21" customFormat="1">
+    <row r="2" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -3040,43 +3040,43 @@
         <v>40908</v>
       </c>
       <c r="I2" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J2" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1362</v>
       </c>
       <c r="K2" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-1362</v>
       </c>
       <c r="L2" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.37</v>
       </c>
       <c r="M2" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.09</v>
       </c>
       <c r="N2" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O2" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P2" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q2" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1378.2299999999998</v>
       </c>
       <c r="R2" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1378.2299999999998</v>
       </c>
       <c r="S2" s="23">
@@ -3084,43 +3084,43 @@
         <v>13.782299999999998</v>
       </c>
       <c r="T2" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J2*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J2*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U2" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>100</v>
       </c>
       <c r="V2" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>13.782299999999998</v>
       </c>
       <c r="W2" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X2" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y2" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="Z2" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AA2" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AB2" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="21" customFormat="1">
+    <row r="3" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -3147,43 +3147,43 @@
         <v>40908</v>
       </c>
       <c r="I3" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J3" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>844.99999999999989</v>
       </c>
       <c r="K3" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-844.99999999999989</v>
       </c>
       <c r="L3" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.23</v>
       </c>
       <c r="M3" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.05</v>
       </c>
       <c r="N3" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O3" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P3" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q3" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-861.04999999999984</v>
       </c>
       <c r="R3" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-861.04999999999984</v>
       </c>
       <c r="S3" s="23">
@@ -3191,43 +3191,43 @@
         <v>8.6104999999999983</v>
       </c>
       <c r="T3" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J3*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J3*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U3" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>100</v>
       </c>
       <c r="V3" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>8.6104999999999983</v>
       </c>
       <c r="W3" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X3" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y3" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="Z3" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AA3" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AB3" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="21" customFormat="1">
+    <row r="4" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -3254,43 +3254,43 @@
         <v>40908</v>
       </c>
       <c r="I4" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J4" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1600</v>
       </c>
       <c r="K4" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>1600</v>
       </c>
       <c r="L4" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.44</v>
       </c>
       <c r="M4" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.11</v>
       </c>
       <c r="N4" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O4" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P4" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q4" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>1583.68</v>
       </c>
       <c r="R4" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>1583.68</v>
       </c>
       <c r="S4" s="23">
@@ -3298,43 +3298,43 @@
         <v>15.8368</v>
       </c>
       <c r="T4" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J4*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J4*SETUP!$H$3,     0),2)</f>
         <v>0.08</v>
       </c>
       <c r="U4" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V4" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>13.782299999999998</v>
       </c>
       <c r="W4" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>15.8368</v>
       </c>
       <c r="X4" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>205.45000000000027</v>
       </c>
       <c r="Y4" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="Z4" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AA4" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AB4" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="21" customFormat="1">
+    <row r="5" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -3361,43 +3361,43 @@
         <v>40908</v>
       </c>
       <c r="I5" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J5" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1132</v>
       </c>
       <c r="K5" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-1132</v>
       </c>
       <c r="L5" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.2</v>
       </c>
       <c r="M5" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N5" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O5" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P5" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q5" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1148.04</v>
       </c>
       <c r="R5" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1148.04</v>
       </c>
       <c r="S5" s="23">
@@ -3405,43 +3405,43 @@
         <v>5.7401999999999997</v>
       </c>
       <c r="T5" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J5*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J5*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U5" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V5" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="W5" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X5" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y5" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="Z5" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AA5" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AB5" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="21" customFormat="1">
+    <row r="6" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -3468,43 +3468,43 @@
         <v>40908</v>
       </c>
       <c r="I6" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J6" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1128</v>
       </c>
       <c r="K6" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-4</v>
       </c>
       <c r="L6" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.4</v>
       </c>
       <c r="M6" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.15</v>
       </c>
       <c r="N6" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="O6" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="P6" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q6" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-36.1</v>
       </c>
       <c r="R6" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>1111.94</v>
       </c>
       <c r="S6" s="23">
@@ -3512,43 +3512,43 @@
         <v>5.5597000000000003</v>
       </c>
       <c r="T6" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J6*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J6*SETUP!$H$3,     0),2)</f>
         <v>0.05</v>
       </c>
       <c r="U6" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V6" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="W6" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X6" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-36.1</v>
       </c>
       <c r="Y6" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="Z6" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AA6" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AB6" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="21" customFormat="1">
+    <row r="7" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -3575,43 +3575,43 @@
         <v>40908</v>
       </c>
       <c r="I7" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J7" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1130</v>
       </c>
       <c r="K7" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-1134</v>
       </c>
       <c r="L7" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.71</v>
       </c>
       <c r="M7" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.23</v>
       </c>
       <c r="N7" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>44.7</v>
       </c>
       <c r="O7" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.89</v>
       </c>
       <c r="P7" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.74</v>
       </c>
       <c r="Q7" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1182.2700000000002</v>
       </c>
       <c r="R7" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1146.1700000000003</v>
       </c>
       <c r="S7" s="23">
@@ -3619,43 +3619,43 @@
         <v>5.7308500000000011</v>
       </c>
       <c r="T7" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J7*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J7*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U7" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>200</v>
       </c>
       <c r="V7" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>5.7308500000000011</v>
       </c>
       <c r="W7" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X7" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y7" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="Z7" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AA7" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AB7" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="21" customFormat="1">
+    <row r="8" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -3682,43 +3682,43 @@
         <v>40908</v>
       </c>
       <c r="I8" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J8" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>853.99999999999989</v>
       </c>
       <c r="K8" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>853.99999999999989</v>
       </c>
       <c r="L8" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.23</v>
       </c>
       <c r="M8" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.05</v>
       </c>
       <c r="N8" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O8" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P8" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q8" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>837.94999999999993</v>
       </c>
       <c r="R8" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>837.94999999999993</v>
       </c>
       <c r="S8" s="23">
@@ -3726,43 +3726,43 @@
         <v>4.1897500000000001</v>
       </c>
       <c r="T8" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J8*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J8*SETUP!$H$3,     0),2)</f>
         <v>0.04</v>
       </c>
       <c r="U8" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>-200</v>
       </c>
       <c r="V8" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="W8" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>4.1897500000000001</v>
       </c>
       <c r="X8" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y8" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="Z8" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AA8" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AB8" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="21" customFormat="1">
+    <row r="9" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -3789,43 +3789,43 @@
         <v>40908</v>
       </c>
       <c r="I9" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J9" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>2358</v>
       </c>
       <c r="K9" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-2358</v>
       </c>
       <c r="L9" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.64</v>
       </c>
       <c r="M9" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.16</v>
       </c>
       <c r="N9" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O9" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P9" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q9" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-2374.5699999999997</v>
       </c>
       <c r="R9" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-2374.5699999999997</v>
       </c>
       <c r="S9" s="23">
@@ -3833,43 +3833,43 @@
         <v>7.9152333333333322</v>
       </c>
       <c r="T9" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J9*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J9*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U9" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>300</v>
       </c>
       <c r="V9" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>7.9152333333333322</v>
       </c>
       <c r="W9" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X9" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y9" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="Z9" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AA9" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AB9" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="21" customFormat="1">
+    <row r="10" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -3896,43 +3896,43 @@
         <v>40908</v>
       </c>
       <c r="I10" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J10" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>690</v>
       </c>
       <c r="K10" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>690</v>
       </c>
       <c r="L10" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.18</v>
       </c>
       <c r="M10" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.04</v>
       </c>
       <c r="N10" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O10" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P10" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q10" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>674.0100000000001</v>
       </c>
       <c r="R10" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>674.0100000000001</v>
       </c>
       <c r="S10" s="23">
@@ -3940,43 +3940,43 @@
         <v>6.7401000000000009</v>
       </c>
       <c r="T10" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J10*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J10*SETUP!$H$3,     0),2)</f>
         <v>0.03</v>
       </c>
       <c r="U10" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>100</v>
       </c>
       <c r="V10" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>5.7308500000000011</v>
       </c>
       <c r="W10" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>6.7401000000000009</v>
       </c>
       <c r="X10" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>100.92499999999998</v>
       </c>
       <c r="Y10" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="Z10" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AA10" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AB10" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="21" customFormat="1">
+    <row r="11" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -4003,43 +4003,43 @@
         <v>40939</v>
       </c>
       <c r="I11" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J11" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>583</v>
       </c>
       <c r="K11" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>583</v>
       </c>
       <c r="L11" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.16</v>
       </c>
       <c r="M11" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.04</v>
       </c>
       <c r="N11" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O11" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P11" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q11" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>567.03000000000009</v>
       </c>
       <c r="R11" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>567.03000000000009</v>
       </c>
       <c r="S11" s="23">
@@ -4047,43 +4047,43 @@
         <v>5.670300000000001</v>
       </c>
       <c r="T11" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J11*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J11*SETUP!$H$3,     0),2)</f>
         <v>0.02</v>
       </c>
       <c r="U11" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V11" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>5.7308500000000011</v>
       </c>
       <c r="W11" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>5.670300000000001</v>
       </c>
       <c r="X11" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-6.0550000000000104</v>
       </c>
       <c r="Y11" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-324.88500000000062</v>
       </c>
       <c r="Z11" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA11" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-324.88500000000062</v>
       </c>
       <c r="AB11" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="21" customFormat="1">
+    <row r="12" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -4110,43 +4110,43 @@
         <v>40939</v>
       </c>
       <c r="I12" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>3</v>
       </c>
       <c r="J12" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1160</v>
       </c>
       <c r="K12" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-1160</v>
       </c>
       <c r="L12" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.31</v>
       </c>
       <c r="M12" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.08</v>
       </c>
       <c r="N12" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O12" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P12" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q12" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1176.1599999999999</v>
       </c>
       <c r="R12" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1176.1599999999999</v>
       </c>
       <c r="S12" s="23">
@@ -4154,43 +4154,43 @@
         <v>5.8807999999999989</v>
       </c>
       <c r="T12" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J12*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J12*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U12" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>200</v>
       </c>
       <c r="V12" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>5.8807999999999989</v>
       </c>
       <c r="W12" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X12" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y12" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-324.88500000000062</v>
       </c>
       <c r="Z12" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA12" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-324.88500000000062</v>
       </c>
       <c r="AB12" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="21" customFormat="1">
+    <row r="13" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -4217,43 +4217,43 @@
         <v>40939</v>
       </c>
       <c r="I13" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J13" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>2711.9999999999995</v>
       </c>
       <c r="K13" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>2711.9999999999995</v>
       </c>
       <c r="L13" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.74</v>
       </c>
       <c r="M13" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.18</v>
       </c>
       <c r="N13" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O13" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P13" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q13" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>2695.31</v>
       </c>
       <c r="R13" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>2695.31</v>
       </c>
       <c r="S13" s="23">
@@ -4261,43 +4261,43 @@
         <v>8.9843666666666664</v>
       </c>
       <c r="T13" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J13*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J13*SETUP!$H$3,     0),2)</f>
         <v>0.13</v>
       </c>
       <c r="U13" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>-300</v>
       </c>
       <c r="V13" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="W13" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>8.9843666666666664</v>
       </c>
       <c r="X13" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y13" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-324.88500000000062</v>
       </c>
       <c r="Z13" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA13" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-324.88500000000062</v>
       </c>
       <c r="AB13" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="21" customFormat="1">
+    <row r="14" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -4324,43 +4324,43 @@
         <v>40939</v>
       </c>
       <c r="I14" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>3</v>
       </c>
       <c r="J14" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1112</v>
       </c>
       <c r="K14" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>3823.9999999999995</v>
       </c>
       <c r="L14" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>1.05</v>
       </c>
       <c r="M14" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.26</v>
       </c>
       <c r="N14" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="O14" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="P14" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q14" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>3791.139999999999</v>
       </c>
       <c r="R14" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>1095.829999999999</v>
       </c>
       <c r="S14" s="23">
@@ -4368,43 +4368,43 @@
         <v>5.4791499999999953</v>
       </c>
       <c r="T14" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J14*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J14*SETUP!$H$3,     0),2)</f>
         <v>0.05</v>
       </c>
       <c r="U14" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V14" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>5.8807999999999989</v>
       </c>
       <c r="W14" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>5.4791499999999953</v>
       </c>
       <c r="X14" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-80.330000000000723</v>
       </c>
       <c r="Y14" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-324.88500000000062</v>
       </c>
       <c r="Z14" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA14" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-324.88500000000062</v>
       </c>
       <c r="AB14" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="21" customFormat="1">
+    <row r="15" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -4431,43 +4431,43 @@
         <v>40939</v>
       </c>
       <c r="I15" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J15" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1000</v>
       </c>
       <c r="K15" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-1000</v>
       </c>
       <c r="L15" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.27</v>
       </c>
       <c r="M15" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N15" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O15" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P15" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q15" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1016.11</v>
       </c>
       <c r="R15" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1016.11</v>
       </c>
       <c r="S15" s="23">
@@ -4475,43 +4475,43 @@
         <v>0.50805500000000003</v>
       </c>
       <c r="T15" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J15*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J15*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U15" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>2000</v>
       </c>
       <c r="V15" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0.50805500000000003</v>
       </c>
       <c r="W15" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X15" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y15" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-324.88500000000062</v>
       </c>
       <c r="Z15" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA15" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-324.88500000000062</v>
       </c>
       <c r="AB15" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="21" customFormat="1">
+    <row r="16" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -4538,43 +4538,43 @@
         <v>40939</v>
       </c>
       <c r="I16" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J16" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>789</v>
       </c>
       <c r="K16" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>789</v>
       </c>
       <c r="L16" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.21</v>
       </c>
       <c r="M16" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.05</v>
       </c>
       <c r="N16" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O16" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P16" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q16" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>772.97</v>
       </c>
       <c r="R16" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>772.97</v>
       </c>
       <c r="S16" s="23">
@@ -4582,43 +4582,43 @@
         <v>7.7297000000000002</v>
       </c>
       <c r="T16" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J16*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J16*SETUP!$H$3,     0),2)</f>
         <v>0.03</v>
       </c>
       <c r="U16" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V16" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>8.6104999999999983</v>
       </c>
       <c r="W16" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>7.7297000000000002</v>
       </c>
       <c r="X16" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-88.079999999999799</v>
       </c>
       <c r="Y16" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-324.88500000000062</v>
       </c>
       <c r="Z16" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA16" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-324.88500000000062</v>
       </c>
       <c r="AB16" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="21" customFormat="1">
+    <row r="17" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -4645,43 +4645,43 @@
         <v>40939</v>
       </c>
       <c r="I17" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J17" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>2829</v>
       </c>
       <c r="K17" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-2829</v>
       </c>
       <c r="L17" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.77</v>
       </c>
       <c r="M17" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.19</v>
       </c>
       <c r="N17" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O17" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P17" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q17" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-2845.73</v>
       </c>
       <c r="R17" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-2845.73</v>
       </c>
       <c r="S17" s="23">
@@ -4689,43 +4689,43 @@
         <v>9.4857666666666667</v>
       </c>
       <c r="T17" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J17*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J17*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U17" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V17" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>9.4857666666666667</v>
       </c>
       <c r="W17" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>8.9843666666666664</v>
       </c>
       <c r="X17" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-150.42000000000007</v>
       </c>
       <c r="Y17" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-324.88500000000062</v>
       </c>
       <c r="Z17" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA17" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-324.88500000000062</v>
       </c>
       <c r="AB17" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="21" customFormat="1">
+    <row r="18" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -4752,43 +4752,43 @@
         <v>40939</v>
       </c>
       <c r="I18" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J18" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>989</v>
       </c>
       <c r="K18" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-3818</v>
       </c>
       <c r="L18" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>1.04</v>
       </c>
       <c r="M18" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.26</v>
       </c>
       <c r="N18" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="O18" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="P18" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q18" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-3850.8500000000004</v>
       </c>
       <c r="R18" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1005.1200000000003</v>
       </c>
       <c r="S18" s="23">
@@ -4796,43 +4796,43 @@
         <v>0.43700869565217404</v>
       </c>
       <c r="T18" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J18*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J18*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U18" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>2300</v>
       </c>
       <c r="V18" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0.43700869565217404</v>
       </c>
       <c r="W18" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X18" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y18" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-324.88500000000062</v>
       </c>
       <c r="Z18" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA18" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-324.88500000000062</v>
       </c>
       <c r="AB18" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="21" customFormat="1">
+    <row r="19" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -4859,43 +4859,43 @@
         <v>40968</v>
       </c>
       <c r="I19" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J19" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>952</v>
       </c>
       <c r="K19" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-952</v>
       </c>
       <c r="L19" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.26</v>
       </c>
       <c r="M19" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.06</v>
       </c>
       <c r="N19" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O19" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P19" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q19" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-968.08999999999992</v>
       </c>
       <c r="R19" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-968.08999999999992</v>
       </c>
       <c r="S19" s="23">
@@ -4903,43 +4903,43 @@
         <v>4.8404499999999997</v>
       </c>
       <c r="T19" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J19*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J19*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U19" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V19" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>4.8404499999999997</v>
       </c>
       <c r="W19" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>4.1897500000000001</v>
       </c>
       <c r="X19" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-130.13999999999993</v>
       </c>
       <c r="Y19" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-467.17999999999961</v>
       </c>
       <c r="Z19" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA19" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-467.17999999999961</v>
       </c>
       <c r="AB19" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="21" customFormat="1">
+    <row r="20" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -4966,43 +4966,43 @@
         <v>40968</v>
       </c>
       <c r="I20" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J20" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>2310</v>
       </c>
       <c r="K20" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>2310</v>
       </c>
       <c r="L20" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.63</v>
       </c>
       <c r="M20" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.16</v>
       </c>
       <c r="N20" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O20" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P20" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q20" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>2293.44</v>
       </c>
       <c r="R20" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>2293.44</v>
       </c>
       <c r="S20" s="23">
@@ -5010,43 +5010,43 @@
         <v>7.6448</v>
       </c>
       <c r="T20" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J20*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J20*SETUP!$H$3,     0),2)</f>
         <v>0.11</v>
       </c>
       <c r="U20" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V20" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>7.9152333333333322</v>
       </c>
       <c r="W20" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>7.6448</v>
       </c>
       <c r="X20" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-81.129999999999654</v>
       </c>
       <c r="Y20" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-467.17999999999961</v>
       </c>
       <c r="Z20" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA20" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-467.17999999999961</v>
       </c>
       <c r="AB20" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="21" customFormat="1">
+    <row r="21" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -5073,43 +5073,43 @@
         <v>40968</v>
       </c>
       <c r="I21" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J21" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1369</v>
       </c>
       <c r="K21" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>941</v>
       </c>
       <c r="L21" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>1.01</v>
       </c>
       <c r="M21" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.25</v>
       </c>
       <c r="N21" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="O21" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="P21" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q21" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>908.19</v>
       </c>
       <c r="R21" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1385.25</v>
       </c>
       <c r="S21" s="23">
@@ -5117,43 +5117,43 @@
         <v>0.37439189189189187</v>
       </c>
       <c r="T21" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J21*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J21*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U21" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>6000</v>
       </c>
       <c r="V21" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0.39839500000000005</v>
       </c>
       <c r="W21" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X21" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y21" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-467.17999999999961</v>
       </c>
       <c r="Z21" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA21" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-467.17999999999961</v>
       </c>
       <c r="AB21" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="21" customFormat="1">
+    <row r="22" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -5180,43 +5180,43 @@
         <v>40968</v>
       </c>
       <c r="I22" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J22" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1185</v>
       </c>
       <c r="K22" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-244</v>
       </c>
       <c r="L22" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>1.33</v>
       </c>
       <c r="M22" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.34</v>
       </c>
       <c r="N22" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>44.7</v>
       </c>
       <c r="O22" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.89</v>
       </c>
       <c r="P22" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.74</v>
       </c>
       <c r="Q22" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-293</v>
       </c>
       <c r="R22" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1201.19</v>
       </c>
       <c r="S22" s="23">
@@ -5224,43 +5224,43 @@
         <v>2.40238</v>
       </c>
       <c r="T22" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J22*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J22*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U22" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>500</v>
       </c>
       <c r="V22" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>2.40238</v>
       </c>
       <c r="W22" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X22" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y22" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-467.17999999999961</v>
       </c>
       <c r="Z22" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA22" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-467.17999999999961</v>
       </c>
       <c r="AB22" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="21" customFormat="1">
+    <row r="23" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>22</v>
       </c>
@@ -5287,43 +5287,43 @@
         <v>40968</v>
       </c>
       <c r="I23" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J23" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>640</v>
       </c>
       <c r="K23" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>640</v>
       </c>
       <c r="L23" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.17</v>
       </c>
       <c r="M23" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.04</v>
       </c>
       <c r="N23" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O23" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P23" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q23" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>624.0200000000001</v>
       </c>
       <c r="R23" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>624.0200000000001</v>
       </c>
       <c r="S23" s="23">
@@ -5331,43 +5331,43 @@
         <v>0.39001250000000004</v>
       </c>
       <c r="T23" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J23*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J23*SETUP!$H$3,     0),2)</f>
         <v>0.03</v>
       </c>
       <c r="U23" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>400</v>
       </c>
       <c r="V23" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0.50805500000000003</v>
       </c>
       <c r="W23" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0.39001250000000004</v>
       </c>
       <c r="X23" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-188.86799999999999</v>
       </c>
       <c r="Y23" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-467.17999999999961</v>
       </c>
       <c r="Z23" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA23" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-467.17999999999961</v>
       </c>
       <c r="AB23" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="21" customFormat="1">
+    <row r="24" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -5394,43 +5394,43 @@
         <v>40968</v>
       </c>
       <c r="I24" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J24" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>600</v>
       </c>
       <c r="K24" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>40</v>
       </c>
       <c r="L24" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.34</v>
       </c>
       <c r="M24" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.08</v>
       </c>
       <c r="N24" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="O24" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="P24" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q24" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>8.0299999999999976</v>
       </c>
       <c r="R24" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-615.99000000000012</v>
       </c>
       <c r="S24" s="23">
@@ -5438,43 +5438,43 @@
         <v>0.20533000000000004</v>
       </c>
       <c r="T24" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J24*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J24*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U24" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>3000</v>
       </c>
       <c r="V24" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0.20533000000000004</v>
       </c>
       <c r="W24" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X24" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y24" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-467.17999999999961</v>
       </c>
       <c r="Z24" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA24" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-467.17999999999961</v>
       </c>
       <c r="AB24" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="21" customFormat="1">
+    <row r="25" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -5501,43 +5501,43 @@
         <v>40968</v>
       </c>
       <c r="I25" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J25" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>152</v>
       </c>
       <c r="K25" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>152</v>
       </c>
       <c r="L25" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.04</v>
       </c>
       <c r="M25" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.01</v>
       </c>
       <c r="N25" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O25" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P25" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q25" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>136.18</v>
       </c>
       <c r="R25" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>136.18</v>
       </c>
       <c r="S25" s="23">
@@ -5545,43 +5545,43 @@
         <v>0.34045000000000003</v>
       </c>
       <c r="T25" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J25*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J25*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U25" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V25" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0.50805500000000003</v>
       </c>
       <c r="W25" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0.34045000000000003</v>
       </c>
       <c r="X25" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-67.042000000000002</v>
       </c>
       <c r="Y25" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-467.17999999999961</v>
       </c>
       <c r="Z25" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA25" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-467.17999999999961</v>
       </c>
       <c r="AB25" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="21" customFormat="1">
+    <row r="26" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -5608,43 +5608,43 @@
         <v>40999</v>
       </c>
       <c r="I26" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J26" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>510.00000000000006</v>
       </c>
       <c r="K26" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>510.00000000000006</v>
       </c>
       <c r="L26" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="M26" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.03</v>
       </c>
       <c r="N26" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O26" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P26" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q26" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>494.06000000000012</v>
       </c>
       <c r="R26" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>494.06000000000012</v>
       </c>
       <c r="S26" s="23">
@@ -5652,43 +5652,43 @@
         <v>0.1646866666666667</v>
       </c>
       <c r="T26" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J26*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J26*SETUP!$H$3,     0),2)</f>
         <v>0.02</v>
       </c>
       <c r="U26" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V26" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0.20533000000000004</v>
       </c>
       <c r="W26" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0.1646866666666667</v>
       </c>
       <c r="X26" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-121.93</v>
       </c>
       <c r="Y26" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-1056.6299999999999</v>
       </c>
       <c r="Z26" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA26" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-1056.6299999999999</v>
       </c>
       <c r="AB26" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4364</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="21" customFormat="1">
+    <row r="27" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -5715,43 +5715,43 @@
         <v>40999</v>
       </c>
       <c r="I27" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J27" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>810</v>
       </c>
       <c r="K27" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>1320</v>
       </c>
       <c r="L27" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.36</v>
       </c>
       <c r="M27" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.09</v>
       </c>
       <c r="N27" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="O27" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="P27" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q27" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>1288.0000000000002</v>
       </c>
       <c r="R27" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>793.94</v>
       </c>
       <c r="S27" s="23">
@@ -5759,43 +5759,43 @@
         <v>0.2646466666666667</v>
       </c>
       <c r="T27" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J27*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J27*SETUP!$H$3,     0),2)</f>
         <v>0.04</v>
       </c>
       <c r="U27" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>3000</v>
       </c>
       <c r="V27" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0.39839500000000005</v>
       </c>
       <c r="W27" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0.2646466666666667</v>
       </c>
       <c r="X27" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-401.24500000000006</v>
       </c>
       <c r="Y27" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-1056.6299999999999</v>
       </c>
       <c r="Z27" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA27" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-1056.6299999999999</v>
       </c>
       <c r="AB27" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4364</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -5822,43 +5822,43 @@
         <v>40999</v>
       </c>
       <c r="I28" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J28" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>750</v>
       </c>
       <c r="K28" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>750</v>
       </c>
       <c r="L28" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.2</v>
       </c>
       <c r="M28" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.05</v>
       </c>
       <c r="N28" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O28" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P28" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q28" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>733.98</v>
       </c>
       <c r="R28" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>733.98</v>
       </c>
       <c r="S28" s="23">
@@ -5866,43 +5866,43 @@
         <v>0.24466000000000002</v>
       </c>
       <c r="T28" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J28*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J28*SETUP!$H$3,     0),2)</f>
         <v>0.03</v>
       </c>
       <c r="U28" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V28" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0.39839500000000005</v>
       </c>
       <c r="W28" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0.24466000000000002</v>
       </c>
       <c r="X28" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-461.2050000000001</v>
       </c>
       <c r="Y28" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-1056.6299999999999</v>
       </c>
       <c r="Z28" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA28" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-1056.6299999999999</v>
       </c>
       <c r="AB28" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4364</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -5929,43 +5929,43 @@
         <v>40999</v>
       </c>
       <c r="I29" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J29" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1060</v>
       </c>
       <c r="K29" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-1060</v>
       </c>
       <c r="L29" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="M29" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N29" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O29" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P29" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q29" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1076.1299999999999</v>
       </c>
       <c r="R29" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1076.1299999999999</v>
       </c>
       <c r="S29" s="23">
@@ -5973,43 +5973,43 @@
         <v>2.1522599999999996</v>
       </c>
       <c r="T29" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J29*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J29*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U29" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>500</v>
       </c>
       <c r="V29" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>2.1522599999999996</v>
       </c>
       <c r="W29" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X29" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y29" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-1056.6299999999999</v>
       </c>
       <c r="Z29" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA29" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-1056.6299999999999</v>
       </c>
       <c r="AB29" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4364</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -6036,43 +6036,43 @@
         <v>40999</v>
       </c>
       <c r="I30" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="J30" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>990</v>
       </c>
       <c r="K30" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-2050</v>
       </c>
       <c r="L30" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="M30" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="N30" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="O30" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="P30" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q30" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-2082.25</v>
       </c>
       <c r="R30" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1006.1200000000001</v>
       </c>
       <c r="S30" s="23">
@@ -6080,43 +6080,43 @@
         <v>5.0306000000000006</v>
       </c>
       <c r="T30" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J30*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J30*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="U30" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>200</v>
       </c>
       <c r="V30" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>5.0306000000000006</v>
       </c>
       <c r="W30" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="X30" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y30" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-1056.6299999999999</v>
       </c>
       <c r="Z30" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA30" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-1056.6299999999999</v>
       </c>
       <c r="AB30" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4364</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>30</v>
       </c>
@@ -6143,43 +6143,43 @@
         <v>40999</v>
       </c>
       <c r="I31" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J31" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1020</v>
       </c>
       <c r="K31" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>1020</v>
       </c>
       <c r="L31" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="M31" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N31" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O31" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P31" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q31" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>1003.88</v>
       </c>
       <c r="R31" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>1003.88</v>
       </c>
       <c r="S31" s="23">
@@ -6187,43 +6187,43 @@
         <v>2.0077600000000002</v>
       </c>
       <c r="T31" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J31*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J31*SETUP!$H$3,     0),2)</f>
         <v>0.05</v>
       </c>
       <c r="U31" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="V31" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>2.1522599999999996</v>
       </c>
       <c r="W31" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>2.0077600000000002</v>
       </c>
       <c r="X31" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-72.249999999999702</v>
       </c>
       <c r="Y31" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-1056.6299999999999</v>
       </c>
       <c r="Z31" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA31" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-1056.6299999999999</v>
       </c>
       <c r="AB31" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4364</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <v>31</v>
       </c>
@@ -6250,43 +6250,43 @@
         <v>40999</v>
       </c>
       <c r="I32" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="J32" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1274</v>
       </c>
       <c r="K32" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>1274</v>
       </c>
       <c r="L32" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)+SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
         <v>0.35</v>
       </c>
       <c r="M32" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),[VALOR]*SETUP!$A$3),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
         <v>0.08</v>
       </c>
       <c r="N32" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="O32" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="P32" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="Q32" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>1257.8000000000002</v>
       </c>
       <c r="R32" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>1257.8000000000002</v>
       </c>
       <c r="S32" s="23">
@@ -6294,75 +6294,75 @@
         <v>6.2890000000000006</v>
       </c>
       <c r="T32" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     J32*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J32*SETUP!$H$3,     0),2)</f>
         <v>0.06</v>
       </c>
       <c r="U32" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>-200</v>
       </c>
       <c r="V32" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="W32" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>6.2890000000000006</v>
       </c>
       <c r="X32" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>0</v>
       </c>
       <c r="Y32" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-1056.6299999999999</v>
       </c>
       <c r="Z32" s="23">
-        <f>SUMPRODUCT(N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AA32" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-1056.6299999999999</v>
       </c>
       <c r="AB32" s="23">
-        <f>SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR([DATA])=YEAR(NC[[#This Row],[DATA]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4364</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="29" t="s">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
       <c r="Q33" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
       <c r="T33" s="23">
-        <f>SUBTOTAL(109,[IRRF])</f>
+        <f>SUBTOTAL(109,NC[IRRF])</f>
         <v>0.77</v>
       </c>
       <c r="U33" s="23"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
       <c r="X33" s="23">
-        <f>SUBTOTAL(109,[LUCRO OP])</f>
+        <f>SUBTOTAL(109,NC[LUCRO OP])</f>
         <v>-1578.42</v>
       </c>
       <c r="Y33" s="25"/>
@@ -6371,7 +6371,7 @@
         <f>NC[[#Totals],[LUCRO OP]]/NC[[#Totals],[LÍQUIDO]]</f>
         <v>-0.23329495386334445</v>
       </c>
-      <c r="AB33" s="30">
+      <c r="AB33" s="28">
         <f>IF(NC[[#Totals],[LUCRO OP]]&lt;0,ABS(NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]])),-NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]]))</f>
         <v>0.30428253347084733</v>
       </c>
@@ -6392,14 +6392,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" style="1" customWidth="1"/>
@@ -6412,32 +6412,32 @@
     <col min="9" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -6450,13 +6450,13 @@
       <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>7.0000000000000007E-5</v>
       </c>
@@ -6506,12 +6506,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/stocks/nc_xpi.xlsx
+++ b/stocks/nc_xpi.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="211" activeTab="1"/>
@@ -12,7 +12,7 @@
     <sheet name="SETUP" sheetId="2" r:id="rId3"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -43,7 +43,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q33" authorId="1">
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A=AÇÃO
+O=OPÇÃO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T35" authorId="1">
       <text>
         <r>
           <rPr>
@@ -62,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="69">
   <si>
     <t>ATIVO</t>
   </si>
@@ -240,20 +255,50 @@
   <si>
     <t>VC</t>
   </si>
+  <si>
+    <t>OPÇÕES</t>
+  </si>
+  <si>
+    <t>REGISTRO</t>
+  </si>
+  <si>
+    <t>[A/O]</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>PETRC24</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>VALEC40</t>
+  </si>
+  <si>
+    <t>% LUCRO</t>
+  </si>
+  <si>
+    <t>IRRF OPÇÃO</t>
+  </si>
+  <si>
+    <t>D LIQUID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
-    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -408,17 +453,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1"/>
@@ -430,22 +476,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -454,12 +500,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="69">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -477,26 +550,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -515,26 +569,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -553,26 +588,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -591,7 +607,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -609,8 +625,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -628,8 +644,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -647,8 +663,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -666,7 +682,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -684,8 +700,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -703,7 +718,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -721,8 +737,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -740,8 +756,424 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -760,7 +1192,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -778,8 +1210,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -797,8 +1229,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -816,7 +1248,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -834,8 +1267,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -853,7 +1286,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -871,8 +1305,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -890,8 +1324,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -909,8 +1343,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -928,7 +1362,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -946,8 +1381,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -965,7 +1400,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -983,211 +1419,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="169" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1206,7 +1439,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1224,7 +1457,141 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1243,25 +1610,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1280,7 +1629,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1298,44 +1647,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1354,7 +1667,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1372,44 +1685,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1428,25 +1705,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1465,25 +1724,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1502,7 +1743,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1534,7 +1775,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1552,7 +1793,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1567,7 +1808,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40969.946527199078" createdVersion="1" refreshedVersion="4" recordCount="28" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:O65538" sheet="Planilha1"/>
+    <worksheetSource ref="A1:R65540" sheet="Planilha1"/>
   </cacheSource>
   <cacheFields count="18">
     <cacheField name="Nº NOTA" numFmtId="0">
@@ -2300,82 +2541,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AB33" totalsRowCount="1" headerRowDxfId="58" dataDxfId="57" totalsRowDxfId="56">
-  <autoFilter ref="A1:AB32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AG35" totalsRowCount="1" headerRowDxfId="68" dataDxfId="67" totalsRowDxfId="66">
+  <autoFilter ref="A1:AG34">
+    <filterColumn colId="6"/>
+    <filterColumn colId="8"/>
+    <filterColumn colId="15"/>
+    <filterColumn colId="27"/>
+    <filterColumn colId="28"/>
+  </autoFilter>
   <sortState ref="A2:AC30">
     <sortCondition ref="A1:A30"/>
   </sortState>
-  <tableColumns count="28">
-    <tableColumn id="19" name="ID" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="2" name="ATIVO" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="3" name="OPER/TIPO" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="4" name="DATA" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="5" name="QTDE" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="7" name="[D/N]" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="31" name="D BASE" dataDxfId="41" totalsRowDxfId="40">
-      <calculatedColumnFormula>EOMONTH(NC[[#This Row],[DATA]],0)</calculatedColumnFormula>
+  <tableColumns count="33">
+    <tableColumn id="19" name="ID" totalsRowLabel="Total" dataDxfId="65" totalsRowDxfId="33"/>
+    <tableColumn id="2" name="ATIVO" dataDxfId="64" totalsRowDxfId="32"/>
+    <tableColumn id="3" name="OPER/TIPO" dataDxfId="63" totalsRowDxfId="31"/>
+    <tableColumn id="4" name="DATA" dataDxfId="62" totalsRowDxfId="30"/>
+    <tableColumn id="5" name="QTDE" dataDxfId="61" totalsRowDxfId="29"/>
+    <tableColumn id="6" name="PREÇO" dataDxfId="60" totalsRowDxfId="28"/>
+    <tableColumn id="27" name="[A/O]" dataDxfId="45" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="[D/N]" dataDxfId="59" totalsRowDxfId="26"/>
+    <tableColumn id="34" name="D LIQUID" dataDxfId="37" totalsRowDxfId="25">
+      <calculatedColumnFormula>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="PAR" dataDxfId="39" totalsRowDxfId="38">
-      <calculatedColumnFormula>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</calculatedColumnFormula>
+    <tableColumn id="31" name="D BASE" dataDxfId="36" totalsRowDxfId="24">
+      <calculatedColumnFormula>EOMONTH(NC[[#This Row],[D LIQUID]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR" dataDxfId="37" totalsRowDxfId="36">
-      <calculatedColumnFormula>NC[QTDE]*NC[PREÇO]</calculatedColumnFormula>
+    <tableColumn id="21" name="PAR" dataDxfId="58" totalsRowDxfId="23">
+      <calculatedColumnFormula>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="VL LIQUID" dataDxfId="35" totalsRowDxfId="34">
-      <calculatedColumnFormula>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</calculatedColumnFormula>
+    <tableColumn id="8" name="VALOR" dataDxfId="57" totalsRowDxfId="22">
+      <calculatedColumnFormula>[QTDE]*[PREÇO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TX LIQUID" dataDxfId="33" totalsRowDxfId="32">
-      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</calculatedColumnFormula>
+    <tableColumn id="9" name="VL LIQUID" dataDxfId="56" totalsRowDxfId="21">
+      <calculatedColumnFormula>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL" dataDxfId="31" totalsRowDxfId="30">
-      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</calculatedColumnFormula>
+    <tableColumn id="10" name="TX LIQUID" dataDxfId="44" totalsRowDxfId="20">
+      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORR. BASE" dataDxfId="29" totalsRowDxfId="28">
-      <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
+    <tableColumn id="11" name="EMOL" dataDxfId="43" totalsRowDxfId="19">
+      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="27" totalsRowDxfId="26">
-      <calculatedColumnFormula>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</calculatedColumnFormula>
+    <tableColumn id="28" name="REGISTRO" dataDxfId="38" totalsRowDxfId="18">
+      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="OUTRAS" dataDxfId="25" totalsRowDxfId="24">
-      <calculatedColumnFormula>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</calculatedColumnFormula>
+    <tableColumn id="12" name="CORR. BASE" dataDxfId="55" totalsRowDxfId="17">
+      <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="LÍQUIDO" totalsRowLabel=" R$ 6.765,77 " dataDxfId="23" totalsRowDxfId="22">
-      <calculatedColumnFormula>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</calculatedColumnFormula>
+    <tableColumn id="13" name="ISS" dataDxfId="54" totalsRowDxfId="16">
+      <calculatedColumnFormula>TRUNC([CORR. BASE]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="21" totalsRowDxfId="20">
-      <calculatedColumnFormula>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</calculatedColumnFormula>
+    <tableColumn id="15" name="OUTRAS" dataDxfId="53" totalsRowDxfId="15">
+      <calculatedColumnFormula>TRUNC([CORR. BASE]*SETUP!$G$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO" dataDxfId="19" totalsRowDxfId="18">
-      <calculatedColumnFormula>ABS(R2)/E2</calculatedColumnFormula>
+    <tableColumn id="16" name="LÍQUIDO" totalsRowLabel=" R$ 6.765,77 " dataDxfId="42" totalsRowDxfId="14">
+      <calculatedColumnFormula>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
-      <calculatedColumnFormula>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
+    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="52" totalsRowDxfId="13">
+      <calculatedColumnFormula>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="15" totalsRowDxfId="14">
-      <calculatedColumnFormula>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</calculatedColumnFormula>
+    <tableColumn id="18" name="MEDIO" dataDxfId="51" totalsRowDxfId="12">
+      <calculatedColumnFormula>ABS(U2)/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="13" totalsRowDxfId="12">
-      <calculatedColumnFormula>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</calculatedColumnFormula>
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="11">
+      <calculatedColumnFormula>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="11" totalsRowDxfId="10">
-      <calculatedColumnFormula>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</calculatedColumnFormula>
+    <tableColumn id="24" name="SALDO" dataDxfId="49" totalsRowDxfId="10">
+      <calculatedColumnFormula>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO OP" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
-      <calculatedColumnFormula>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</calculatedColumnFormula>
+    <tableColumn id="22" name="MED CP" dataDxfId="48" totalsRowDxfId="9">
+      <calculatedColumnFormula>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="LUCRO N" dataDxfId="7" totalsRowDxfId="6">
-      <calculatedColumnFormula>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</calculatedColumnFormula>
+    <tableColumn id="23" name="MED VD" dataDxfId="47" totalsRowDxfId="8">
+      <calculatedColumnFormula>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="LUCRO D" dataDxfId="5" totalsRowDxfId="4">
-      <calculatedColumnFormula>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</calculatedColumnFormula>
+    <tableColumn id="25" name="LUCRO OP" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="7">
+      <calculatedColumnFormula>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</calculatedColumnFormula>
+      <totalsRowFormula>SUBTOTAL(109,[LUCRO OP])-NC[[#Totals],[IRRF OPÇÃO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" name="LUCRO MÊS" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
-      <calculatedColumnFormula>NC[LUCRO N]+NC[LUCRO D]</calculatedColumnFormula>
+    <tableColumn id="32" name="IRRF OPÇÃO" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="6" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="% LUCRO" dataDxfId="40" totalsRowDxfId="5" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[LUCRO OP]/ABS([VALOR P/ OP])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="LUCRO N" dataDxfId="35" totalsRowDxfId="4">
+      <calculatedColumnFormula>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="LUCRO D" dataDxfId="34" totalsRowDxfId="3">
+      <calculatedColumnFormula>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="LUCRO MÊS" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="2">
+      <calculatedColumnFormula>[LUCRO N]+[LUCRO D]</calculatedColumnFormula>
       <totalsRowFormula>NC[[#Totals],[LUCRO OP]]/NC[[#Totals],[LÍQUIDO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="1" name="VOLUME" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
-      <calculatedColumnFormula>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</calculatedColumnFormula>
+    <tableColumn id="1" name="VOLUME" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="1">
+      <calculatedColumnFormula>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</calculatedColumnFormula>
       <totalsRowFormula>IF(NC[[#Totals],[LUCRO OP]]&lt;0,ABS(NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]])),-NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]]))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2693,7 +2954,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2735,7 +2996,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2754,14 +3015,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -2771,13 +3032,13 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -2785,7 +3046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -2793,7 +3054,7 @@
         <v>-862.45000000000027</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
@@ -2801,7 +3062,7 @@
         <v>-130.13999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -2809,7 +3070,7 @@
         <v>205.45000000000027</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
@@ -2817,7 +3078,7 @@
         <v>-1201.19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -2825,7 +3086,7 @@
         <v>-121.93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
@@ -2833,7 +3094,7 @@
         <v>-21.560000000000855</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2841,7 +3102,7 @@
         <v>-81.129999999999654</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -2849,7 +3110,7 @@
         <v>-255.90999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -2857,7 +3118,7 @@
         <v>-88.079999999999814</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
@@ -2865,13 +3126,13 @@
         <v>-150.42000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
@@ -2885,49 +3146,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="15" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" style="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="15" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="15" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="16" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="15" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" style="15" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="15" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" style="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="11.5703125" style="15"/>
+    <col min="7" max="7" width="7.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="7" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="15" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" style="16" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="15" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7" style="16" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="16" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="15" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" style="15" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="15" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="11.5703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
@@ -2947,73 +3213,88 @@
         <v>2</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="P1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="U1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="AB1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AE1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AF1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AG1" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="21" customFormat="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -3024,7 +3305,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="22">
-        <v>40882</v>
+        <v>40877</v>
       </c>
       <c r="E2" s="21">
         <v>100</v>
@@ -3032,95 +3313,114 @@
       <c r="F2" s="23">
         <v>13.62</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I2" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40882</v>
+      </c>
+      <c r="J2" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40908</v>
       </c>
-      <c r="I2" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K2" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J2" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L2" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>1362</v>
       </c>
-      <c r="K2" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M2" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-1362</v>
       </c>
-      <c r="L2" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N2" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.37</v>
       </c>
-      <c r="M2" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O2" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.09</v>
       </c>
-      <c r="N2" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P2" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O2" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R2" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P2" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S2" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q2" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T2" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-1378.2299999999998</v>
       </c>
-      <c r="R2" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U2" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1378.2299999999998</v>
       </c>
-      <c r="S2" s="23">
-        <f t="shared" ref="S2:S31" si="0">ABS(R2)/E2</f>
+      <c r="V2" s="23">
+        <f t="shared" ref="V2:V31" si="0">ABS(U2)/E2</f>
         <v>13.782299999999998</v>
       </c>
-      <c r="T2" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J2*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="W2" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L2*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>100</v>
       </c>
-      <c r="V2" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="Y2" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>13.782299999999998</v>
       </c>
-      <c r="W2" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+      <c r="Z2" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z2" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="AE2" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA2" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+      <c r="AF2" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB2" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AG2" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" s="21" customFormat="1">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -3131,7 +3431,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="22">
-        <v>40886</v>
+        <v>40883</v>
       </c>
       <c r="E3" s="21">
         <v>100</v>
@@ -3139,95 +3439,114 @@
       <c r="F3" s="23">
         <v>8.4499999999999993</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I3" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40886</v>
+      </c>
+      <c r="J3" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40908</v>
       </c>
-      <c r="I3" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K3" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J3" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L3" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>844.99999999999989</v>
       </c>
-      <c r="K3" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M3" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-844.99999999999989</v>
       </c>
-      <c r="L3" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N3" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.23</v>
       </c>
-      <c r="M3" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O3" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.05</v>
       </c>
-      <c r="N3" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P3" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O3" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R3" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P3" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S3" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q3" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T3" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-861.04999999999984</v>
       </c>
-      <c r="R3" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U3" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-861.04999999999984</v>
       </c>
-      <c r="S3" s="23">
+      <c r="V3" s="23">
         <f t="shared" si="0"/>
         <v>8.6104999999999983</v>
       </c>
-      <c r="T3" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J3*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="W3" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L3*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>100</v>
       </c>
-      <c r="V3" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="Y3" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>8.6104999999999983</v>
       </c>
-      <c r="W3" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+      <c r="Z3" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z3" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="AE3" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA3" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+      <c r="AF3" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB3" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AG3" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" s="21" customFormat="1">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -3238,7 +3557,7 @@
         <v>56</v>
       </c>
       <c r="D4" s="22">
-        <v>40889</v>
+        <v>40884</v>
       </c>
       <c r="E4" s="21">
         <v>100</v>
@@ -3246,95 +3565,114 @@
       <c r="F4" s="23">
         <v>16</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I4" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40889</v>
+      </c>
+      <c r="J4" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40908</v>
       </c>
-      <c r="I4" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K4" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J4" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L4" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>1600</v>
       </c>
-      <c r="K4" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M4" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>1600</v>
       </c>
-      <c r="L4" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N4" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.44</v>
       </c>
-      <c r="M4" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O4" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.11</v>
       </c>
-      <c r="N4" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P4" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O4" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R4" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P4" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S4" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q4" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T4" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>1583.68</v>
       </c>
-      <c r="R4" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U4" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>1583.68</v>
       </c>
-      <c r="S4" s="23">
+      <c r="V4" s="23">
         <f t="shared" si="0"/>
         <v>15.8368</v>
       </c>
-      <c r="T4" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J4*SETUP!$H$3,     0),2)</f>
+      <c r="W4" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L4*SETUP!$H$3,     0),2)</f>
         <v>0.08</v>
       </c>
-      <c r="U4" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="X4" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>13.782299999999998</v>
       </c>
-      <c r="W4" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Z4" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>15.8368</v>
       </c>
-      <c r="X4" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+      <c r="AA4" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>205.45000000000027</v>
       </c>
-      <c r="Y4" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+      <c r="AB4" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0.12972949080622365</v>
+      </c>
+      <c r="AD4" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z4" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="AE4" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA4" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+      <c r="AF4" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB4" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AG4" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="21" customFormat="1">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -3345,7 +3683,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="22">
-        <v>40893</v>
+        <v>40890</v>
       </c>
       <c r="E5" s="21">
         <v>200</v>
@@ -3353,95 +3691,114 @@
       <c r="F5" s="23">
         <v>5.66</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I5" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40893</v>
+      </c>
+      <c r="J5" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40908</v>
       </c>
-      <c r="I5" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K5" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
-      <c r="J5" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L5" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>1132</v>
       </c>
-      <c r="K5" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M5" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-1132</v>
       </c>
-      <c r="L5" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N5" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.2</v>
       </c>
-      <c r="M5" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O5" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N5" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P5" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O5" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R5" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P5" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S5" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q5" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T5" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-1148.04</v>
       </c>
-      <c r="R5" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U5" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1148.04</v>
       </c>
-      <c r="S5" s="23">
+      <c r="V5" s="23">
         <f t="shared" si="0"/>
         <v>5.7401999999999997</v>
       </c>
-      <c r="T5" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J5*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="X5" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+      <c r="W5" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L5*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z5" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="AE5" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA5" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+      <c r="AF5" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB5" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AG5" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="21" customFormat="1">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -3452,7 +3809,7 @@
         <v>56</v>
       </c>
       <c r="D6" s="22">
-        <v>40893</v>
+        <v>40890</v>
       </c>
       <c r="E6" s="21">
         <v>200</v>
@@ -3460,95 +3817,114 @@
       <c r="F6" s="23">
         <v>5.64</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I6" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40893</v>
+      </c>
+      <c r="J6" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40908</v>
       </c>
-      <c r="I6" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K6" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
-      <c r="J6" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L6" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>1128</v>
       </c>
-      <c r="K6" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M6" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-4</v>
       </c>
-      <c r="L6" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N6" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.4</v>
       </c>
-      <c r="M6" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O6" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.15</v>
       </c>
-      <c r="N6" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P6" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="O6" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R6" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="P6" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S6" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="Q6" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T6" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-36.1</v>
       </c>
-      <c r="R6" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U6" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>1111.94</v>
       </c>
-      <c r="S6" s="23">
+      <c r="V6" s="23">
         <f t="shared" si="0"/>
         <v>5.5597000000000003</v>
       </c>
-      <c r="T6" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J6*SETUP!$H$3,     0),2)</f>
+      <c r="W6" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L6*SETUP!$H$3,     0),2)</f>
         <v>0.05</v>
       </c>
-      <c r="U6" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+      <c r="X6" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-36.1</v>
       </c>
-      <c r="Y6" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+      <c r="AB6" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>-3.2465780527726314E-2</v>
+      </c>
+      <c r="AD6" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z6" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="AE6" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA6" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+      <c r="AF6" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB6" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AG6" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="21" customFormat="1">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -3559,7 +3935,7 @@
         <v>55</v>
       </c>
       <c r="D7" s="22">
-        <v>40893</v>
+        <v>40890</v>
       </c>
       <c r="E7" s="21">
         <v>200</v>
@@ -3567,95 +3943,114 @@
       <c r="F7" s="23">
         <v>5.65</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I7" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40893</v>
+      </c>
+      <c r="J7" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40908</v>
       </c>
-      <c r="I7" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K7" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
-      <c r="J7" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L7" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>1130</v>
       </c>
-      <c r="K7" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M7" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-1134</v>
       </c>
-      <c r="L7" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N7" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.71</v>
       </c>
-      <c r="M7" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O7" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.23</v>
       </c>
-      <c r="N7" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P7" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>44.7</v>
       </c>
-      <c r="O7" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R7" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.89</v>
       </c>
-      <c r="P7" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S7" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.74</v>
       </c>
-      <c r="Q7" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T7" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-1182.2700000000002</v>
       </c>
-      <c r="R7" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U7" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1146.1700000000003</v>
       </c>
-      <c r="S7" s="23">
+      <c r="V7" s="23">
         <f t="shared" si="0"/>
         <v>5.7308500000000011</v>
       </c>
-      <c r="T7" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J7*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="W7" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L7*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>200</v>
       </c>
-      <c r="V7" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="Y7" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>5.7308500000000011</v>
       </c>
-      <c r="W7" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+      <c r="Z7" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z7" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="AE7" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA7" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+      <c r="AF7" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB7" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AG7" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="21" customFormat="1">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -3666,7 +4061,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="22">
-        <v>40900</v>
+        <v>40897</v>
       </c>
       <c r="E8" s="21">
         <v>200</v>
@@ -3674,95 +4069,114 @@
       <c r="F8" s="23">
         <v>4.2699999999999996</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I8" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40900</v>
+      </c>
+      <c r="J8" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40908</v>
       </c>
-      <c r="I8" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K8" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J8" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L8" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>853.99999999999989</v>
       </c>
-      <c r="K8" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M8" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>853.99999999999989</v>
       </c>
-      <c r="L8" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N8" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.23</v>
       </c>
-      <c r="M8" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O8" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.05</v>
       </c>
-      <c r="N8" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P8" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O8" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R8" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P8" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S8" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q8" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T8" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>837.94999999999993</v>
       </c>
-      <c r="R8" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U8" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>837.94999999999993</v>
       </c>
-      <c r="S8" s="23">
+      <c r="V8" s="23">
         <f t="shared" si="0"/>
         <v>4.1897500000000001</v>
       </c>
-      <c r="T8" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J8*SETUP!$H$3,     0),2)</f>
+      <c r="W8" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L8*SETUP!$H$3,     0),2)</f>
         <v>0.04</v>
       </c>
-      <c r="U8" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="X8" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>-200</v>
       </c>
-      <c r="V8" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Y8" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>4.1897500000000001</v>
       </c>
-      <c r="X8" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+      <c r="AA8" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z8" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="AE8" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA8" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+      <c r="AF8" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB8" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AG8" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="21" customFormat="1">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -3773,7 +4187,7 @@
         <v>55</v>
       </c>
       <c r="D9" s="22">
-        <v>40905</v>
+        <v>40900</v>
       </c>
       <c r="E9" s="21">
         <v>300</v>
@@ -3781,95 +4195,114 @@
       <c r="F9" s="23">
         <v>7.86</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I9" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40905</v>
+      </c>
+      <c r="J9" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40908</v>
       </c>
-      <c r="I9" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K9" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J9" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L9" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>2358</v>
       </c>
-      <c r="K9" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M9" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-2358</v>
       </c>
-      <c r="L9" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N9" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.64</v>
       </c>
-      <c r="M9" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O9" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.16</v>
       </c>
-      <c r="N9" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P9" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O9" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R9" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P9" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S9" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q9" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T9" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-2374.5699999999997</v>
       </c>
-      <c r="R9" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U9" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-2374.5699999999997</v>
       </c>
-      <c r="S9" s="23">
+      <c r="V9" s="23">
         <f t="shared" si="0"/>
         <v>7.9152333333333322</v>
       </c>
-      <c r="T9" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J9*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="W9" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L9*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>300</v>
       </c>
-      <c r="V9" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="Y9" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>7.9152333333333322</v>
       </c>
-      <c r="W9" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+      <c r="Z9" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z9" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="AE9" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA9" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+      <c r="AF9" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB9" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AG9" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="21" customFormat="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -3880,7 +4313,7 @@
         <v>56</v>
       </c>
       <c r="D10" s="22">
-        <v>40906</v>
+        <v>40903</v>
       </c>
       <c r="E10" s="21">
         <v>100</v>
@@ -3888,95 +4321,114 @@
       <c r="F10" s="23">
         <v>6.9</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I10" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40906</v>
+      </c>
+      <c r="J10" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40908</v>
       </c>
-      <c r="I10" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K10" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
-      <c r="J10" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L10" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>690</v>
       </c>
-      <c r="K10" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M10" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>690</v>
       </c>
-      <c r="L10" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N10" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.18</v>
       </c>
-      <c r="M10" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O10" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.04</v>
       </c>
-      <c r="N10" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P10" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O10" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R10" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P10" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S10" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q10" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T10" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>674.0100000000001</v>
       </c>
-      <c r="R10" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U10" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>674.0100000000001</v>
       </c>
-      <c r="S10" s="23">
+      <c r="V10" s="23">
         <f t="shared" si="0"/>
         <v>6.7401000000000009</v>
       </c>
-      <c r="T10" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J10*SETUP!$H$3,     0),2)</f>
+      <c r="W10" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L10*SETUP!$H$3,     0),2)</f>
         <v>0.03</v>
       </c>
-      <c r="U10" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="X10" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>100</v>
       </c>
-      <c r="V10" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="Y10" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>5.7308500000000011</v>
       </c>
-      <c r="W10" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Z10" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>6.7401000000000009</v>
       </c>
-      <c r="X10" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+      <c r="AA10" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>100.92499999999998</v>
       </c>
-      <c r="Y10" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
+      <c r="AB10" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0.14973813444904374</v>
+      </c>
+      <c r="AD10" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
-      <c r="Z10" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="AE10" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
-      <c r="AA10" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
+      <c r="AF10" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
-      <c r="AB10" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AG10" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="21" customFormat="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -3987,7 +4439,7 @@
         <v>56</v>
       </c>
       <c r="D11" s="22">
-        <v>40913</v>
+        <v>40910</v>
       </c>
       <c r="E11" s="21">
         <v>100</v>
@@ -3995,95 +4447,114 @@
       <c r="F11" s="23">
         <v>5.83</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I11" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40913</v>
+      </c>
+      <c r="J11" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40939</v>
       </c>
-      <c r="I11" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K11" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
-      <c r="J11" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L11" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>583</v>
       </c>
-      <c r="K11" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M11" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>583</v>
       </c>
-      <c r="L11" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N11" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.16</v>
       </c>
-      <c r="M11" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O11" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.04</v>
       </c>
-      <c r="N11" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P11" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O11" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R11" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P11" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S11" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q11" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T11" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>567.03000000000009</v>
       </c>
-      <c r="R11" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U11" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>567.03000000000009</v>
       </c>
-      <c r="S11" s="23">
+      <c r="V11" s="23">
         <f t="shared" si="0"/>
         <v>5.670300000000001</v>
       </c>
-      <c r="T11" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J11*SETUP!$H$3,     0),2)</f>
+      <c r="W11" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L11*SETUP!$H$3,     0),2)</f>
         <v>0.02</v>
       </c>
-      <c r="U11" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="X11" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>5.7308500000000011</v>
       </c>
-      <c r="W11" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Z11" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>5.670300000000001</v>
       </c>
-      <c r="X11" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+      <c r="AA11" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-6.0550000000000104</v>
       </c>
-      <c r="Y11" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="Z11" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="AB11" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AB11" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>-1.0678447348464825E-2</v>
+      </c>
+      <c r="AD11" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-455.02500000000055</v>
+      </c>
+      <c r="AE11" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-455.02500000000055</v>
+      </c>
+      <c r="AG11" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="21" customFormat="1">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -4094,7 +4565,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="22">
-        <v>40914</v>
+        <v>40911</v>
       </c>
       <c r="E12" s="21">
         <v>200</v>
@@ -4102,95 +4573,114 @@
       <c r="F12" s="23">
         <v>5.8</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I12" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40914</v>
+      </c>
+      <c r="J12" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40939</v>
       </c>
-      <c r="I12" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K12" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>3</v>
       </c>
-      <c r="J12" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L12" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>1160</v>
       </c>
-      <c r="K12" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M12" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-1160</v>
       </c>
-      <c r="L12" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N12" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.31</v>
       </c>
-      <c r="M12" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O12" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.08</v>
       </c>
-      <c r="N12" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P12" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O12" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R12" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P12" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S12" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q12" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T12" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-1176.1599999999999</v>
       </c>
-      <c r="R12" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U12" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1176.1599999999999</v>
       </c>
-      <c r="S12" s="23">
+      <c r="V12" s="23">
         <f t="shared" si="0"/>
         <v>5.8807999999999989</v>
       </c>
-      <c r="T12" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J12*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="W12" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L12*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>200</v>
       </c>
-      <c r="V12" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="Y12" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>5.8807999999999989</v>
       </c>
-      <c r="W12" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="Z12" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="Z12" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="AA12" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="AB12" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-455.02500000000055</v>
+      </c>
+      <c r="AE12" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-455.02500000000055</v>
+      </c>
+      <c r="AG12" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="21" customFormat="1">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -4201,7 +4691,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="22">
-        <v>40925</v>
+        <v>40920</v>
       </c>
       <c r="E13" s="21">
         <v>300</v>
@@ -4209,95 +4699,114 @@
       <c r="F13" s="23">
         <v>9.0399999999999991</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I13" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40925</v>
+      </c>
+      <c r="J13" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40939</v>
       </c>
-      <c r="I13" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K13" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J13" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L13" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>2711.9999999999995</v>
       </c>
-      <c r="K13" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M13" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>2711.9999999999995</v>
       </c>
-      <c r="L13" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N13" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.74</v>
       </c>
-      <c r="M13" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O13" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.18</v>
       </c>
-      <c r="N13" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P13" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O13" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R13" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P13" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S13" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q13" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T13" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>2695.31</v>
       </c>
-      <c r="R13" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U13" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>2695.31</v>
       </c>
-      <c r="S13" s="23">
+      <c r="V13" s="23">
         <f t="shared" si="0"/>
         <v>8.9843666666666664</v>
       </c>
-      <c r="T13" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J13*SETUP!$H$3,     0),2)</f>
+      <c r="W13" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L13*SETUP!$H$3,     0),2)</f>
         <v>0.13</v>
       </c>
-      <c r="U13" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="X13" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>-300</v>
       </c>
-      <c r="V13" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Y13" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>8.9843666666666664</v>
       </c>
-      <c r="X13" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="Z13" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AA13" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="AB13" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-455.02500000000055</v>
+      </c>
+      <c r="AE13" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-455.02500000000055</v>
+      </c>
+      <c r="AG13" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="21" customFormat="1">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -4308,7 +4817,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="22">
-        <v>40925</v>
+        <v>40920</v>
       </c>
       <c r="E14" s="21">
         <v>200</v>
@@ -4316,95 +4825,114 @@
       <c r="F14" s="23">
         <v>5.56</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I14" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40925</v>
+      </c>
+      <c r="J14" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40939</v>
       </c>
-      <c r="I14" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K14" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>3</v>
       </c>
-      <c r="J14" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L14" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>1112</v>
       </c>
-      <c r="K14" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M14" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>3823.9999999999995</v>
       </c>
-      <c r="L14" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N14" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>1.05</v>
       </c>
-      <c r="M14" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O14" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.26</v>
       </c>
-      <c r="N14" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P14" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="O14" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R14" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="P14" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S14" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="Q14" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T14" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>3791.139999999999</v>
       </c>
-      <c r="R14" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U14" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>1095.829999999999</v>
       </c>
-      <c r="S14" s="23">
+      <c r="V14" s="23">
         <f t="shared" si="0"/>
         <v>5.4791499999999953</v>
       </c>
-      <c r="T14" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J14*SETUP!$H$3,     0),2)</f>
+      <c r="W14" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L14*SETUP!$H$3,     0),2)</f>
         <v>0.05</v>
       </c>
-      <c r="U14" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="X14" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>5.8807999999999989</v>
       </c>
-      <c r="W14" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Z14" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>5.4791499999999953</v>
       </c>
-      <c r="X14" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+      <c r="AA14" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-80.330000000000723</v>
       </c>
-      <c r="Y14" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="Z14" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="AB14" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AB14" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>-7.3305165947273571E-2</v>
+      </c>
+      <c r="AD14" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-455.02500000000055</v>
+      </c>
+      <c r="AE14" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-455.02500000000055</v>
+      </c>
+      <c r="AG14" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="21" customFormat="1">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -4415,7 +4943,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="22">
-        <v>40932</v>
+        <v>40927</v>
       </c>
       <c r="E15" s="21">
         <v>2000</v>
@@ -4423,95 +4951,114 @@
       <c r="F15" s="23">
         <v>0.5</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I15" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40932</v>
+      </c>
+      <c r="J15" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40939</v>
       </c>
-      <c r="I15" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K15" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J15" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L15" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>1000</v>
       </c>
-      <c r="K15" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M15" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-1000</v>
       </c>
-      <c r="L15" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N15" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.27</v>
       </c>
-      <c r="M15" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O15" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N15" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P15" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O15" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R15" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P15" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S15" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q15" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T15" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-1016.11</v>
       </c>
-      <c r="R15" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U15" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1016.11</v>
       </c>
-      <c r="S15" s="23">
+      <c r="V15" s="23">
         <f t="shared" si="0"/>
         <v>0.50805500000000003</v>
       </c>
-      <c r="T15" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J15*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="W15" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L15*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>2000</v>
       </c>
-      <c r="V15" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="Y15" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.50805500000000003</v>
       </c>
-      <c r="W15" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="X15" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="Z15" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="Z15" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="AA15" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="AB15" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-455.02500000000055</v>
+      </c>
+      <c r="AE15" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-455.02500000000055</v>
+      </c>
+      <c r="AG15" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="21" customFormat="1">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -4522,7 +5069,7 @@
         <v>56</v>
       </c>
       <c r="D16" s="22">
-        <v>40938</v>
+        <v>40932</v>
       </c>
       <c r="E16" s="21">
         <v>100</v>
@@ -4530,95 +5077,114 @@
       <c r="F16" s="23">
         <v>7.89</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I16" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40935</v>
+      </c>
+      <c r="J16" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40939</v>
       </c>
-      <c r="I16" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K16" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J16" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L16" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>789</v>
       </c>
-      <c r="K16" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M16" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>789</v>
       </c>
-      <c r="L16" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N16" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.21</v>
       </c>
-      <c r="M16" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O16" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.05</v>
       </c>
-      <c r="N16" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P16" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O16" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R16" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P16" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S16" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q16" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T16" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>772.97</v>
       </c>
-      <c r="R16" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U16" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>772.97</v>
       </c>
-      <c r="S16" s="23">
+      <c r="V16" s="23">
         <f t="shared" si="0"/>
         <v>7.7297000000000002</v>
       </c>
-      <c r="T16" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J16*SETUP!$H$3,     0),2)</f>
+      <c r="W16" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L16*SETUP!$H$3,     0),2)</f>
         <v>0.03</v>
       </c>
-      <c r="U16" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="X16" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>8.6104999999999983</v>
       </c>
-      <c r="W16" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Z16" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>7.7297000000000002</v>
       </c>
-      <c r="X16" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+      <c r="AA16" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-88.079999999999799</v>
       </c>
-      <c r="Y16" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="Z16" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="AB16" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AB16" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>-0.11395008861922169</v>
+      </c>
+      <c r="AD16" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-455.02500000000055</v>
+      </c>
+      <c r="AE16" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-455.02500000000055</v>
+      </c>
+      <c r="AG16" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" s="21" customFormat="1">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -4629,7 +5195,7 @@
         <v>58</v>
       </c>
       <c r="D17" s="22">
-        <v>40939</v>
+        <v>40934</v>
       </c>
       <c r="E17" s="21">
         <v>300</v>
@@ -4637,95 +5203,114 @@
       <c r="F17" s="23">
         <v>9.43</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I17" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
         <v>40939</v>
       </c>
-      <c r="I17" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="J17" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
+        <v>40939</v>
+      </c>
+      <c r="K17" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J17" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L17" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>2829</v>
       </c>
-      <c r="K17" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M17" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-2829</v>
       </c>
-      <c r="L17" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N17" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.77</v>
       </c>
-      <c r="M17" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O17" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.19</v>
       </c>
-      <c r="N17" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P17" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O17" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R17" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P17" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S17" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q17" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T17" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-2845.73</v>
       </c>
-      <c r="R17" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U17" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-2845.73</v>
       </c>
-      <c r="S17" s="23">
+      <c r="V17" s="23">
         <f t="shared" si="0"/>
         <v>9.4857666666666667</v>
       </c>
-      <c r="T17" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J17*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="W17" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L17*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>9.4857666666666667</v>
       </c>
-      <c r="W17" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Z17" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>8.9843666666666664</v>
       </c>
-      <c r="X17" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+      <c r="AA17" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-150.42000000000007</v>
       </c>
-      <c r="Y17" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="Z17" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="AB17" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AB17" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>-5.2858141847610306E-2</v>
+      </c>
+      <c r="AD17" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-455.02500000000055</v>
+      </c>
+      <c r="AE17" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-455.02500000000055</v>
+      </c>
+      <c r="AG17" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" s="21" customFormat="1">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -4736,7 +5321,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="22">
-        <v>40939</v>
+        <v>40934</v>
       </c>
       <c r="E18" s="21">
         <v>2300</v>
@@ -4744,95 +5329,114 @@
       <c r="F18" s="23">
         <v>0.43</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I18" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
         <v>40939</v>
       </c>
-      <c r="I18" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="J18" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
+        <v>40939</v>
+      </c>
+      <c r="K18" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
-      <c r="J18" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L18" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>989</v>
       </c>
-      <c r="K18" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M18" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-3818</v>
       </c>
-      <c r="L18" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N18" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>1.04</v>
       </c>
-      <c r="M18" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O18" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.26</v>
       </c>
-      <c r="N18" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P18" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="O18" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R18" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="P18" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S18" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="Q18" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T18" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-3850.8500000000004</v>
       </c>
-      <c r="R18" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U18" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1005.1200000000003</v>
       </c>
-      <c r="S18" s="23">
+      <c r="V18" s="23">
         <f t="shared" si="0"/>
         <v>0.43700869565217404</v>
       </c>
-      <c r="T18" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J18*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="W18" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L18*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>2300</v>
       </c>
-      <c r="V18" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="Y18" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.43700869565217404</v>
       </c>
-      <c r="W18" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="Z18" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="Z18" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="AA18" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-324.88500000000062</v>
-      </c>
-      <c r="AB18" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-455.02500000000055</v>
+      </c>
+      <c r="AE18" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-455.02500000000055</v>
+      </c>
+      <c r="AG18" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" s="21" customFormat="1">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -4843,7 +5447,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="22">
-        <v>40942</v>
+        <v>40939</v>
       </c>
       <c r="E19" s="21">
         <v>200</v>
@@ -4851,95 +5455,114 @@
       <c r="F19" s="23">
         <v>4.76</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I19" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40942</v>
+      </c>
+      <c r="J19" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40968</v>
       </c>
-      <c r="I19" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K19" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J19" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L19" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>952</v>
       </c>
-      <c r="K19" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M19" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-952</v>
       </c>
-      <c r="L19" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N19" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.26</v>
       </c>
-      <c r="M19" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O19" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.06</v>
       </c>
-      <c r="N19" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P19" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O19" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R19" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P19" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S19" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q19" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T19" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-968.08999999999992</v>
       </c>
-      <c r="R19" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U19" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-968.08999999999992</v>
       </c>
-      <c r="S19" s="23">
+      <c r="V19" s="23">
         <f t="shared" si="0"/>
         <v>4.8404499999999997</v>
       </c>
-      <c r="T19" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J19*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="W19" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L19*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>4.8404499999999997</v>
       </c>
-      <c r="W19" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Z19" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>4.1897500000000001</v>
       </c>
-      <c r="X19" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+      <c r="AA19" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-130.13999999999993</v>
       </c>
-      <c r="Y19" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="Z19" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="AB19" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AB19" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>-0.13442965013583441</v>
+      </c>
+      <c r="AD19" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-1321.4199999999998</v>
+      </c>
+      <c r="AE19" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-1321.4199999999998</v>
+      </c>
+      <c r="AG19" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" s="21" customFormat="1">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -4950,7 +5573,7 @@
         <v>56</v>
       </c>
       <c r="D20" s="22">
-        <v>40948</v>
+        <v>40945</v>
       </c>
       <c r="E20" s="21">
         <v>300</v>
@@ -4958,95 +5581,114 @@
       <c r="F20" s="23">
         <v>7.7</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I20" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40948</v>
+      </c>
+      <c r="J20" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40968</v>
       </c>
-      <c r="I20" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K20" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J20" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L20" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>2310</v>
       </c>
-      <c r="K20" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M20" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>2310</v>
       </c>
-      <c r="L20" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N20" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.63</v>
       </c>
-      <c r="M20" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O20" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.16</v>
       </c>
-      <c r="N20" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P20" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O20" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R20" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P20" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S20" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q20" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T20" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>2293.44</v>
       </c>
-      <c r="R20" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U20" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>2293.44</v>
       </c>
-      <c r="S20" s="23">
+      <c r="V20" s="23">
         <f t="shared" si="0"/>
         <v>7.6448</v>
       </c>
-      <c r="T20" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J20*SETUP!$H$3,     0),2)</f>
+      <c r="W20" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L20*SETUP!$H$3,     0),2)</f>
         <v>0.11</v>
       </c>
-      <c r="U20" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="X20" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>7.9152333333333322</v>
       </c>
-      <c r="W20" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Z20" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>7.6448</v>
       </c>
-      <c r="X20" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+      <c r="AA20" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-81.129999999999654</v>
       </c>
-      <c r="Y20" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="Z20" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="AB20" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AB20" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>-3.5374808148458059E-2</v>
+      </c>
+      <c r="AD20" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-1321.4199999999998</v>
+      </c>
+      <c r="AE20" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-1321.4199999999998</v>
+      </c>
+      <c r="AG20" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" s="21" customFormat="1">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -5057,7 +5699,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="22">
-        <v>40948</v>
+        <v>40945</v>
       </c>
       <c r="E21" s="21">
         <v>3700</v>
@@ -5065,95 +5707,114 @@
       <c r="F21" s="23">
         <v>0.37</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I21" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40948</v>
+      </c>
+      <c r="J21" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40968</v>
       </c>
-      <c r="I21" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K21" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
-      <c r="J21" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L21" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>1369</v>
       </c>
-      <c r="K21" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M21" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>941</v>
       </c>
-      <c r="L21" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N21" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>1.01</v>
       </c>
-      <c r="M21" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O21" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.25</v>
       </c>
-      <c r="N21" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P21" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="O21" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R21" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="P21" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S21" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="Q21" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T21" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>908.19</v>
       </c>
-      <c r="R21" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U21" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1385.25</v>
       </c>
-      <c r="S21" s="23">
+      <c r="V21" s="23">
         <f t="shared" si="0"/>
         <v>0.37439189189189187</v>
       </c>
-      <c r="T21" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J21*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="W21" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L21*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>6000</v>
       </c>
-      <c r="V21" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="Y21" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.39839500000000005</v>
       </c>
-      <c r="W21" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="Z21" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="Z21" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="AA21" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="AB21" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-1321.4199999999998</v>
+      </c>
+      <c r="AE21" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-1321.4199999999998</v>
+      </c>
+      <c r="AG21" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" s="21" customFormat="1">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -5164,7 +5825,7 @@
         <v>55</v>
       </c>
       <c r="D22" s="22">
-        <v>40948</v>
+        <v>40945</v>
       </c>
       <c r="E22" s="21">
         <v>500</v>
@@ -5172,95 +5833,114 @@
       <c r="F22" s="23">
         <v>2.37</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I22" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40948</v>
+      </c>
+      <c r="J22" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40968</v>
       </c>
-      <c r="I22" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K22" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J22" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L22" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>1185</v>
       </c>
-      <c r="K22" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M22" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-244</v>
       </c>
-      <c r="L22" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N22" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>1.33</v>
       </c>
-      <c r="M22" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O22" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.34</v>
       </c>
-      <c r="N22" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P22" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>44.7</v>
       </c>
-      <c r="O22" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R22" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.89</v>
       </c>
-      <c r="P22" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S22" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.74</v>
       </c>
-      <c r="Q22" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T22" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-293</v>
       </c>
-      <c r="R22" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U22" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1201.19</v>
       </c>
-      <c r="S22" s="23">
+      <c r="V22" s="23">
         <f t="shared" si="0"/>
         <v>2.40238</v>
       </c>
-      <c r="T22" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J22*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="W22" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L22*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>500</v>
       </c>
-      <c r="V22" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="Y22" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>2.40238</v>
       </c>
-      <c r="W22" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="Z22" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="Z22" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="AA22" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="AB22" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-1321.4199999999998</v>
+      </c>
+      <c r="AE22" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-1321.4199999999998</v>
+      </c>
+      <c r="AG22" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" s="21" customFormat="1">
       <c r="A23" s="21">
         <v>22</v>
       </c>
@@ -5271,7 +5951,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="22">
-        <v>40953</v>
+        <v>40948</v>
       </c>
       <c r="E23" s="21">
         <v>1600</v>
@@ -5279,95 +5959,114 @@
       <c r="F23" s="23">
         <v>0.4</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I23" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40953</v>
+      </c>
+      <c r="J23" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40968</v>
       </c>
-      <c r="I23" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K23" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J23" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L23" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>640</v>
       </c>
-      <c r="K23" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M23" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>640</v>
       </c>
-      <c r="L23" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N23" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.17</v>
       </c>
-      <c r="M23" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O23" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.04</v>
       </c>
-      <c r="N23" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P23" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O23" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R23" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P23" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S23" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q23" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T23" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>624.0200000000001</v>
       </c>
-      <c r="R23" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U23" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>624.0200000000001</v>
       </c>
-      <c r="S23" s="23">
+      <c r="V23" s="23">
         <f t="shared" si="0"/>
         <v>0.39001250000000004</v>
       </c>
-      <c r="T23" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J23*SETUP!$H$3,     0),2)</f>
+      <c r="W23" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L23*SETUP!$H$3,     0),2)</f>
         <v>0.03</v>
       </c>
-      <c r="U23" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="X23" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>400</v>
       </c>
-      <c r="V23" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="Y23" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.50805500000000003</v>
       </c>
-      <c r="W23" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Z23" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0.39001250000000004</v>
       </c>
-      <c r="X23" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+      <c r="AA23" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-188.86799999999999</v>
       </c>
-      <c r="Y23" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="Z23" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="AB23" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AB23" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>-0.30266337617384054</v>
+      </c>
+      <c r="AD23" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-1321.4199999999998</v>
+      </c>
+      <c r="AE23" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-1321.4199999999998</v>
+      </c>
+      <c r="AG23" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" s="21" customFormat="1">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -5378,7 +6077,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="22">
-        <v>40953</v>
+        <v>40948</v>
       </c>
       <c r="E24" s="21">
         <v>3000</v>
@@ -5386,95 +6085,114 @@
       <c r="F24" s="23">
         <v>0.2</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I24" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40953</v>
+      </c>
+      <c r="J24" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40968</v>
       </c>
-      <c r="I24" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K24" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J24" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L24" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>600</v>
       </c>
-      <c r="K24" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M24" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>40</v>
       </c>
-      <c r="L24" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N24" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.34</v>
       </c>
-      <c r="M24" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O24" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.08</v>
       </c>
-      <c r="N24" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P24" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="O24" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R24" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="P24" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S24" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="Q24" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T24" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>8.0299999999999976</v>
       </c>
-      <c r="R24" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U24" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-615.99000000000012</v>
       </c>
-      <c r="S24" s="23">
+      <c r="V24" s="23">
         <f t="shared" si="0"/>
         <v>0.20533000000000004</v>
       </c>
-      <c r="T24" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J24*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="W24" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L24*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>3000</v>
       </c>
-      <c r="V24" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="Y24" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.20533000000000004</v>
       </c>
-      <c r="W24" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="Z24" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="Z24" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="AA24" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="AB24" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-1321.4199999999998</v>
+      </c>
+      <c r="AE24" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-1321.4199999999998</v>
+      </c>
+      <c r="AG24" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" s="21" customFormat="1">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -5485,7 +6203,7 @@
         <v>56</v>
       </c>
       <c r="D25" s="22">
-        <v>40967</v>
+        <v>40962</v>
       </c>
       <c r="E25" s="21">
         <v>400</v>
@@ -5493,95 +6211,114 @@
       <c r="F25" s="23">
         <v>0.38</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I25" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40967</v>
+      </c>
+      <c r="J25" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40968</v>
       </c>
-      <c r="I25" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K25" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J25" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L25" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>152</v>
       </c>
-      <c r="K25" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M25" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>152</v>
       </c>
-      <c r="L25" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N25" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.04</v>
       </c>
-      <c r="M25" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O25" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.01</v>
       </c>
-      <c r="N25" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P25" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O25" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R25" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P25" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S25" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q25" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T25" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>136.18</v>
       </c>
-      <c r="R25" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U25" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>136.18</v>
       </c>
-      <c r="S25" s="23">
+      <c r="V25" s="23">
         <f t="shared" si="0"/>
         <v>0.34045000000000003</v>
       </c>
-      <c r="T25" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J25*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="W25" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L25*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.50805500000000003</v>
       </c>
-      <c r="W25" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Z25" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0.34045000000000003</v>
       </c>
-      <c r="X25" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+      <c r="AA25" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-67.042000000000002</v>
       </c>
-      <c r="Y25" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="Z25" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-467.17999999999961</v>
-      </c>
-      <c r="AB25" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AB25" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>-0.49230430312821266</v>
+      </c>
+      <c r="AD25" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-1321.4199999999998</v>
+      </c>
+      <c r="AE25" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-1321.4199999999998</v>
+      </c>
+      <c r="AG25" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>3102</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" s="21" customFormat="1">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -5592,7 +6329,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="22">
-        <v>40970</v>
+        <v>40967</v>
       </c>
       <c r="E26" s="21">
         <v>3000</v>
@@ -5600,95 +6337,114 @@
       <c r="F26" s="23">
         <v>0.17</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I26" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40970</v>
+      </c>
+      <c r="J26" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40999</v>
       </c>
-      <c r="I26" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K26" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J26" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L26" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>510.00000000000006</v>
       </c>
-      <c r="K26" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M26" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>510.00000000000006</v>
       </c>
-      <c r="L26" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N26" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="M26" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O26" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.03</v>
       </c>
-      <c r="N26" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P26" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O26" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R26" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P26" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S26" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q26" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T26" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>494.06000000000012</v>
       </c>
-      <c r="R26" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U26" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>494.06000000000012</v>
       </c>
-      <c r="S26" s="23">
+      <c r="V26" s="23">
         <f t="shared" si="0"/>
         <v>0.1646866666666667</v>
       </c>
-      <c r="T26" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J26*SETUP!$H$3,     0),2)</f>
+      <c r="W26" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L26*SETUP!$H$3,     0),2)</f>
         <v>0.02</v>
       </c>
-      <c r="U26" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="X26" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.20533000000000004</v>
       </c>
-      <c r="W26" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Z26" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0.1646866666666667</v>
       </c>
-      <c r="X26" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+      <c r="AA26" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-121.93</v>
       </c>
-      <c r="Y26" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="Z26" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="AB26" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AB26" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>-0.24679188762498477</v>
+      </c>
+      <c r="AD26" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AE26" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AG26" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4364</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" s="21" customFormat="1">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -5699,7 +6455,7 @@
         <v>56</v>
       </c>
       <c r="D27" s="22">
-        <v>40970</v>
+        <v>40967</v>
       </c>
       <c r="E27" s="21">
         <v>3000</v>
@@ -5707,95 +6463,114 @@
       <c r="F27" s="23">
         <v>0.27</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I27" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40970</v>
+      </c>
+      <c r="J27" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40999</v>
       </c>
-      <c r="I27" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K27" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
-      <c r="J27" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L27" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>810</v>
       </c>
-      <c r="K27" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M27" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>1320</v>
       </c>
-      <c r="L27" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N27" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.36</v>
       </c>
-      <c r="M27" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O27" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.09</v>
       </c>
-      <c r="N27" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P27" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="O27" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R27" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="P27" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S27" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="Q27" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T27" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>1288.0000000000002</v>
       </c>
-      <c r="R27" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U27" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>793.94</v>
       </c>
-      <c r="S27" s="23">
+      <c r="V27" s="23">
         <f t="shared" si="0"/>
         <v>0.2646466666666667</v>
       </c>
-      <c r="T27" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J27*SETUP!$H$3,     0),2)</f>
+      <c r="W27" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L27*SETUP!$H$3,     0),2)</f>
         <v>0.04</v>
       </c>
-      <c r="U27" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="X27" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>3000</v>
       </c>
-      <c r="V27" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="Y27" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.39839500000000005</v>
       </c>
-      <c r="W27" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Z27" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0.2646466666666667</v>
       </c>
-      <c r="X27" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+      <c r="AA27" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-401.24500000000006</v>
       </c>
-      <c r="Y27" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="Z27" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="AB27" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AB27" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>-0.50538453787439863</v>
+      </c>
+      <c r="AD27" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AE27" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AG27" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4364</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -5806,7 +6581,7 @@
         <v>56</v>
       </c>
       <c r="D28" s="22">
-        <v>40973</v>
+        <v>40968</v>
       </c>
       <c r="E28" s="21">
         <v>3000</v>
@@ -5814,95 +6589,114 @@
       <c r="F28" s="23">
         <v>0.25</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I28" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40973</v>
+      </c>
+      <c r="J28" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40999</v>
       </c>
-      <c r="I28" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K28" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
-      <c r="J28" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L28" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>750</v>
       </c>
-      <c r="K28" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M28" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>750</v>
       </c>
-      <c r="L28" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N28" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.2</v>
       </c>
-      <c r="M28" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O28" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.05</v>
       </c>
-      <c r="N28" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P28" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O28" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R28" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P28" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S28" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q28" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T28" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>733.98</v>
       </c>
-      <c r="R28" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U28" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>733.98</v>
       </c>
-      <c r="S28" s="23">
+      <c r="V28" s="23">
         <f t="shared" si="0"/>
         <v>0.24466000000000002</v>
       </c>
-      <c r="T28" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J28*SETUP!$H$3,     0),2)</f>
+      <c r="W28" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L28*SETUP!$H$3,     0),2)</f>
         <v>0.03</v>
       </c>
-      <c r="U28" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="V28" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="X28" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>0.39839500000000005</v>
       </c>
-      <c r="W28" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Z28" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0.24466000000000002</v>
       </c>
-      <c r="X28" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+      <c r="AA28" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-461.2050000000001</v>
       </c>
-      <c r="Y28" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="Z28" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="AB28" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AB28" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>-0.62836180822365739</v>
+      </c>
+      <c r="AD28" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AE28" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AG28" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4364</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -5913,7 +6707,7 @@
         <v>55</v>
       </c>
       <c r="D29" s="22">
-        <v>40975</v>
+        <v>40970</v>
       </c>
       <c r="E29" s="21">
         <v>500</v>
@@ -5921,95 +6715,114 @@
       <c r="F29" s="23">
         <v>2.12</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I29" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40975</v>
+      </c>
+      <c r="J29" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40999</v>
       </c>
-      <c r="I29" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K29" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J29" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L29" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>1060</v>
       </c>
-      <c r="K29" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M29" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-1060</v>
       </c>
-      <c r="L29" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N29" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="M29" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O29" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N29" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P29" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O29" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R29" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P29" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S29" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q29" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T29" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-1076.1299999999999</v>
       </c>
-      <c r="R29" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U29" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1076.1299999999999</v>
       </c>
-      <c r="S29" s="23">
+      <c r="V29" s="23">
         <f t="shared" si="0"/>
         <v>2.1522599999999996</v>
       </c>
-      <c r="T29" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J29*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="W29" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L29*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>500</v>
       </c>
-      <c r="V29" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="Y29" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>2.1522599999999996</v>
       </c>
-      <c r="W29" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="X29" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="Z29" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="Z29" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="AA29" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="AB29" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AE29" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AG29" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4364</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -6020,7 +6833,7 @@
         <v>55</v>
       </c>
       <c r="D30" s="22">
-        <v>40975</v>
+        <v>40970</v>
       </c>
       <c r="E30" s="21">
         <v>200</v>
@@ -6028,95 +6841,114 @@
       <c r="F30" s="23">
         <v>4.95</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I30" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40975</v>
+      </c>
+      <c r="J30" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40999</v>
       </c>
-      <c r="I30" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K30" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>2</v>
       </c>
-      <c r="J30" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L30" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>990</v>
       </c>
-      <c r="K30" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M30" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>-2050</v>
       </c>
-      <c r="L30" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N30" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="M30" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O30" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="N30" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P30" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
-      <c r="O30" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R30" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
-      <c r="P30" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S30" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="Q30" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T30" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>-2082.25</v>
       </c>
-      <c r="R30" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U30" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>-1006.1200000000001</v>
       </c>
-      <c r="S30" s="23">
+      <c r="V30" s="23">
         <f t="shared" si="0"/>
         <v>5.0306000000000006</v>
       </c>
-      <c r="T30" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J30*SETUP!$H$3,     0),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="W30" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L30*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>200</v>
       </c>
-      <c r="V30" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="Y30" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>5.0306000000000006</v>
       </c>
-      <c r="W30" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="X30" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="Z30" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
+      <c r="Z30" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="AA30" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="AB30" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AE30" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AG30" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4364</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33">
       <c r="A31" s="21">
         <v>30</v>
       </c>
@@ -6127,7 +6959,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="22">
-        <v>40977</v>
+        <v>40974</v>
       </c>
       <c r="E31" s="21">
         <v>500</v>
@@ -6135,95 +6967,114 @@
       <c r="F31" s="23">
         <v>2.04</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I31" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40977</v>
+      </c>
+      <c r="J31" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40999</v>
       </c>
-      <c r="I31" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K31" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J31" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L31" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>1020</v>
       </c>
-      <c r="K31" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M31" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>1020</v>
       </c>
-      <c r="L31" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N31" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="M31" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O31" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N31" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P31" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O31" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R31" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P31" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S31" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q31" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T31" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>1003.88</v>
       </c>
-      <c r="R31" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U31" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>1003.88</v>
       </c>
-      <c r="S31" s="23">
+      <c r="V31" s="23">
         <f t="shared" si="0"/>
         <v>2.0077600000000002</v>
       </c>
-      <c r="T31" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J31*SETUP!$H$3,     0),2)</f>
+      <c r="W31" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L31*SETUP!$H$3,     0),2)</f>
         <v>0.05</v>
       </c>
-      <c r="U31" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
+      <c r="X31" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
         <v>2.1522599999999996</v>
       </c>
-      <c r="W31" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Z31" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>2.0077600000000002</v>
       </c>
-      <c r="X31" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+      <c r="AA31" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
         <v>-72.249999999999702</v>
       </c>
-      <c r="Y31" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="Z31" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="AB31" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+      <c r="AB31" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>-7.1970753476510843E-2</v>
+      </c>
+      <c r="AD31" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AE31" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AG31" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4364</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33">
       <c r="A32" s="21">
         <v>31</v>
       </c>
@@ -6234,7 +7085,7 @@
         <v>57</v>
       </c>
       <c r="D32" s="22">
-        <v>40981</v>
+        <v>40976</v>
       </c>
       <c r="E32" s="21">
         <v>200</v>
@@ -6242,139 +7093,421 @@
       <c r="F32" s="23">
         <v>6.37</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="21">
-        <f>EOMONTH(NC[[#This Row],[DATA]],0)</f>
+      <c r="I32" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40981</v>
+      </c>
+      <c r="J32" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
         <v>40999</v>
       </c>
-      <c r="I32" s="21">
-        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
+      <c r="K32" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
         <v>1</v>
       </c>
-      <c r="J32" s="23">
-        <f>NC[QTDE]*NC[PREÇO]</f>
+      <c r="L32" s="23">
+        <f>[QTDE]*[PREÇO]</f>
         <v>1274</v>
       </c>
-      <c r="K32" s="23">
-        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
+      <c r="M32" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
         <v>1274</v>
       </c>
-      <c r="L32" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)+SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3),2)</f>
+      <c r="N32" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.35</v>
       </c>
-      <c r="M32" s="23">
-        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[VALOR]*SETUP!$A$3),2)</f>
+      <c r="O32" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.08</v>
       </c>
-      <c r="N32" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
+      <c r="P32" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
-      <c r="O32" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
+      <c r="R32" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="P32" s="23">
-        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
+      <c r="S32" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q32" s="23">
-        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
+      <c r="T32" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
         <v>1257.8000000000002</v>
       </c>
-      <c r="R32" s="23">
-        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
+      <c r="U32" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
         <v>1257.8000000000002</v>
       </c>
-      <c r="S32" s="23">
-        <f>ABS(R32)/E32</f>
+      <c r="V32" s="23">
+        <f>ABS(U32)/E32</f>
         <v>6.2890000000000006</v>
       </c>
-      <c r="T32" s="23">
-        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     J32*SETUP!$H$3,     0),2)</f>
+      <c r="W32" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L32*SETUP!$H$3,     0),2)</f>
         <v>0.06</v>
       </c>
-      <c r="U32" s="21">
-        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
+      <c r="X32" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
         <v>-200</v>
       </c>
-      <c r="V32" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="24">
-        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
+      <c r="Y32" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
         <v>6.2890000000000006</v>
       </c>
-      <c r="X32" s="23">
-        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="Z32" s="23">
-        <f>SUMPRODUCT(N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
-        <v>0</v>
-      </c>
       <c r="AA32" s="23">
-        <f>NC[LUCRO N]+NC[LUCRO D]</f>
-        <v>-1056.6299999999999</v>
-      </c>
-      <c r="AB32" s="23">
-        <f>SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[DATA]])),N(YEAR(NC[DATA])=YEAR(NC[[#This Row],[DATA]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AE32" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AG32" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
         <v>4364</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
+    <row r="33" spans="1:33">
+      <c r="A33" s="21">
         <v>32</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="23" t="s">
+      <c r="B33" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="22">
+        <v>40980</v>
+      </c>
+      <c r="E33" s="21">
+        <v>600</v>
+      </c>
+      <c r="F33" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40981</v>
+      </c>
+      <c r="J33" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="K33" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="L33" s="23">
+        <f>[QTDE]*[PREÇO]</f>
+        <v>168.00000000000003</v>
+      </c>
+      <c r="M33" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <v>-168.00000000000003</v>
+      </c>
+      <c r="N33" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="O33" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="P33" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="Q33" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>14.9</v>
+      </c>
+      <c r="R33" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S33" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T33" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <v>-183.98000000000005</v>
+      </c>
+      <c r="U33" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>-183.98000000000005</v>
+      </c>
+      <c r="V33" s="23">
+        <f>ABS(U33)/E33</f>
+        <v>0.30663333333333342</v>
+      </c>
+      <c r="W33" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L33*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>600</v>
+      </c>
+      <c r="Y33" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <v>0.30663333333333342</v>
+      </c>
+      <c r="Z33" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AE33" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AG33" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
+      <c r="A34" s="21">
+        <v>33</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="22">
+        <v>40980</v>
+      </c>
+      <c r="E34" s="21">
+        <v>400</v>
+      </c>
+      <c r="F34" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="22">
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <v>40981</v>
+      </c>
+      <c r="J34" s="21">
+        <f>EOMONTH(NC[[#This Row],[D LIQUID]],0)</f>
+        <v>40999</v>
+      </c>
+      <c r="K34" s="21">
+        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <v>1</v>
+      </c>
+      <c r="L34" s="23">
+        <f>[QTDE]*[PREÇO]</f>
+        <v>160</v>
+      </c>
+      <c r="M34" s="23">
+        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <v>-328</v>
+      </c>
+      <c r="N34" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="O34" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="P34" s="23">
+        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="Q34" s="23">
+        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <v>29.8</v>
+      </c>
+      <c r="R34" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="S34" s="23">
+        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="T34" s="23">
+        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <v>-359.98</v>
+      </c>
+      <c r="U34" s="23">
+        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <v>-175.99999999999997</v>
+      </c>
+      <c r="V34" s="23">
+        <f>ABS(U34)/E34</f>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="W34" s="23">
+        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L34*SETUP!$H$3,     0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="21">
+        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <v>400</v>
+      </c>
+      <c r="Y34" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="Z34" s="24">
+        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="23">
+        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="35">
+        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="34">
+        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AE34" s="23">
+        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="23">
+        <f>[LUCRO N]+[LUCRO D]</f>
+        <v>-72.249999999999702</v>
+      </c>
+      <c r="AG34" s="23">
+        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
+      <c r="A35" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="23">
-        <f>SUBTOTAL(109,NC[IRRF])</f>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="23">
+        <f>SUBTOTAL(109,[IRRF])</f>
         <v>0.77</v>
       </c>
-      <c r="U33" s="23"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="23">
-        <f>SUBTOTAL(109,NC[LUCRO OP])</f>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="23">
+        <f>SUBTOTAL(109,[LUCRO OP])-NC[[#Totals],[IRRF OPÇÃO]]</f>
         <v>-1578.42</v>
       </c>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25">
+      <c r="AB35" s="23">
+        <f>SUBTOTAL(109,[IRRF OPÇÃO])</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25">
         <f>NC[[#Totals],[LUCRO OP]]/NC[[#Totals],[LÍQUIDO]]</f>
         <v>-0.23329495386334445</v>
       </c>
-      <c r="AB33" s="28">
+      <c r="AG35" s="28">
         <f>IF(NC[[#Totals],[LUCRO OP]]&lt;0,ABS(NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]])),-NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]]))</f>
         <v>0.30428253347084733</v>
       </c>
+    </row>
+    <row r="36" spans="1:33">
+      <c r="D36" s="33"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -6392,27 +7525,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="2" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -6437,7 +7570,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -6456,7 +7589,7 @@
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>7.0000000000000007E-5</v>
       </c>
@@ -6484,10 +7617,76 @@
       <c r="I3" s="26">
         <v>6765.77</v>
       </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2.7499999999999996E-4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6.9499999999999998E-4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.2E-4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="G7" s="5"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:B1"/>
@@ -6497,7 +7696,7 @@
     <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -6506,12 +7705,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/stocks/nc_xpi.xlsx
+++ b/stocks/nc_xpi.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="211" activeTab="1"/>
@@ -12,7 +12,7 @@
     <sheet name="SETUP" sheetId="2" r:id="rId3"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -289,16 +289,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
-    <numFmt numFmtId="167" formatCode="0.0000%"/>
-    <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -455,16 +455,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1"/>
@@ -476,37 +476,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -526,31 +526,12 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
         <color rgb="FF00B050"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -569,7 +550,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -588,7 +569,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -607,7 +588,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -625,8 +606,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -644,8 +625,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -663,8 +644,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -682,7 +663,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -700,7 +681,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -718,8 +699,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -737,8 +718,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -756,7 +737,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -774,7 +755,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -792,8 +773,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -811,7 +792,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -829,7 +810,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -847,7 +828,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -865,7 +846,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -883,7 +864,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -901,7 +882,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -919,7 +900,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -937,7 +918,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -955,7 +936,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -973,7 +954,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -991,7 +972,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1009,7 +990,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1027,7 +1008,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1045,7 +1026,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1063,7 +1044,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1081,7 +1062,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1099,7 +1080,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1117,7 +1098,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1135,7 +1116,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1153,8 +1134,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1172,8 +1153,141 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1192,7 +1306,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1210,8 +1324,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1229,8 +1343,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1248,8 +1362,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1267,8 +1381,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1286,8 +1400,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1305,8 +1419,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1324,8 +1438,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1343,8 +1457,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1362,8 +1476,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1381,8 +1495,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1400,8 +1514,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1419,8 +1533,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1439,159 +1553,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1610,7 +1572,26 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1629,7 +1610,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1647,8 +1628,27 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1667,7 +1667,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1685,8 +1685,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1705,7 +1705,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1724,7 +1724,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1743,7 +1743,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1775,7 +1775,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1793,7 +1793,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2542,101 +2542,95 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="NC" displayName="NC" ref="A1:AG35" totalsRowCount="1" headerRowDxfId="68" dataDxfId="67" totalsRowDxfId="66">
-  <autoFilter ref="A1:AG34">
-    <filterColumn colId="6"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="15"/>
-    <filterColumn colId="27"/>
-    <filterColumn colId="28"/>
-  </autoFilter>
+  <autoFilter ref="A1:AG34"/>
   <sortState ref="A2:AC30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="33">
-    <tableColumn id="19" name="ID" totalsRowLabel="Total" dataDxfId="65" totalsRowDxfId="33"/>
-    <tableColumn id="2" name="ATIVO" dataDxfId="64" totalsRowDxfId="32"/>
-    <tableColumn id="3" name="OPER/TIPO" dataDxfId="63" totalsRowDxfId="31"/>
-    <tableColumn id="4" name="DATA" dataDxfId="62" totalsRowDxfId="30"/>
-    <tableColumn id="5" name="QTDE" dataDxfId="61" totalsRowDxfId="29"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="60" totalsRowDxfId="28"/>
-    <tableColumn id="27" name="[A/O]" dataDxfId="45" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="[D/N]" dataDxfId="59" totalsRowDxfId="26"/>
-    <tableColumn id="34" name="D LIQUID" dataDxfId="37" totalsRowDxfId="25">
-      <calculatedColumnFormula>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</calculatedColumnFormula>
+    <tableColumn id="19" name="ID" totalsRowLabel="Total" dataDxfId="65" totalsRowDxfId="32"/>
+    <tableColumn id="2" name="ATIVO" dataDxfId="64" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="OPER/TIPO" dataDxfId="63" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="DATA" dataDxfId="62" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="QTDE" dataDxfId="61" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="PREÇO" dataDxfId="60" totalsRowDxfId="27"/>
+    <tableColumn id="27" name="[A/O]" dataDxfId="59" totalsRowDxfId="26"/>
+    <tableColumn id="7" name="[D/N]" dataDxfId="58" totalsRowDxfId="25"/>
+    <tableColumn id="34" name="D LIQUID" dataDxfId="57" totalsRowDxfId="24">
+      <calculatedColumnFormula>WORKDAY(NC[[#This Row],[DATA]],IF(NC['[A/O']]="A",3,1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="D BASE" dataDxfId="36" totalsRowDxfId="24">
+    <tableColumn id="31" name="D BASE" dataDxfId="56" totalsRowDxfId="23">
       <calculatedColumnFormula>EOMONTH(NC[[#This Row],[D LIQUID]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="PAR" dataDxfId="58" totalsRowDxfId="23">
-      <calculatedColumnFormula>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</calculatedColumnFormula>
+    <tableColumn id="21" name="PAR" dataDxfId="55" totalsRowDxfId="22">
+      <calculatedColumnFormula>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="VALOR" dataDxfId="57" totalsRowDxfId="22">
-      <calculatedColumnFormula>[QTDE]*[PREÇO]</calculatedColumnFormula>
+    <tableColumn id="8" name="VALOR" dataDxfId="54" totalsRowDxfId="21">
+      <calculatedColumnFormula>NC[QTDE]*NC[PREÇO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="VL LIQUID" dataDxfId="56" totalsRowDxfId="21">
-      <calculatedColumnFormula>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</calculatedColumnFormula>
+    <tableColumn id="9" name="VL LIQUID" dataDxfId="53" totalsRowDxfId="20">
+      <calculatedColumnFormula>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TX LIQUID" dataDxfId="44" totalsRowDxfId="20">
-      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</calculatedColumnFormula>
+    <tableColumn id="10" name="TX LIQUID" dataDxfId="52" totalsRowDxfId="19">
+      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$E$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL" dataDxfId="43" totalsRowDxfId="19">
-      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</calculatedColumnFormula>
+    <tableColumn id="11" name="EMOL" dataDxfId="51" totalsRowDxfId="18">
+      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),NC[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$7),    2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="REGISTRO" dataDxfId="38" totalsRowDxfId="18">
-      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</calculatedColumnFormula>
+    <tableColumn id="28" name="REGISTRO" dataDxfId="50" totalsRowDxfId="17">
+      <calculatedColumnFormula>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$F$7),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="CORR. BASE" dataDxfId="55" totalsRowDxfId="17">
-      <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
+    <tableColumn id="12" name="CORR. BASE" dataDxfId="49" totalsRowDxfId="16">
+      <calculatedColumnFormula>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="ISS" dataDxfId="54" totalsRowDxfId="16">
-      <calculatedColumnFormula>TRUNC([CORR. BASE]*SETUP!$F$3,2)</calculatedColumnFormula>
+    <tableColumn id="13" name="ISS" dataDxfId="48" totalsRowDxfId="15">
+      <calculatedColumnFormula>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="OUTRAS" dataDxfId="53" totalsRowDxfId="15">
-      <calculatedColumnFormula>TRUNC([CORR. BASE]*SETUP!$G$3,2)</calculatedColumnFormula>
+    <tableColumn id="15" name="OUTRAS" dataDxfId="47" totalsRowDxfId="14">
+      <calculatedColumnFormula>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="LÍQUIDO" totalsRowLabel=" R$ 6.765,77 " dataDxfId="42" totalsRowDxfId="14">
-      <calculatedColumnFormula>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</calculatedColumnFormula>
+    <tableColumn id="16" name="LÍQUIDO" totalsRowLabel=" R$ 6.765,77 " dataDxfId="46" totalsRowDxfId="13">
+      <calculatedColumnFormula>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[REGISTRO]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="52" totalsRowDxfId="13">
-      <calculatedColumnFormula>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</calculatedColumnFormula>
+    <tableColumn id="17" name="VALOR P/ OP" dataDxfId="45" totalsRowDxfId="12">
+      <calculatedColumnFormula>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="MEDIO" dataDxfId="51" totalsRowDxfId="12">
+    <tableColumn id="18" name="MEDIO" dataDxfId="44" totalsRowDxfId="11">
       <calculatedColumnFormula>ABS(U2)/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="11">
-      <calculatedColumnFormula>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
+    <tableColumn id="20" name="IRRF" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="10">
+      <calculatedColumnFormula>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     L2*SETUP!$H$3,     0),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="SALDO" dataDxfId="49" totalsRowDxfId="10">
-      <calculatedColumnFormula>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</calculatedColumnFormula>
+    <tableColumn id="24" name="SALDO" dataDxfId="42" totalsRowDxfId="9">
+      <calculatedColumnFormula>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="MED CP" dataDxfId="48" totalsRowDxfId="9">
-      <calculatedColumnFormula>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</calculatedColumnFormula>
+    <tableColumn id="22" name="MED CP" dataDxfId="41" totalsRowDxfId="8">
+      <calculatedColumnFormula>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="MED VD" dataDxfId="47" totalsRowDxfId="8">
-      <calculatedColumnFormula>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</calculatedColumnFormula>
+    <tableColumn id="23" name="MED VD" dataDxfId="40" totalsRowDxfId="7">
+      <calculatedColumnFormula>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="LUCRO OP" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="7">
-      <calculatedColumnFormula>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</calculatedColumnFormula>
-      <totalsRowFormula>SUBTOTAL(109,[LUCRO OP])-NC[[#Totals],[IRRF OPÇÃO]]</totalsRowFormula>
+    <tableColumn id="25" name="LUCRO OP" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="6">
+      <calculatedColumnFormula>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</calculatedColumnFormula>
+      <totalsRowFormula>SUBTOTAL(109,NC[LUCRO OP])-NC[[#Totals],[IRRF OPÇÃO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" name="IRRF OPÇÃO" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="6" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</calculatedColumnFormula>
+    <tableColumn id="32" name="IRRF OPÇÃO" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="5" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(NC['[A/O']]="O",NC[LUCRO OP]*0.15,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="% LUCRO" dataDxfId="40" totalsRowDxfId="5" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[LUCRO OP]/ABS([VALOR P/ OP])</calculatedColumnFormula>
+    <tableColumn id="30" name="% LUCRO" dataDxfId="37" totalsRowDxfId="4" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>NC[LUCRO OP]/ABS(NC[VALOR P/ OP])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="LUCRO N" dataDxfId="35" totalsRowDxfId="4">
-      <calculatedColumnFormula>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</calculatedColumnFormula>
+    <tableColumn id="26" name="LUCRO N" dataDxfId="36" totalsRowDxfId="3">
+      <calculatedColumnFormula>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="LUCRO D" dataDxfId="34" totalsRowDxfId="3">
-      <calculatedColumnFormula>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</calculatedColumnFormula>
+    <tableColumn id="14" name="LUCRO D" dataDxfId="35" totalsRowDxfId="2">
+      <calculatedColumnFormula>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="LUCRO MÊS" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="2">
-      <calculatedColumnFormula>[LUCRO N]+[LUCRO D]</calculatedColumnFormula>
+    <tableColumn id="29" name="LUCRO MÊS" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="1">
+      <calculatedColumnFormula>NC[LUCRO N]+NC[LUCRO D]</calculatedColumnFormula>
       <totalsRowFormula>NC[[#Totals],[LUCRO OP]]/NC[[#Totals],[LÍQUIDO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="1" name="VOLUME" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="1">
-      <calculatedColumnFormula>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</calculatedColumnFormula>
+    <tableColumn id="1" name="VOLUME" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="0">
+      <calculatedColumnFormula>SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</calculatedColumnFormula>
       <totalsRowFormula>IF(NC[[#Totals],[LUCRO OP]]&lt;0,ABS(NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]])),-NC[[#Totals],[LUCRO OP]]/(NC[[#Totals],[LUCRO OP]]+NC[[#Totals],[LÍQUIDO]]))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2954,7 +2948,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2996,7 +2990,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3015,14 +3009,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -3032,13 +3026,13 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -3046,7 +3040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -3054,7 +3048,7 @@
         <v>-862.45000000000027</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
@@ -3062,7 +3056,7 @@
         <v>-130.13999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -3070,7 +3064,7 @@
         <v>205.45000000000027</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
@@ -3078,7 +3072,7 @@
         <v>-1201.19</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -3086,7 +3080,7 @@
         <v>-121.93</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
@@ -3094,7 +3088,7 @@
         <v>-21.560000000000855</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -3102,7 +3096,7 @@
         <v>-81.129999999999654</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -3110,7 +3104,7 @@
         <v>-255.90999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -3118,7 +3112,7 @@
         <v>-88.079999999999814</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
@@ -3126,13 +3120,13 @@
         <v>-150.42000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
@@ -3146,17 +3140,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG8" sqref="AG8"/>
+      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="15" bestFit="1" customWidth="1"/>
@@ -3185,7 +3179,7 @@
     <col min="25" max="25" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="15" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
@@ -3193,7 +3187,7 @@
     <col min="33" max="16384" width="11.5703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="18" customFormat="1">
+    <row r="1" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
@@ -3294,7 +3288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="21" customFormat="1">
+    <row r="2" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -3320,7 +3314,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(NC['[A/O']]="A",3,1))</f>
         <v>40882</v>
       </c>
       <c r="J2" s="21">
@@ -3328,47 +3322,47 @@
         <v>40908</v>
       </c>
       <c r="K2" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L2" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1362</v>
       </c>
       <c r="M2" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-1362</v>
       </c>
       <c r="N2" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.37</v>
       </c>
       <c r="O2" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),NC[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.09</v>
       </c>
       <c r="P2" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$F$7),2)</f>
         <v>0</v>
       </c>
       <c r="Q2" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R2" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S2" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T2" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[REGISTRO]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1378.2299999999998</v>
       </c>
       <c r="U2" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1378.2299999999998</v>
       </c>
       <c r="V2" s="23">
@@ -3376,51 +3370,51 @@
         <v>13.782299999999998</v>
       </c>
       <c r="W2" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L2*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     L2*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="X2" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>100</v>
       </c>
       <c r="Y2" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>13.782299999999998</v>
       </c>
       <c r="Z2" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="AA2" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="35">
-        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="34">
-        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="32">
+        <f>IF(NC['[A/O']]="O",NC[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="31">
+        <f>NC[LUCRO OP]/ABS(NC[VALOR P/ OP])</f>
         <v>0</v>
       </c>
       <c r="AD2" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="AE2" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AF2" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AG2" s="23">
-        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="21" customFormat="1">
+    <row r="3" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -3446,7 +3440,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(NC['[A/O']]="A",3,1))</f>
         <v>40886</v>
       </c>
       <c r="J3" s="21">
@@ -3454,47 +3448,47 @@
         <v>40908</v>
       </c>
       <c r="K3" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L3" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>844.99999999999989</v>
       </c>
       <c r="M3" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-844.99999999999989</v>
       </c>
       <c r="N3" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.23</v>
       </c>
       <c r="O3" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),NC[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.05</v>
       </c>
       <c r="P3" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$F$7),2)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R3" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S3" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T3" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[REGISTRO]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-861.04999999999984</v>
       </c>
       <c r="U3" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-861.04999999999984</v>
       </c>
       <c r="V3" s="23">
@@ -3502,51 +3496,51 @@
         <v>8.6104999999999983</v>
       </c>
       <c r="W3" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L3*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     L3*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="X3" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>100</v>
       </c>
       <c r="Y3" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>8.6104999999999983</v>
       </c>
       <c r="Z3" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="AA3" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="35">
-        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="34">
-        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="32">
+        <f>IF(NC['[A/O']]="O",NC[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="31">
+        <f>NC[LUCRO OP]/ABS(NC[VALOR P/ OP])</f>
         <v>0</v>
       </c>
       <c r="AD3" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="AE3" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AF3" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AG3" s="23">
-        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="21" customFormat="1">
+    <row r="4" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -3572,7 +3566,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(NC['[A/O']]="A",3,1))</f>
         <v>40889</v>
       </c>
       <c r="J4" s="21">
@@ -3580,47 +3574,47 @@
         <v>40908</v>
       </c>
       <c r="K4" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L4" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1600</v>
       </c>
       <c r="M4" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>1600</v>
       </c>
       <c r="N4" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.44</v>
       </c>
       <c r="O4" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),NC[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.11</v>
       </c>
       <c r="P4" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$F$7),2)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R4" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S4" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T4" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[REGISTRO]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>1583.68</v>
       </c>
       <c r="U4" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>1583.68</v>
       </c>
       <c r="V4" s="23">
@@ -3628,51 +3622,51 @@
         <v>15.8368</v>
       </c>
       <c r="W4" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L4*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     L4*SETUP!$H$3,     0),2)</f>
         <v>0.08</v>
       </c>
       <c r="X4" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="Y4" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>13.782299999999998</v>
       </c>
       <c r="Z4" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>15.8368</v>
       </c>
       <c r="AA4" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>205.45000000000027</v>
       </c>
-      <c r="AB4" s="35">
-        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="34">
-        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+      <c r="AB4" s="32">
+        <f>IF(NC['[A/O']]="O",NC[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="31">
+        <f>NC[LUCRO OP]/ABS(NC[VALOR P/ OP])</f>
         <v>0.12972949080622365</v>
       </c>
       <c r="AD4" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="AE4" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AF4" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AG4" s="23">
-        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="21" customFormat="1">
+    <row r="5" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -3698,7 +3692,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(NC['[A/O']]="A",3,1))</f>
         <v>40893</v>
       </c>
       <c r="J5" s="21">
@@ -3706,47 +3700,47 @@
         <v>40908</v>
       </c>
       <c r="K5" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="L5" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1132</v>
       </c>
       <c r="M5" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-1132</v>
       </c>
       <c r="N5" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.2</v>
       </c>
       <c r="O5" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),NC[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$7),    2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P5" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$F$7),2)</f>
         <v>0</v>
       </c>
       <c r="Q5" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R5" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S5" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T5" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[REGISTRO]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1148.04</v>
       </c>
       <c r="U5" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1148.04</v>
       </c>
       <c r="V5" s="23">
@@ -3754,51 +3748,51 @@
         <v>5.7401999999999997</v>
       </c>
       <c r="W5" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L5*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     L5*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="X5" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="Y5" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="Z5" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="AA5" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="35">
-        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="34">
-        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="32">
+        <f>IF(NC['[A/O']]="O",NC[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="31">
+        <f>NC[LUCRO OP]/ABS(NC[VALOR P/ OP])</f>
         <v>0</v>
       </c>
       <c r="AD5" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="AE5" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AF5" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AG5" s="23">
-        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="21" customFormat="1">
+    <row r="6" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -3824,7 +3818,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(NC['[A/O']]="A",3,1))</f>
         <v>40893</v>
       </c>
       <c r="J6" s="21">
@@ -3832,47 +3826,47 @@
         <v>40908</v>
       </c>
       <c r="K6" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="L6" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1128</v>
       </c>
       <c r="M6" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-4</v>
       </c>
       <c r="N6" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.4</v>
       </c>
       <c r="O6" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),NC[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.15</v>
       </c>
       <c r="P6" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$F$7),2)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="R6" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="S6" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="T6" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[REGISTRO]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-36.1</v>
       </c>
       <c r="U6" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>1111.94</v>
       </c>
       <c r="V6" s="23">
@@ -3880,51 +3874,51 @@
         <v>5.5597000000000003</v>
       </c>
       <c r="W6" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L6*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     L6*SETUP!$H$3,     0),2)</f>
         <v>0.05</v>
       </c>
       <c r="X6" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="Y6" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="Z6" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="AA6" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-36.1</v>
       </c>
-      <c r="AB6" s="35">
-        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="34">
-        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+      <c r="AB6" s="32">
+        <f>IF(NC['[A/O']]="O",NC[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="31">
+        <f>NC[LUCRO OP]/ABS(NC[VALOR P/ OP])</f>
         <v>-3.2465780527726314E-2</v>
       </c>
       <c r="AD6" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="AE6" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AF6" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AG6" s="23">
-        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="21" customFormat="1">
+    <row r="7" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -3950,7 +3944,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(NC['[A/O']]="A",3,1))</f>
         <v>40893</v>
       </c>
       <c r="J7" s="21">
@@ -3958,47 +3952,47 @@
         <v>40908</v>
       </c>
       <c r="K7" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="L7" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1130</v>
       </c>
       <c r="M7" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-1134</v>
       </c>
       <c r="N7" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.71</v>
       </c>
       <c r="O7" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),NC[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.23</v>
       </c>
       <c r="P7" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$F$7),2)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>44.7</v>
       </c>
       <c r="R7" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.89</v>
       </c>
       <c r="S7" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.74</v>
       </c>
       <c r="T7" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[REGISTRO]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1182.2700000000002</v>
       </c>
       <c r="U7" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1146.1700000000003</v>
       </c>
       <c r="V7" s="23">
@@ -4006,51 +4000,51 @@
         <v>5.7308500000000011</v>
       </c>
       <c r="W7" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L7*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     L7*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="X7" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>200</v>
       </c>
       <c r="Y7" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>5.7308500000000011</v>
       </c>
       <c r="Z7" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="AA7" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="35">
-        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="34">
-        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="32">
+        <f>IF(NC['[A/O']]="O",NC[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="31">
+        <f>NC[LUCRO OP]/ABS(NC[VALOR P/ OP])</f>
         <v>0</v>
       </c>
       <c r="AD7" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="AE7" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AF7" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AG7" s="23">
-        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="21" customFormat="1">
+    <row r="8" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -4076,7 +4070,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(NC['[A/O']]="A",3,1))</f>
         <v>40900</v>
       </c>
       <c r="J8" s="21">
@@ -4084,47 +4078,47 @@
         <v>40908</v>
       </c>
       <c r="K8" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L8" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>853.99999999999989</v>
       </c>
       <c r="M8" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>853.99999999999989</v>
       </c>
       <c r="N8" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.23</v>
       </c>
       <c r="O8" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),NC[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.05</v>
       </c>
       <c r="P8" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$F$7),2)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R8" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S8" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T8" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[REGISTRO]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>837.94999999999993</v>
       </c>
       <c r="U8" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>837.94999999999993</v>
       </c>
       <c r="V8" s="23">
@@ -4132,51 +4126,51 @@
         <v>4.1897500000000001</v>
       </c>
       <c r="W8" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L8*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     L8*SETUP!$H$3,     0),2)</f>
         <v>0.04</v>
       </c>
       <c r="X8" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>-200</v>
       </c>
       <c r="Y8" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="Z8" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>4.1897500000000001</v>
       </c>
       <c r="AA8" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="35">
-        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="34">
-        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="32">
+        <f>IF(NC['[A/O']]="O",NC[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="31">
+        <f>NC[LUCRO OP]/ABS(NC[VALOR P/ OP])</f>
         <v>0</v>
       </c>
       <c r="AD8" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="AE8" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AF8" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AG8" s="23">
-        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="21" customFormat="1">
+    <row r="9" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -4202,7 +4196,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(NC['[A/O']]="A",3,1))</f>
         <v>40905</v>
       </c>
       <c r="J9" s="21">
@@ -4210,47 +4204,47 @@
         <v>40908</v>
       </c>
       <c r="K9" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L9" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>2358</v>
       </c>
       <c r="M9" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-2358</v>
       </c>
       <c r="N9" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.64</v>
       </c>
       <c r="O9" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),NC[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.16</v>
       </c>
       <c r="P9" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$F$7),2)</f>
         <v>0</v>
       </c>
       <c r="Q9" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R9" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S9" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T9" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[REGISTRO]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-2374.5699999999997</v>
       </c>
       <c r="U9" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-2374.5699999999997</v>
       </c>
       <c r="V9" s="23">
@@ -4258,51 +4252,51 @@
         <v>7.9152333333333322</v>
       </c>
       <c r="W9" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L9*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     L9*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="X9" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>300</v>
       </c>
       <c r="Y9" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>7.9152333333333322</v>
       </c>
       <c r="Z9" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="AA9" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="35">
-        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="34">
-        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="32">
+        <f>IF(NC['[A/O']]="O",NC[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="31">
+        <f>NC[LUCRO OP]/ABS(NC[VALOR P/ OP])</f>
         <v>0</v>
       </c>
       <c r="AD9" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="AE9" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AF9" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AG9" s="23">
-        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="21" customFormat="1">
+    <row r="10" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -4328,7 +4322,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(NC['[A/O']]="A",3,1))</f>
         <v>40906</v>
       </c>
       <c r="J10" s="21">
@@ -4336,47 +4330,47 @@
         <v>40908</v>
       </c>
       <c r="K10" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="L10" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>690</v>
       </c>
       <c r="M10" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>690</v>
       </c>
       <c r="N10" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.18</v>
       </c>
       <c r="O10" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),NC[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.04</v>
       </c>
       <c r="P10" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$F$7),2)</f>
         <v>0</v>
       </c>
       <c r="Q10" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R10" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S10" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T10" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[REGISTRO]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>674.0100000000001</v>
       </c>
       <c r="U10" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>674.0100000000001</v>
       </c>
       <c r="V10" s="23">
@@ -4384,51 +4378,51 @@
         <v>6.7401000000000009</v>
       </c>
       <c r="W10" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L10*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     L10*SETUP!$H$3,     0),2)</f>
         <v>0.03</v>
       </c>
       <c r="X10" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>100</v>
       </c>
       <c r="Y10" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>5.7308500000000011</v>
       </c>
       <c r="Z10" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>6.7401000000000009</v>
       </c>
       <c r="AA10" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>100.92499999999998</v>
       </c>
-      <c r="AB10" s="35">
-        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="34">
-        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+      <c r="AB10" s="32">
+        <f>IF(NC['[A/O']]="O",NC[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="31">
+        <f>NC[LUCRO OP]/ABS(NC[VALOR P/ OP])</f>
         <v>0.14973813444904374</v>
       </c>
       <c r="AD10" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>306.37500000000023</v>
       </c>
       <c r="AE10" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>-36.1</v>
       </c>
       <c r="AF10" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>270.2750000000002</v>
       </c>
       <c r="AG10" s="23">
-        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>4272</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="21" customFormat="1">
+    <row r="11" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -4454,7 +4448,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(NC['[A/O']]="A",3,1))</f>
         <v>40913</v>
       </c>
       <c r="J11" s="21">
@@ -4462,47 +4456,47 @@
         <v>40939</v>
       </c>
       <c r="K11" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>2</v>
       </c>
       <c r="L11" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>583</v>
       </c>
       <c r="M11" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>583</v>
       </c>
       <c r="N11" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.16</v>
       </c>
       <c r="O11" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),NC[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.04</v>
       </c>
       <c r="P11" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$F$7),2)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R11" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S11" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T11" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[REGISTRO]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>567.03000000000009</v>
       </c>
       <c r="U11" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>567.03000000000009</v>
       </c>
       <c r="V11" s="23">
@@ -4510,51 +4504,51 @@
         <v>5.670300000000001</v>
       </c>
       <c r="W11" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L11*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     L11*SETUP!$H$3,     0),2)</f>
         <v>0.02</v>
       </c>
       <c r="X11" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="Y11" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>5.7308500000000011</v>
       </c>
       <c r="Z11" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>5.670300000000001</v>
       </c>
       <c r="AA11" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-6.0550000000000104</v>
       </c>
-      <c r="AB11" s="35">
-        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="34">
-        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+      <c r="AB11" s="32">
+        <f>IF(NC['[A/O']]="O",NC[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="31">
+        <f>NC[LUCRO OP]/ABS(NC[VALOR P/ OP])</f>
         <v>-1.0678447348464825E-2</v>
       </c>
       <c r="AD11" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-455.02500000000055</v>
       </c>
       <c r="AE11" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AF11" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-455.02500000000055</v>
       </c>
       <c r="AG11" s="23">
-        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="21" customFormat="1">
+    <row r="12" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -4580,7 +4574,7 @@
         <v>12</v>
       </c>
       <c r="I12" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(NC['[A/O']]="A",3,1))</f>
         <v>40914</v>
       </c>
       <c r="J12" s="21">
@@ -4588,47 +4582,47 @@
         <v>40939</v>
       </c>
       <c r="K12" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>3</v>
       </c>
       <c r="L12" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1160</v>
       </c>
       <c r="M12" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-1160</v>
       </c>
       <c r="N12" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.31</v>
       </c>
       <c r="O12" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),NC[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.08</v>
       </c>
       <c r="P12" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$F$7),2)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R12" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S12" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T12" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[REGISTRO]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1176.1599999999999</v>
       </c>
       <c r="U12" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1176.1599999999999</v>
       </c>
       <c r="V12" s="23">
@@ -4636,51 +4630,51 @@
         <v>5.8807999999999989</v>
       </c>
       <c r="W12" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L12*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     L12*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="X12" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>200</v>
       </c>
       <c r="Y12" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>5.8807999999999989</v>
       </c>
       <c r="Z12" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="AA12" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="35">
-        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="34">
-        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="32">
+        <f>IF(NC['[A/O']]="O",NC[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="31">
+        <f>NC[LUCRO OP]/ABS(NC[VALOR P/ OP])</f>
         <v>0</v>
       </c>
       <c r="AD12" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-455.02500000000055</v>
       </c>
       <c r="AE12" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AF12" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-455.02500000000055</v>
       </c>
       <c r="AG12" s="23">
-        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="21" customFormat="1">
+    <row r="13" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -4706,7 +4700,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(NC['[A/O']]="A",3,1))</f>
         <v>40925</v>
       </c>
       <c r="J13" s="21">
@@ -4714,47 +4708,47 @@
         <v>40939</v>
       </c>
       <c r="K13" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L13" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>2711.9999999999995</v>
       </c>
       <c r="M13" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>2711.9999999999995</v>
       </c>
       <c r="N13" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.74</v>
       </c>
       <c r="O13" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),NC[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.18</v>
       </c>
       <c r="P13" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$F$7),2)</f>
         <v>0</v>
       </c>
       <c r="Q13" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R13" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S13" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T13" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[REGISTRO]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>2695.31</v>
       </c>
       <c r="U13" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>2695.31</v>
       </c>
       <c r="V13" s="23">
@@ -4762,51 +4756,51 @@
         <v>8.9843666666666664</v>
       </c>
       <c r="W13" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L13*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     L13*SETUP!$H$3,     0),2)</f>
         <v>0.13</v>
       </c>
       <c r="X13" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>-300</v>
       </c>
       <c r="Y13" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0</v>
       </c>
       <c r="Z13" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>8.9843666666666664</v>
       </c>
       <c r="AA13" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="35">
-        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="34">
-        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="32">
+        <f>IF(NC['[A/O']]="O",NC[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="31">
+        <f>NC[LUCRO OP]/ABS(NC[VALOR P/ OP])</f>
         <v>0</v>
       </c>
       <c r="AD13" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-455.02500000000055</v>
       </c>
       <c r="AE13" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AF13" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-455.02500000000055</v>
       </c>
       <c r="AG13" s="23">
-        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="21" customFormat="1">
+    <row r="14" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -4832,7 +4826,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(NC['[A/O']]="A",3,1))</f>
         <v>40925</v>
       </c>
       <c r="J14" s="21">
@@ -4840,47 +4834,47 @@
         <v>40939</v>
       </c>
       <c r="K14" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>3</v>
       </c>
       <c r="L14" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1112</v>
       </c>
       <c r="M14" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>3823.9999999999995</v>
       </c>
       <c r="N14" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$E$7),    2)</f>
         <v>1.05</v>
       </c>
       <c r="O14" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),NC[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$7),    2)</f>
         <v>0.26</v>
       </c>
       <c r="P14" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$F$7),2)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>29.8</v>
       </c>
       <c r="R14" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.59</v>
       </c>
       <c r="S14" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="T14" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[REGISTRO]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>3791.139999999999</v>
       </c>
       <c r="U14" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>1095.829999999999</v>
       </c>
       <c r="V14" s="23">
@@ -4888,51 +4882,51 @@
         <v>5.4791499999999953</v>
       </c>
       <c r="W14" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L14*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     L14*SETUP!$H$3,     0),2)</f>
         <v>0.05</v>
       </c>
       <c r="X14" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>0</v>
       </c>
       <c r="Y14" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>5.8807999999999989</v>
       </c>
       <c r="Z14" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="VV",NC[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="CV",NC[MEDIO],0)))</f>
         <v>5.4791499999999953</v>
       </c>
       <c r="AA14" s="23">
-        <f>IF(['[D/N']]="D",IF([OPER/TIPO]="CC",0,SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([OPER/TIPO]="CV"),[LÍQUIDO])),IF(AND([MED CP]&gt;0,[MED VD]&gt;0),([MED VD]-[MED CP])*[QTDE],0))</f>
+        <f>IF(NC['[D/N']]="D",IF(NC[OPER/TIPO]="CC",0,SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[OPER/TIPO]="CV"),NC[LÍQUIDO])),IF(AND(NC[MED CP]&gt;0,NC[MED VD]&gt;0),(NC[MED VD]-NC[MED CP])*NC[QTDE],0))</f>
         <v>-80.330000000000723</v>
       </c>
-      <c r="AB14" s="35">
-        <f>IF(['[A/O']]="O",[LUCRO OP]*0.15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="34">
-        <f>[LUCRO OP]/ABS([VALOR P/ OP])</f>
+      <c r="AB14" s="32">
+        <f>IF(NC['[A/O']]="O",NC[LUCRO OP]*0.15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="31">
+        <f>NC[LUCRO OP]/ABS(NC[VALOR P/ OP])</f>
         <v>-7.3305165947273571E-2</v>
       </c>
       <c r="AD14" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="N"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[DATA])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="N"),NC[LUCRO OP])</f>
         <v>-455.02500000000055</v>
       </c>
       <c r="AE14" s="23">
-        <f>SUMPRODUCT(N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(['[D/N']]="D"),[LUCRO OP])</f>
+        <f>SUMPRODUCT(N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(NC['[D/N']]="D"),NC[LUCRO OP])</f>
         <v>0</v>
       </c>
       <c r="AF14" s="23">
-        <f>[LUCRO N]+[LUCRO D]</f>
+        <f>NC[LUCRO N]+NC[LUCRO D]</f>
         <v>-455.02500000000055</v>
       </c>
       <c r="AG14" s="23">
-        <f>SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N(MONTH([D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR([D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N([OPER/TIPO]="VV"),[VALOR])</f>
+        <f>SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(MONTH(NC[D LIQUID])=MONTH(NC[[#This Row],[D LIQUID]])),N(YEAR(NC[D LIQUID])=YEAR(NC[[#This Row],[D LIQUID]])),N(NC[OPER/TIPO]="VV"),NC[VALOR])</f>
         <v>5196</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="21" customFormat="1">
+    <row r="15" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -4958,7 +4952,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="22">
-        <f>WORKDAY(NC[[#This Row],[DATA]],IF(['[A/O']]="A",3,1))</f>
+        <f>WORKDAY(NC[[#This Row],[DATA]],IF(NC['[A/O']]="A",3,1))</f>
         <v>40932</v>
       </c>
       <c r="J15" s="21">
@@ -4966,47 +4960,47 @@
         <v>40939</v>
       </c>
       <c r="K15" s="21">
-        <f>IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="CC"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)),     SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([OPER/TIPO]="VV"))+SUMPRODUCT(N([ID]&lt;NC[[#This Row],[ID]]),N([ATIVO]=NC[[#This Row],[ATIVO]]),N(['[D/N']]="N"),N([SALDO]=0)))</f>
+        <f>IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="CC"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)),     SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[OPER/TIPO]="VV"))+SUMPRODUCT(N(NC[ID]&lt;NC[[#This Row],[ID]]),N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC['[D/N']]="N"),N(NC[SALDO]=0)))</f>
         <v>1</v>
       </c>
       <c r="L15" s="23">
-        <f>[QTDE]*[PREÇO]</f>
+        <f>NC[QTDE]*NC[PREÇO]</f>
         <v>1000</v>
       </c>
       <c r="M15" s="23">
-        <f>(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CV"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VV"),[VALOR]) )  -  (SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="CC"),[VALOR])  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N([OPER/TIPO]="VC"),[VALOR]))</f>
+        <f>(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CV"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VV"),NC[VALOR]) )  -  (SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="CC"),NC[VALOR])  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[OPER/TIPO]="VC"),NC[VALOR]))</f>
         <v>-1000</v>
       </c>
       <c r="N15" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$E$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$B$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$E$7),    2)</f>
         <v>0.27</v>
       </c>
       <c r="O15" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="A"),[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$D$7),    2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="A"),NC[VALOR]*SETUP!$A$3)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$A$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$D$7),    2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P15" s="23">
-        <f>TRUNC(SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="N"),[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]),N(['[A/O']]="O"),N(['[D/N']]="D"),[VALOR]*SETUP!$F$7),2)</f>
+        <f>TRUNC(SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="N"),NC[VALOR]*SETUP!$C$7)  +  SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC['[A/O']]="O"),N(NC['[D/N']]="D"),NC[VALOR]*SETUP!$F$7),2)</f>
         <v>0</v>
       </c>
       <c r="Q15" s="23">
-        <f>SETUP!$E$3*SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]&lt;=NC[[#This Row],[ID]]))</f>
+        <f>SETUP!$E$3*SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]&lt;=NC[[#This Row],[ID]]))</f>
         <v>14.9</v>
       </c>
       <c r="R15" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$F$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$F$3,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="S15" s="23">
-        <f>TRUNC([CORR. BASE]*SETUP!$G$3,2)</f>
+        <f>TRUNC(NC[CORR. BASE]*SETUP!$G$3,2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="T15" s="23">
-        <f>[VL LIQUID]-[TX LIQUID]-[EMOL]-[REGISTRO]-[CORR. BASE]-[ISS]-[OUTRAS]</f>
+        <f>NC[VL LIQUID]-NC[TX LIQUID]-NC[EMOL]-NC[REGISTRO]-NC[CORR. BASE]-NC[ISS]-NC[OUTRAS]</f>
         <v>-1016.11</v>
       </c>
       <c r="U15" s="23">
-        <f>[LÍQUIDO]-SUMPRODUCT(N([DATA]=NC[[#This Row],[DATA]]),N([ID]=(NC[[#This Row],[ID]]-1)),[LÍQUIDO])</f>
+        <f>NC[LÍQUIDO]-SUMPRODUCT(N(NC[DATA]=NC[[#This Row],[DATA]]),N(NC[ID]=(NC[[#This Row],[ID]]-1)),NC[LÍQUIDO])</f>
         <v>-1016.11</v>
       </c>
       <c r="V15" s="23">
@@ -5014,51 +5008,51 @@
         <v>0.50805500000000003</v>
       </c>
       <c r="W15" s="23">
-        <f>TRUNC(IF(OR([OPER/TIPO]="CV",[OPER/TIPO]="VV"),     L15*SETUP!$H$3,     0),2)</f>
+        <f>TRUNC(IF(OR(NC[OPER/TIPO]="CV",NC[OPER/TIPO]="VV"),     L15*SETUP!$H$3,     0),2)</f>
         <v>0</v>
       </c>
       <c r="X15" s="21">
-        <f>IF(['[D/N']]="D",0,IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE]),            SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])-SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),[QTDE])))</f>
+        <f>IF(NC['[D/N']]="D",0,IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE]),            SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])-SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="VV"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),NC[QTDE])))</f>
         <v>2000</v>
       </c>
       <c r="Y15" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="CC",[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="CC"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="VC",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="D",     0,     IF(OR(NC[OPER/TIPO]="CC",NC[OPER/TIPO]="CV"),     ABS(SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[VALOR P/ OP]))  /  SUMPRODUCT(N(NC[ATIVO]=NC[[#This Row],[ATIVO]]),N(NC[OPER/TIPO]="CC"),N(NC['[D/N']]="N"),N(NC[ID]&lt;=NC[[#This Row],[ID]]),N(NC[PAR]=NC[[#This Row],[PAR]]),NC[QTDE]),     IF(NC[OPER/TIPO]="VC",NC[MEDIO],0)))</f>
         <v>0.50805500000000003</v>
       </c>
       <c r="Z15" s="24">
-        <f>IF(['[D/N']]="D",     0,     IF(OR([OPER/TIPO]="VV",[OPER/TIPO]="VC"),     ABS(SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[VALOR P/ OP]))  /  SUMPRODUCT(N([ATIVO]=NC[[#This Row],[ATIVO]]),N([OPER/TIPO]="VV"),N(['[D/N']]="N"),N([ID]&lt;=NC[[#This Row],[ID]]),N([PAR]=NC[[#This Row],[PAR]]),[QTDE]),     IF([OPER/TIPO]="CV",[MEDIO],0)))</f>
+        <f>IF(NC['[D/N']]="